--- a/results_first_run.xlsx
+++ b/results_first_run.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{2862600F-8769-48DA-9B1E-38150A4E1C9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C9C0C83F-7898-4204-8F0D-BE6AED8D6E8D}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{2862600F-8769-48DA-9B1E-38150A4E1C9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9DF760DB-4F61-4DED-B936-79F71898ADB3}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="-108" windowWidth="22068" windowHeight="13176" xr2:uid="{8EA42393-C8BF-4838-AC1F-5C76CCFB2FDC}"/>
   </bookViews>
@@ -1031,104 +1031,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C4E26A-D606-4DDC-8281-28D69DD829E4}">
-  <dimension ref="A1:CD38"/>
+  <dimension ref="A1:CD2735"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="8.88671875" style="1" customWidth="1"/>
     <col min="23" max="24" width="8.88671875" style="1"/>
-    <col min="25" max="25" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="3"/>
     <col min="26" max="28" width="8.88671875" style="1"/>
-    <col min="29" max="31" width="8.88671875" style="1" customWidth="1"/>
-    <col min="32" max="34" width="8.88671875" style="1"/>
-    <col min="35" max="40" width="8.88671875" style="1" customWidth="1"/>
-    <col min="41" max="46" width="8.88671875" style="1"/>
-    <col min="47" max="52" width="8.88671875" style="1" customWidth="1"/>
+    <col min="29" max="40" width="8.88671875" style="1" customWidth="1"/>
+    <col min="41" max="43" width="8.88671875" style="1"/>
+    <col min="44" max="52" width="8.88671875" style="1" customWidth="1"/>
     <col min="53" max="55" width="8.88671875" style="1"/>
-    <col min="56" max="58" width="8.88671875" style="1" customWidth="1"/>
-    <col min="59" max="61" width="8.88671875" style="1"/>
-    <col min="62" max="67" width="8.88671875" style="1" customWidth="1"/>
-    <col min="68" max="73" width="8.88671875" style="1"/>
-    <col min="74" max="79" width="8.88671875" style="1" customWidth="1"/>
+    <col min="56" max="67" width="8.88671875" style="1" customWidth="1"/>
+    <col min="68" max="70" width="8.88671875" style="1"/>
+    <col min="71" max="79" width="8.88671875" style="1" customWidth="1"/>
     <col min="80" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:82" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:82" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>1719227.46303196</v>
       </c>
       <c r="Q2" s="1">
-        <v>1579750.91303958</v>
+        <v>1505366.7271591299</v>
       </c>
       <c r="R2" s="1">
         <v>2041934.0792185301</v>
@@ -1187,7 +1187,7 @@
         <v>1602049.2251090801</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>153004.02503361399</v>
       </c>
       <c r="Q4" s="1">
-        <v>141547.61417269701</v>
+        <v>135020.37615006501</v>
       </c>
       <c r="R4" s="1">
         <v>183412.55766495201</v>
@@ -1355,7 +1355,7 @@
         <v>1093738.1927483401</v>
       </c>
       <c r="Q5" s="1">
-        <v>965718.05361688498</v>
+        <v>897861.10575907095</v>
       </c>
       <c r="R5" s="1">
         <v>1386036.27630357</v>
@@ -1414,7 +1414,7 @@
         <v>284916.91566663701</v>
       </c>
       <c r="Q6" s="1">
-        <v>179703.41841167299</v>
+        <v>169023.05894859799</v>
       </c>
       <c r="R6" s="1">
         <v>361159.220459253</v>
@@ -1473,7 +1473,7 @@
         <v>33692.051892699797</v>
       </c>
       <c r="Q7" s="1">
-        <v>29114.2630899619</v>
+        <v>29296.239355103498</v>
       </c>
       <c r="R7" s="1">
         <v>35237.308783194298</v>
@@ -1532,7 +1532,7 @@
         <v>273859.77659214399</v>
       </c>
       <c r="Q8" s="1">
-        <v>274594.79243130703</v>
+        <v>233247.67694048199</v>
       </c>
       <c r="R8" s="1">
         <v>428635.27767164703</v>
@@ -1591,7 +1591,7 @@
         <v>25586.265584743302</v>
       </c>
       <c r="Q9" s="1">
-        <v>23670.4547368198</v>
+        <v>22578.930212904699</v>
       </c>
       <c r="R9" s="1">
         <v>30671.365743231301</v>
@@ -1650,7 +1650,7 @@
         <v>126344.080916012</v>
       </c>
       <c r="Q10" s="1">
-        <v>126284.26353404101</v>
+        <v>126222.203184539</v>
       </c>
       <c r="R10" s="1">
         <v>126583.78032467399</v>
@@ -1709,7 +1709,7 @@
         <v>308262.91351991601</v>
       </c>
       <c r="Q11" s="1">
-        <v>293874.15539436101</v>
+        <v>280512.29406075401</v>
       </c>
       <c r="R11" s="1">
         <v>355917.14533559902</v>
@@ -1827,7 +1827,7 @@
         <v>3.5659999999999997E-2</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.6459999999999999E-2</v>
+        <v>3.56E-2</v>
       </c>
       <c r="R13" s="1">
         <v>3.6979999999999999E-2</v>
@@ -1886,7 +1886,7 @@
         <v>17.975750941970801</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.5813296377037</v>
+        <v>18.006047151423498</v>
       </c>
       <c r="R14" s="1">
         <v>17.334107046800401</v>
@@ -2185,7 +2185,7 @@
         <v>285.24264865934498</v>
       </c>
       <c r="Q18" s="1">
-        <v>263.884668191971</v>
+        <v>251.71605588522601</v>
       </c>
       <c r="R18" s="1">
         <v>341.93272846411799</v>
@@ -2244,7 +2244,7 @@
         <v>58.5056559993318</v>
       </c>
       <c r="Q19" s="1">
-        <v>56.272693362799501</v>
+        <v>54.9599187647026</v>
       </c>
       <c r="R19" s="1">
         <v>64.056168645723801</v>
@@ -2303,7 +2303,7 @@
         <v>6.9649590475394998</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.6991301622380304</v>
+        <v>6.5428474719884004</v>
       </c>
       <c r="R20" s="1">
         <v>7.6257343625861704</v>
@@ -2362,7 +2362,7 @@
         <v>2.7859836190157998</v>
       </c>
       <c r="Q21" s="1">
-        <v>2.67965206489521</v>
+        <v>2.61713898879536</v>
       </c>
       <c r="R21" s="1">
         <v>3.05029374503447</v>
@@ -2539,7 +2539,7 @@
         <v>53.998516569010597</v>
       </c>
       <c r="Q24" s="1">
-        <v>53.998516569010597</v>
+        <v>50.422636868395202</v>
       </c>
       <c r="R24" s="1">
         <v>67.140015067668401</v>
@@ -2598,7 +2598,7 @@
         <v>6.2877186341350804</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.2877186341350804</v>
+        <v>5.9507847046706299</v>
       </c>
       <c r="R25" s="1">
         <v>6.9352910910709697</v>
@@ -2657,7 +2657,7 @@
         <v>11.6322794731499</v>
       </c>
       <c r="Q26" s="1">
-        <v>11.6322794731499</v>
+        <v>11.0089517036406</v>
       </c>
       <c r="R26" s="1">
         <v>12.830288518481201</v>
@@ -2716,7 +2716,7 @@
         <v>20.7494714926457</v>
       </c>
       <c r="Q27" s="1">
-        <v>20.7494714926457</v>
+        <v>19.637589525413102</v>
       </c>
       <c r="R27" s="1">
         <v>22.8864606005342</v>
@@ -2775,7 +2775,7 @@
         <v>28.3509639325245</v>
       </c>
       <c r="Q28" s="1">
-        <v>28.5033512019731</v>
+        <v>26.378734072412101</v>
       </c>
       <c r="R28" s="1">
         <v>35.989646789837003</v>
@@ -2834,7 +2834,7 @@
         <v>51.540603607002303</v>
       </c>
       <c r="Q29" s="1">
-        <v>45.615902931465797</v>
+        <v>45.920785306150599</v>
       </c>
       <c r="R29" s="1">
         <v>53.286224529280801</v>
@@ -2893,7 +2893,7 @@
         <v>45.816485292496502</v>
       </c>
       <c r="Q30" s="1">
-        <v>40.652816656033899</v>
+        <v>40.797592218650799</v>
       </c>
       <c r="R30" s="1">
         <v>47.742486011643301</v>
@@ -2952,7 +2952,7 @@
         <v>393634.85514989699</v>
       </c>
       <c r="Q31" s="1">
-        <v>364160.84210492001</v>
+        <v>347368.15712161199</v>
       </c>
       <c r="R31" s="1">
         <v>471867.16528048198</v>
@@ -3188,7 +3188,7 @@
         <v>9.0717551540212497E-3</v>
       </c>
       <c r="Q35" s="1">
-        <v>8.5807716228325503E-3</v>
+        <v>7.99201769863115E-3</v>
       </c>
       <c r="R35" s="1">
         <v>1.12772471740027E-2</v>
@@ -3197,67 +3197,6645 @@
         <v>6.3606680172442302E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <f>IF(B24&lt;52, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" ref="C38:S38" si="0">IF(C24&lt;52, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="49" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="2"/>
+      <c r="BM49" s="2"/>
+      <c r="BN49" s="2"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="2"/>
+      <c r="BQ49" s="2"/>
+      <c r="BR49" s="2"/>
+      <c r="BS49" s="2"/>
+      <c r="BT49" s="2"/>
+      <c r="BU49" s="2"/>
+      <c r="BV49" s="2"/>
+      <c r="BW49" s="2"/>
+      <c r="BX49" s="2"/>
+      <c r="BY49" s="2"/>
+      <c r="BZ49" s="2"/>
+      <c r="CA49" s="2"/>
+      <c r="CB49" s="2"/>
+      <c r="CC49" s="2"/>
+      <c r="CD49" s="2"/>
+    </row>
+    <row r="83" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="2"/>
+      <c r="AQ83" s="2"/>
+      <c r="AR83" s="2"/>
+      <c r="AS83" s="2"/>
+      <c r="AT83" s="2"/>
+      <c r="AU83" s="2"/>
+      <c r="AV83" s="2"/>
+      <c r="AW83" s="2"/>
+      <c r="AX83" s="2"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="2"/>
+      <c r="BA83" s="2"/>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="2"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="2"/>
+      <c r="BK83" s="2"/>
+      <c r="BL83" s="2"/>
+      <c r="BM83" s="2"/>
+      <c r="BN83" s="2"/>
+      <c r="BO83" s="2"/>
+      <c r="BP83" s="2"/>
+      <c r="BQ83" s="2"/>
+      <c r="BR83" s="2"/>
+      <c r="BS83" s="2"/>
+      <c r="BT83" s="2"/>
+      <c r="BU83" s="2"/>
+      <c r="BV83" s="2"/>
+      <c r="BW83" s="2"/>
+      <c r="BX83" s="2"/>
+      <c r="BY83" s="2"/>
+      <c r="BZ83" s="2"/>
+      <c r="CA83" s="2"/>
+      <c r="CB83" s="2"/>
+      <c r="CC83" s="2"/>
+      <c r="CD83" s="2"/>
+    </row>
+    <row r="117" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+      <c r="AF117" s="2"/>
+      <c r="AG117" s="2"/>
+      <c r="AH117" s="2"/>
+      <c r="AI117" s="2"/>
+      <c r="AJ117" s="2"/>
+      <c r="AK117" s="2"/>
+      <c r="AL117" s="2"/>
+      <c r="AM117" s="2"/>
+      <c r="AN117" s="2"/>
+      <c r="AO117" s="2"/>
+      <c r="AP117" s="2"/>
+      <c r="AQ117" s="2"/>
+      <c r="AR117" s="2"/>
+      <c r="AS117" s="2"/>
+      <c r="AT117" s="2"/>
+      <c r="AU117" s="2"/>
+      <c r="AV117" s="2"/>
+      <c r="AW117" s="2"/>
+      <c r="AX117" s="2"/>
+      <c r="AY117" s="2"/>
+      <c r="AZ117" s="2"/>
+      <c r="BA117" s="2"/>
+      <c r="BB117" s="2"/>
+      <c r="BC117" s="2"/>
+      <c r="BD117" s="2"/>
+      <c r="BE117" s="2"/>
+      <c r="BF117" s="2"/>
+      <c r="BG117" s="2"/>
+      <c r="BH117" s="2"/>
+      <c r="BI117" s="2"/>
+      <c r="BJ117" s="2"/>
+      <c r="BK117" s="2"/>
+      <c r="BL117" s="2"/>
+      <c r="BM117" s="2"/>
+      <c r="BN117" s="2"/>
+      <c r="BO117" s="2"/>
+      <c r="BP117" s="2"/>
+      <c r="BQ117" s="2"/>
+      <c r="BR117" s="2"/>
+      <c r="BS117" s="2"/>
+      <c r="BT117" s="2"/>
+      <c r="BU117" s="2"/>
+      <c r="BV117" s="2"/>
+      <c r="BW117" s="2"/>
+      <c r="BX117" s="2"/>
+      <c r="BY117" s="2"/>
+      <c r="BZ117" s="2"/>
+      <c r="CA117" s="2"/>
+      <c r="CB117" s="2"/>
+      <c r="CC117" s="2"/>
+      <c r="CD117" s="2"/>
+    </row>
+    <row r="151" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2"/>
+      <c r="V151" s="2"/>
+      <c r="W151" s="2"/>
+      <c r="X151" s="2"/>
+      <c r="Y151" s="4"/>
+      <c r="Z151" s="2"/>
+      <c r="AA151" s="2"/>
+      <c r="AB151" s="2"/>
+      <c r="AC151" s="2"/>
+      <c r="AD151" s="2"/>
+      <c r="AE151" s="2"/>
+      <c r="AF151" s="2"/>
+      <c r="AG151" s="2"/>
+      <c r="AH151" s="2"/>
+      <c r="AI151" s="2"/>
+      <c r="AJ151" s="2"/>
+      <c r="AK151" s="2"/>
+      <c r="AL151" s="2"/>
+      <c r="AM151" s="2"/>
+      <c r="AN151" s="2"/>
+      <c r="AO151" s="2"/>
+      <c r="AP151" s="2"/>
+      <c r="AQ151" s="2"/>
+      <c r="AR151" s="2"/>
+      <c r="AS151" s="2"/>
+      <c r="AT151" s="2"/>
+      <c r="AU151" s="2"/>
+      <c r="AV151" s="2"/>
+      <c r="AW151" s="2"/>
+      <c r="AX151" s="2"/>
+      <c r="AY151" s="2"/>
+      <c r="AZ151" s="2"/>
+      <c r="BA151" s="2"/>
+      <c r="BB151" s="2"/>
+      <c r="BC151" s="2"/>
+      <c r="BD151" s="2"/>
+      <c r="BE151" s="2"/>
+      <c r="BF151" s="2"/>
+      <c r="BG151" s="2"/>
+      <c r="BH151" s="2"/>
+      <c r="BI151" s="2"/>
+      <c r="BJ151" s="2"/>
+      <c r="BK151" s="2"/>
+      <c r="BL151" s="2"/>
+      <c r="BM151" s="2"/>
+      <c r="BN151" s="2"/>
+      <c r="BO151" s="2"/>
+      <c r="BP151" s="2"/>
+      <c r="BQ151" s="2"/>
+      <c r="BR151" s="2"/>
+      <c r="BS151" s="2"/>
+      <c r="BT151" s="2"/>
+      <c r="BU151" s="2"/>
+      <c r="BV151" s="2"/>
+      <c r="BW151" s="2"/>
+      <c r="BX151" s="2"/>
+      <c r="BY151" s="2"/>
+      <c r="BZ151" s="2"/>
+      <c r="CA151" s="2"/>
+      <c r="CB151" s="2"/>
+      <c r="CC151" s="2"/>
+      <c r="CD151" s="2"/>
+    </row>
+    <row r="185" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="2"/>
+      <c r="X185" s="2"/>
+      <c r="Y185" s="4"/>
+      <c r="Z185" s="2"/>
+      <c r="AA185" s="2"/>
+      <c r="AB185" s="2"/>
+      <c r="AC185" s="2"/>
+      <c r="AD185" s="2"/>
+      <c r="AE185" s="2"/>
+      <c r="AF185" s="2"/>
+      <c r="AG185" s="2"/>
+      <c r="AH185" s="2"/>
+      <c r="AI185" s="2"/>
+      <c r="AJ185" s="2"/>
+      <c r="AK185" s="2"/>
+      <c r="AL185" s="2"/>
+      <c r="AM185" s="2"/>
+      <c r="AN185" s="2"/>
+      <c r="AO185" s="2"/>
+      <c r="AP185" s="2"/>
+      <c r="AQ185" s="2"/>
+      <c r="AR185" s="2"/>
+      <c r="AS185" s="2"/>
+      <c r="AT185" s="2"/>
+      <c r="AU185" s="2"/>
+      <c r="AV185" s="2"/>
+      <c r="AW185" s="2"/>
+      <c r="AX185" s="2"/>
+      <c r="AY185" s="2"/>
+      <c r="AZ185" s="2"/>
+      <c r="BA185" s="2"/>
+      <c r="BB185" s="2"/>
+      <c r="BC185" s="2"/>
+      <c r="BD185" s="2"/>
+      <c r="BE185" s="2"/>
+      <c r="BF185" s="2"/>
+      <c r="BG185" s="2"/>
+      <c r="BH185" s="2"/>
+      <c r="BI185" s="2"/>
+      <c r="BJ185" s="2"/>
+      <c r="BK185" s="2"/>
+      <c r="BL185" s="2"/>
+      <c r="BM185" s="2"/>
+      <c r="BN185" s="2"/>
+      <c r="BO185" s="2"/>
+      <c r="BP185" s="2"/>
+      <c r="BQ185" s="2"/>
+      <c r="BR185" s="2"/>
+      <c r="BS185" s="2"/>
+      <c r="BT185" s="2"/>
+      <c r="BU185" s="2"/>
+      <c r="BV185" s="2"/>
+      <c r="BW185" s="2"/>
+      <c r="BX185" s="2"/>
+      <c r="BY185" s="2"/>
+      <c r="BZ185" s="2"/>
+      <c r="CA185" s="2"/>
+      <c r="CB185" s="2"/>
+      <c r="CC185" s="2"/>
+      <c r="CD185" s="2"/>
+    </row>
+    <row r="219" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="2"/>
+      <c r="V219" s="2"/>
+      <c r="W219" s="2"/>
+      <c r="X219" s="2"/>
+      <c r="Y219" s="4"/>
+      <c r="Z219" s="2"/>
+      <c r="AA219" s="2"/>
+      <c r="AB219" s="2"/>
+      <c r="AC219" s="2"/>
+      <c r="AD219" s="2"/>
+      <c r="AE219" s="2"/>
+      <c r="AF219" s="2"/>
+      <c r="AG219" s="2"/>
+      <c r="AH219" s="2"/>
+      <c r="AI219" s="2"/>
+      <c r="AJ219" s="2"/>
+      <c r="AK219" s="2"/>
+      <c r="AL219" s="2"/>
+      <c r="AM219" s="2"/>
+      <c r="AN219" s="2"/>
+      <c r="AO219" s="2"/>
+      <c r="AP219" s="2"/>
+      <c r="AQ219" s="2"/>
+      <c r="AR219" s="2"/>
+      <c r="AS219" s="2"/>
+      <c r="AT219" s="2"/>
+      <c r="AU219" s="2"/>
+      <c r="AV219" s="2"/>
+      <c r="AW219" s="2"/>
+      <c r="AX219" s="2"/>
+      <c r="AY219" s="2"/>
+      <c r="AZ219" s="2"/>
+      <c r="BA219" s="2"/>
+      <c r="BB219" s="2"/>
+      <c r="BC219" s="2"/>
+      <c r="BD219" s="2"/>
+      <c r="BE219" s="2"/>
+      <c r="BF219" s="2"/>
+      <c r="BG219" s="2"/>
+      <c r="BH219" s="2"/>
+      <c r="BI219" s="2"/>
+      <c r="BJ219" s="2"/>
+      <c r="BK219" s="2"/>
+      <c r="BL219" s="2"/>
+      <c r="BM219" s="2"/>
+      <c r="BN219" s="2"/>
+      <c r="BO219" s="2"/>
+      <c r="BP219" s="2"/>
+      <c r="BQ219" s="2"/>
+      <c r="BR219" s="2"/>
+      <c r="BS219" s="2"/>
+      <c r="BT219" s="2"/>
+      <c r="BU219" s="2"/>
+      <c r="BV219" s="2"/>
+      <c r="BW219" s="2"/>
+      <c r="BX219" s="2"/>
+      <c r="BY219" s="2"/>
+      <c r="BZ219" s="2"/>
+      <c r="CA219" s="2"/>
+      <c r="CB219" s="2"/>
+      <c r="CC219" s="2"/>
+      <c r="CD219" s="2"/>
+    </row>
+    <row r="253" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="2"/>
+      <c r="N253" s="2"/>
+      <c r="O253" s="2"/>
+      <c r="P253" s="2"/>
+      <c r="Q253" s="2"/>
+      <c r="R253" s="2"/>
+      <c r="S253" s="2"/>
+      <c r="T253" s="2"/>
+      <c r="U253" s="2"/>
+      <c r="V253" s="2"/>
+      <c r="W253" s="2"/>
+      <c r="X253" s="2"/>
+      <c r="Y253" s="4"/>
+      <c r="Z253" s="2"/>
+      <c r="AA253" s="2"/>
+      <c r="AB253" s="2"/>
+      <c r="AC253" s="2"/>
+      <c r="AD253" s="2"/>
+      <c r="AE253" s="2"/>
+      <c r="AF253" s="2"/>
+      <c r="AG253" s="2"/>
+      <c r="AH253" s="2"/>
+      <c r="AI253" s="2"/>
+      <c r="AJ253" s="2"/>
+      <c r="AK253" s="2"/>
+      <c r="AL253" s="2"/>
+      <c r="AM253" s="2"/>
+      <c r="AN253" s="2"/>
+      <c r="AO253" s="2"/>
+      <c r="AP253" s="2"/>
+      <c r="AQ253" s="2"/>
+      <c r="AR253" s="2"/>
+      <c r="AS253" s="2"/>
+      <c r="AT253" s="2"/>
+      <c r="AU253" s="2"/>
+      <c r="AV253" s="2"/>
+      <c r="AW253" s="2"/>
+      <c r="AX253" s="2"/>
+      <c r="AY253" s="2"/>
+      <c r="AZ253" s="2"/>
+      <c r="BA253" s="2"/>
+      <c r="BB253" s="2"/>
+      <c r="BC253" s="2"/>
+      <c r="BD253" s="2"/>
+      <c r="BE253" s="2"/>
+      <c r="BF253" s="2"/>
+      <c r="BG253" s="2"/>
+      <c r="BH253" s="2"/>
+      <c r="BI253" s="2"/>
+      <c r="BJ253" s="2"/>
+      <c r="BK253" s="2"/>
+      <c r="BL253" s="2"/>
+      <c r="BM253" s="2"/>
+      <c r="BN253" s="2"/>
+      <c r="BO253" s="2"/>
+      <c r="BP253" s="2"/>
+      <c r="BQ253" s="2"/>
+      <c r="BR253" s="2"/>
+      <c r="BS253" s="2"/>
+      <c r="BT253" s="2"/>
+      <c r="BU253" s="2"/>
+      <c r="BV253" s="2"/>
+      <c r="BW253" s="2"/>
+      <c r="BX253" s="2"/>
+      <c r="BY253" s="2"/>
+      <c r="BZ253" s="2"/>
+      <c r="CA253" s="2"/>
+      <c r="CB253" s="2"/>
+      <c r="CC253" s="2"/>
+      <c r="CD253" s="2"/>
+    </row>
+    <row r="287" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+      <c r="L287" s="2"/>
+      <c r="M287" s="2"/>
+      <c r="N287" s="2"/>
+      <c r="O287" s="2"/>
+      <c r="P287" s="2"/>
+      <c r="Q287" s="2"/>
+      <c r="R287" s="2"/>
+      <c r="S287" s="2"/>
+      <c r="T287" s="2"/>
+      <c r="U287" s="2"/>
+      <c r="V287" s="2"/>
+      <c r="W287" s="2"/>
+      <c r="X287" s="2"/>
+      <c r="Y287" s="4"/>
+      <c r="Z287" s="2"/>
+      <c r="AA287" s="2"/>
+      <c r="AB287" s="2"/>
+      <c r="AC287" s="2"/>
+      <c r="AD287" s="2"/>
+      <c r="AE287" s="2"/>
+      <c r="AF287" s="2"/>
+      <c r="AG287" s="2"/>
+      <c r="AH287" s="2"/>
+      <c r="AI287" s="2"/>
+      <c r="AJ287" s="2"/>
+      <c r="AK287" s="2"/>
+      <c r="AL287" s="2"/>
+      <c r="AM287" s="2"/>
+      <c r="AN287" s="2"/>
+      <c r="AO287" s="2"/>
+      <c r="AP287" s="2"/>
+      <c r="AQ287" s="2"/>
+      <c r="AR287" s="2"/>
+      <c r="AS287" s="2"/>
+      <c r="AT287" s="2"/>
+      <c r="AU287" s="2"/>
+      <c r="AV287" s="2"/>
+      <c r="AW287" s="2"/>
+      <c r="AX287" s="2"/>
+      <c r="AY287" s="2"/>
+      <c r="AZ287" s="2"/>
+      <c r="BA287" s="2"/>
+      <c r="BB287" s="2"/>
+      <c r="BC287" s="2"/>
+      <c r="BD287" s="2"/>
+      <c r="BE287" s="2"/>
+      <c r="BF287" s="2"/>
+      <c r="BG287" s="2"/>
+      <c r="BH287" s="2"/>
+      <c r="BI287" s="2"/>
+      <c r="BJ287" s="2"/>
+      <c r="BK287" s="2"/>
+      <c r="BL287" s="2"/>
+      <c r="BM287" s="2"/>
+      <c r="BN287" s="2"/>
+      <c r="BO287" s="2"/>
+      <c r="BP287" s="2"/>
+      <c r="BQ287" s="2"/>
+      <c r="BR287" s="2"/>
+      <c r="BS287" s="2"/>
+      <c r="BT287" s="2"/>
+      <c r="BU287" s="2"/>
+      <c r="BV287" s="2"/>
+      <c r="BW287" s="2"/>
+      <c r="BX287" s="2"/>
+      <c r="BY287" s="2"/>
+      <c r="BZ287" s="2"/>
+      <c r="CA287" s="2"/>
+      <c r="CB287" s="2"/>
+      <c r="CC287" s="2"/>
+      <c r="CD287" s="2"/>
+    </row>
+    <row r="321" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+      <c r="G321" s="2"/>
+      <c r="H321" s="2"/>
+      <c r="I321" s="2"/>
+      <c r="J321" s="2"/>
+      <c r="K321" s="2"/>
+      <c r="L321" s="2"/>
+      <c r="M321" s="2"/>
+      <c r="N321" s="2"/>
+      <c r="O321" s="2"/>
+      <c r="P321" s="2"/>
+      <c r="Q321" s="2"/>
+      <c r="R321" s="2"/>
+      <c r="S321" s="2"/>
+      <c r="T321" s="2"/>
+      <c r="U321" s="2"/>
+      <c r="V321" s="2"/>
+      <c r="W321" s="2"/>
+      <c r="X321" s="2"/>
+      <c r="Y321" s="4"/>
+      <c r="Z321" s="2"/>
+      <c r="AA321" s="2"/>
+      <c r="AB321" s="2"/>
+      <c r="AC321" s="2"/>
+      <c r="AD321" s="2"/>
+      <c r="AE321" s="2"/>
+      <c r="AF321" s="2"/>
+      <c r="AG321" s="2"/>
+      <c r="AH321" s="2"/>
+      <c r="AI321" s="2"/>
+      <c r="AJ321" s="2"/>
+      <c r="AK321" s="2"/>
+      <c r="AL321" s="2"/>
+      <c r="AM321" s="2"/>
+      <c r="AN321" s="2"/>
+      <c r="AO321" s="2"/>
+      <c r="AP321" s="2"/>
+      <c r="AQ321" s="2"/>
+      <c r="AR321" s="2"/>
+      <c r="AS321" s="2"/>
+      <c r="AT321" s="2"/>
+      <c r="AU321" s="2"/>
+      <c r="AV321" s="2"/>
+      <c r="AW321" s="2"/>
+      <c r="AX321" s="2"/>
+      <c r="AY321" s="2"/>
+      <c r="AZ321" s="2"/>
+      <c r="BA321" s="2"/>
+      <c r="BB321" s="2"/>
+      <c r="BC321" s="2"/>
+      <c r="BD321" s="2"/>
+      <c r="BE321" s="2"/>
+      <c r="BF321" s="2"/>
+      <c r="BG321" s="2"/>
+      <c r="BH321" s="2"/>
+      <c r="BI321" s="2"/>
+      <c r="BJ321" s="2"/>
+      <c r="BK321" s="2"/>
+      <c r="BL321" s="2"/>
+      <c r="BM321" s="2"/>
+      <c r="BN321" s="2"/>
+      <c r="BO321" s="2"/>
+      <c r="BP321" s="2"/>
+      <c r="BQ321" s="2"/>
+      <c r="BR321" s="2"/>
+      <c r="BS321" s="2"/>
+      <c r="BT321" s="2"/>
+      <c r="BU321" s="2"/>
+      <c r="BV321" s="2"/>
+      <c r="BW321" s="2"/>
+      <c r="BX321" s="2"/>
+      <c r="BY321" s="2"/>
+      <c r="BZ321" s="2"/>
+      <c r="CA321" s="2"/>
+      <c r="CB321" s="2"/>
+      <c r="CC321" s="2"/>
+      <c r="CD321" s="2"/>
+    </row>
+    <row r="355" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
+      <c r="H355" s="2"/>
+      <c r="I355" s="2"/>
+      <c r="J355" s="2"/>
+      <c r="K355" s="2"/>
+      <c r="L355" s="2"/>
+      <c r="M355" s="2"/>
+      <c r="N355" s="2"/>
+      <c r="O355" s="2"/>
+      <c r="P355" s="2"/>
+      <c r="Q355" s="2"/>
+      <c r="R355" s="2"/>
+      <c r="S355" s="2"/>
+      <c r="T355" s="2"/>
+      <c r="U355" s="2"/>
+      <c r="V355" s="2"/>
+      <c r="W355" s="2"/>
+      <c r="X355" s="2"/>
+      <c r="Y355" s="4"/>
+      <c r="Z355" s="2"/>
+      <c r="AA355" s="2"/>
+      <c r="AB355" s="2"/>
+      <c r="AC355" s="2"/>
+      <c r="AD355" s="2"/>
+      <c r="AE355" s="2"/>
+      <c r="AF355" s="2"/>
+      <c r="AG355" s="2"/>
+      <c r="AH355" s="2"/>
+      <c r="AI355" s="2"/>
+      <c r="AJ355" s="2"/>
+      <c r="AK355" s="2"/>
+      <c r="AL355" s="2"/>
+      <c r="AM355" s="2"/>
+      <c r="AN355" s="2"/>
+      <c r="AO355" s="2"/>
+      <c r="AP355" s="2"/>
+      <c r="AQ355" s="2"/>
+      <c r="AR355" s="2"/>
+      <c r="AS355" s="2"/>
+      <c r="AT355" s="2"/>
+      <c r="AU355" s="2"/>
+      <c r="AV355" s="2"/>
+      <c r="AW355" s="2"/>
+      <c r="AX355" s="2"/>
+      <c r="AY355" s="2"/>
+      <c r="AZ355" s="2"/>
+      <c r="BA355" s="2"/>
+      <c r="BB355" s="2"/>
+      <c r="BC355" s="2"/>
+      <c r="BD355" s="2"/>
+      <c r="BE355" s="2"/>
+      <c r="BF355" s="2"/>
+      <c r="BG355" s="2"/>
+      <c r="BH355" s="2"/>
+      <c r="BI355" s="2"/>
+      <c r="BJ355" s="2"/>
+      <c r="BK355" s="2"/>
+      <c r="BL355" s="2"/>
+      <c r="BM355" s="2"/>
+      <c r="BN355" s="2"/>
+      <c r="BO355" s="2"/>
+      <c r="BP355" s="2"/>
+      <c r="BQ355" s="2"/>
+      <c r="BR355" s="2"/>
+      <c r="BS355" s="2"/>
+      <c r="BT355" s="2"/>
+      <c r="BU355" s="2"/>
+      <c r="BV355" s="2"/>
+      <c r="BW355" s="2"/>
+      <c r="BX355" s="2"/>
+      <c r="BY355" s="2"/>
+      <c r="BZ355" s="2"/>
+      <c r="CA355" s="2"/>
+      <c r="CB355" s="2"/>
+      <c r="CC355" s="2"/>
+      <c r="CD355" s="2"/>
+    </row>
+    <row r="389" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2"/>
+      <c r="F389" s="2"/>
+      <c r="G389" s="2"/>
+      <c r="H389" s="2"/>
+      <c r="I389" s="2"/>
+      <c r="J389" s="2"/>
+      <c r="K389" s="2"/>
+      <c r="L389" s="2"/>
+      <c r="M389" s="2"/>
+      <c r="N389" s="2"/>
+      <c r="O389" s="2"/>
+      <c r="P389" s="2"/>
+      <c r="Q389" s="2"/>
+      <c r="R389" s="2"/>
+      <c r="S389" s="2"/>
+      <c r="T389" s="2"/>
+      <c r="U389" s="2"/>
+      <c r="V389" s="2"/>
+      <c r="W389" s="2"/>
+      <c r="X389" s="2"/>
+      <c r="Y389" s="4"/>
+      <c r="Z389" s="2"/>
+      <c r="AA389" s="2"/>
+      <c r="AB389" s="2"/>
+      <c r="AC389" s="2"/>
+      <c r="AD389" s="2"/>
+      <c r="AE389" s="2"/>
+      <c r="AF389" s="2"/>
+      <c r="AG389" s="2"/>
+      <c r="AH389" s="2"/>
+      <c r="AI389" s="2"/>
+      <c r="AJ389" s="2"/>
+      <c r="AK389" s="2"/>
+      <c r="AL389" s="2"/>
+      <c r="AM389" s="2"/>
+      <c r="AN389" s="2"/>
+      <c r="AO389" s="2"/>
+      <c r="AP389" s="2"/>
+      <c r="AQ389" s="2"/>
+      <c r="AR389" s="2"/>
+      <c r="AS389" s="2"/>
+      <c r="AT389" s="2"/>
+      <c r="AU389" s="2"/>
+      <c r="AV389" s="2"/>
+      <c r="AW389" s="2"/>
+      <c r="AX389" s="2"/>
+      <c r="AY389" s="2"/>
+      <c r="AZ389" s="2"/>
+      <c r="BA389" s="2"/>
+      <c r="BB389" s="2"/>
+      <c r="BC389" s="2"/>
+      <c r="BD389" s="2"/>
+      <c r="BE389" s="2"/>
+      <c r="BF389" s="2"/>
+      <c r="BG389" s="2"/>
+      <c r="BH389" s="2"/>
+      <c r="BI389" s="2"/>
+      <c r="BJ389" s="2"/>
+      <c r="BK389" s="2"/>
+      <c r="BL389" s="2"/>
+      <c r="BM389" s="2"/>
+      <c r="BN389" s="2"/>
+      <c r="BO389" s="2"/>
+      <c r="BP389" s="2"/>
+      <c r="BQ389" s="2"/>
+      <c r="BR389" s="2"/>
+      <c r="BS389" s="2"/>
+      <c r="BT389" s="2"/>
+      <c r="BU389" s="2"/>
+      <c r="BV389" s="2"/>
+      <c r="BW389" s="2"/>
+      <c r="BX389" s="2"/>
+      <c r="BY389" s="2"/>
+      <c r="BZ389" s="2"/>
+      <c r="CA389" s="2"/>
+      <c r="CB389" s="2"/>
+      <c r="CC389" s="2"/>
+      <c r="CD389" s="2"/>
+    </row>
+    <row r="423" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
+      <c r="J423" s="2"/>
+      <c r="K423" s="2"/>
+      <c r="L423" s="2"/>
+      <c r="M423" s="2"/>
+      <c r="N423" s="2"/>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
+      <c r="Q423" s="2"/>
+      <c r="R423" s="2"/>
+      <c r="S423" s="2"/>
+      <c r="T423" s="2"/>
+      <c r="U423" s="2"/>
+      <c r="V423" s="2"/>
+      <c r="W423" s="2"/>
+      <c r="X423" s="2"/>
+      <c r="Y423" s="4"/>
+      <c r="Z423" s="2"/>
+      <c r="AA423" s="2"/>
+      <c r="AB423" s="2"/>
+      <c r="AC423" s="2"/>
+      <c r="AD423" s="2"/>
+      <c r="AE423" s="2"/>
+      <c r="AF423" s="2"/>
+      <c r="AG423" s="2"/>
+      <c r="AH423" s="2"/>
+      <c r="AI423" s="2"/>
+      <c r="AJ423" s="2"/>
+      <c r="AK423" s="2"/>
+      <c r="AL423" s="2"/>
+      <c r="AM423" s="2"/>
+      <c r="AN423" s="2"/>
+      <c r="AO423" s="2"/>
+      <c r="AP423" s="2"/>
+      <c r="AQ423" s="2"/>
+      <c r="AR423" s="2"/>
+      <c r="AS423" s="2"/>
+      <c r="AT423" s="2"/>
+      <c r="AU423" s="2"/>
+      <c r="AV423" s="2"/>
+      <c r="AW423" s="2"/>
+      <c r="AX423" s="2"/>
+      <c r="AY423" s="2"/>
+      <c r="AZ423" s="2"/>
+      <c r="BA423" s="2"/>
+      <c r="BB423" s="2"/>
+      <c r="BC423" s="2"/>
+      <c r="BD423" s="2"/>
+      <c r="BE423" s="2"/>
+      <c r="BF423" s="2"/>
+      <c r="BG423" s="2"/>
+      <c r="BH423" s="2"/>
+      <c r="BI423" s="2"/>
+      <c r="BJ423" s="2"/>
+      <c r="BK423" s="2"/>
+      <c r="BL423" s="2"/>
+      <c r="BM423" s="2"/>
+      <c r="BN423" s="2"/>
+      <c r="BO423" s="2"/>
+      <c r="BP423" s="2"/>
+      <c r="BQ423" s="2"/>
+      <c r="BR423" s="2"/>
+      <c r="BS423" s="2"/>
+      <c r="BT423" s="2"/>
+      <c r="BU423" s="2"/>
+      <c r="BV423" s="2"/>
+      <c r="BW423" s="2"/>
+      <c r="BX423" s="2"/>
+      <c r="BY423" s="2"/>
+      <c r="BZ423" s="2"/>
+      <c r="CA423" s="2"/>
+      <c r="CB423" s="2"/>
+      <c r="CC423" s="2"/>
+      <c r="CD423" s="2"/>
+    </row>
+    <row r="457" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B457" s="2"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+      <c r="E457" s="2"/>
+      <c r="F457" s="2"/>
+      <c r="G457" s="2"/>
+      <c r="H457" s="2"/>
+      <c r="I457" s="2"/>
+      <c r="J457" s="2"/>
+      <c r="K457" s="2"/>
+      <c r="L457" s="2"/>
+      <c r="M457" s="2"/>
+      <c r="N457" s="2"/>
+      <c r="O457" s="2"/>
+      <c r="P457" s="2"/>
+      <c r="Q457" s="2"/>
+      <c r="R457" s="2"/>
+      <c r="S457" s="2"/>
+      <c r="T457" s="2"/>
+      <c r="U457" s="2"/>
+      <c r="V457" s="2"/>
+      <c r="W457" s="2"/>
+      <c r="X457" s="2"/>
+      <c r="Y457" s="4"/>
+      <c r="Z457" s="2"/>
+      <c r="AA457" s="2"/>
+      <c r="AB457" s="2"/>
+      <c r="AC457" s="2"/>
+      <c r="AD457" s="2"/>
+      <c r="AE457" s="2"/>
+      <c r="AF457" s="2"/>
+      <c r="AG457" s="2"/>
+      <c r="AH457" s="2"/>
+      <c r="AI457" s="2"/>
+      <c r="AJ457" s="2"/>
+      <c r="AK457" s="2"/>
+      <c r="AL457" s="2"/>
+      <c r="AM457" s="2"/>
+      <c r="AN457" s="2"/>
+      <c r="AO457" s="2"/>
+      <c r="AP457" s="2"/>
+      <c r="AQ457" s="2"/>
+      <c r="AR457" s="2"/>
+      <c r="AS457" s="2"/>
+      <c r="AT457" s="2"/>
+      <c r="AU457" s="2"/>
+      <c r="AV457" s="2"/>
+      <c r="AW457" s="2"/>
+      <c r="AX457" s="2"/>
+      <c r="AY457" s="2"/>
+      <c r="AZ457" s="2"/>
+      <c r="BA457" s="2"/>
+      <c r="BB457" s="2"/>
+      <c r="BC457" s="2"/>
+      <c r="BD457" s="2"/>
+      <c r="BE457" s="2"/>
+      <c r="BF457" s="2"/>
+      <c r="BG457" s="2"/>
+      <c r="BH457" s="2"/>
+      <c r="BI457" s="2"/>
+      <c r="BJ457" s="2"/>
+      <c r="BK457" s="2"/>
+      <c r="BL457" s="2"/>
+      <c r="BM457" s="2"/>
+      <c r="BN457" s="2"/>
+      <c r="BO457" s="2"/>
+      <c r="BP457" s="2"/>
+      <c r="BQ457" s="2"/>
+      <c r="BR457" s="2"/>
+      <c r="BS457" s="2"/>
+      <c r="BT457" s="2"/>
+      <c r="BU457" s="2"/>
+      <c r="BV457" s="2"/>
+      <c r="BW457" s="2"/>
+      <c r="BX457" s="2"/>
+      <c r="BY457" s="2"/>
+      <c r="BZ457" s="2"/>
+      <c r="CA457" s="2"/>
+      <c r="CB457" s="2"/>
+      <c r="CC457" s="2"/>
+      <c r="CD457" s="2"/>
+    </row>
+    <row r="491" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B491" s="2"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+      <c r="E491" s="2"/>
+      <c r="F491" s="2"/>
+      <c r="G491" s="2"/>
+      <c r="H491" s="2"/>
+      <c r="I491" s="2"/>
+      <c r="J491" s="2"/>
+      <c r="K491" s="2"/>
+      <c r="L491" s="2"/>
+      <c r="M491" s="2"/>
+      <c r="N491" s="2"/>
+      <c r="O491" s="2"/>
+      <c r="P491" s="2"/>
+      <c r="Q491" s="2"/>
+      <c r="R491" s="2"/>
+      <c r="S491" s="2"/>
+      <c r="T491" s="2"/>
+      <c r="U491" s="2"/>
+      <c r="V491" s="2"/>
+      <c r="W491" s="2"/>
+      <c r="X491" s="2"/>
+      <c r="Y491" s="4"/>
+      <c r="Z491" s="2"/>
+      <c r="AA491" s="2"/>
+      <c r="AB491" s="2"/>
+      <c r="AC491" s="2"/>
+      <c r="AD491" s="2"/>
+      <c r="AE491" s="2"/>
+      <c r="AF491" s="2"/>
+      <c r="AG491" s="2"/>
+      <c r="AH491" s="2"/>
+      <c r="AI491" s="2"/>
+      <c r="AJ491" s="2"/>
+      <c r="AK491" s="2"/>
+      <c r="AL491" s="2"/>
+      <c r="AM491" s="2"/>
+      <c r="AN491" s="2"/>
+      <c r="AO491" s="2"/>
+      <c r="AP491" s="2"/>
+      <c r="AQ491" s="2"/>
+      <c r="AR491" s="2"/>
+      <c r="AS491" s="2"/>
+      <c r="AT491" s="2"/>
+      <c r="AU491" s="2"/>
+      <c r="AV491" s="2"/>
+      <c r="AW491" s="2"/>
+      <c r="AX491" s="2"/>
+      <c r="AY491" s="2"/>
+      <c r="AZ491" s="2"/>
+      <c r="BA491" s="2"/>
+      <c r="BB491" s="2"/>
+      <c r="BC491" s="2"/>
+      <c r="BD491" s="2"/>
+      <c r="BE491" s="2"/>
+      <c r="BF491" s="2"/>
+      <c r="BG491" s="2"/>
+      <c r="BH491" s="2"/>
+      <c r="BI491" s="2"/>
+      <c r="BJ491" s="2"/>
+      <c r="BK491" s="2"/>
+      <c r="BL491" s="2"/>
+      <c r="BM491" s="2"/>
+      <c r="BN491" s="2"/>
+      <c r="BO491" s="2"/>
+      <c r="BP491" s="2"/>
+      <c r="BQ491" s="2"/>
+      <c r="BR491" s="2"/>
+      <c r="BS491" s="2"/>
+      <c r="BT491" s="2"/>
+      <c r="BU491" s="2"/>
+      <c r="BV491" s="2"/>
+      <c r="BW491" s="2"/>
+      <c r="BX491" s="2"/>
+      <c r="BY491" s="2"/>
+      <c r="BZ491" s="2"/>
+      <c r="CA491" s="2"/>
+      <c r="CB491" s="2"/>
+      <c r="CC491" s="2"/>
+      <c r="CD491" s="2"/>
+    </row>
+    <row r="525" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B525" s="2"/>
+      <c r="C525" s="2"/>
+      <c r="D525" s="2"/>
+      <c r="E525" s="2"/>
+      <c r="F525" s="2"/>
+      <c r="G525" s="2"/>
+      <c r="H525" s="2"/>
+      <c r="I525" s="2"/>
+      <c r="J525" s="2"/>
+      <c r="K525" s="2"/>
+      <c r="L525" s="2"/>
+      <c r="M525" s="2"/>
+      <c r="N525" s="2"/>
+      <c r="O525" s="2"/>
+      <c r="P525" s="2"/>
+      <c r="Q525" s="2"/>
+      <c r="R525" s="2"/>
+      <c r="S525" s="2"/>
+      <c r="T525" s="2"/>
+      <c r="U525" s="2"/>
+      <c r="V525" s="2"/>
+      <c r="W525" s="2"/>
+      <c r="X525" s="2"/>
+      <c r="Y525" s="4"/>
+      <c r="Z525" s="2"/>
+      <c r="AA525" s="2"/>
+      <c r="AB525" s="2"/>
+      <c r="AC525" s="2"/>
+      <c r="AD525" s="2"/>
+      <c r="AE525" s="2"/>
+      <c r="AF525" s="2"/>
+      <c r="AG525" s="2"/>
+      <c r="AH525" s="2"/>
+      <c r="AI525" s="2"/>
+      <c r="AJ525" s="2"/>
+      <c r="AK525" s="2"/>
+      <c r="AL525" s="2"/>
+      <c r="AM525" s="2"/>
+      <c r="AN525" s="2"/>
+      <c r="AO525" s="2"/>
+      <c r="AP525" s="2"/>
+      <c r="AQ525" s="2"/>
+      <c r="AR525" s="2"/>
+      <c r="AS525" s="2"/>
+      <c r="AT525" s="2"/>
+      <c r="AU525" s="2"/>
+      <c r="AV525" s="2"/>
+      <c r="AW525" s="2"/>
+      <c r="AX525" s="2"/>
+      <c r="AY525" s="2"/>
+      <c r="AZ525" s="2"/>
+      <c r="BA525" s="2"/>
+      <c r="BB525" s="2"/>
+      <c r="BC525" s="2"/>
+      <c r="BD525" s="2"/>
+      <c r="BE525" s="2"/>
+      <c r="BF525" s="2"/>
+      <c r="BG525" s="2"/>
+      <c r="BH525" s="2"/>
+      <c r="BI525" s="2"/>
+      <c r="BJ525" s="2"/>
+      <c r="BK525" s="2"/>
+      <c r="BL525" s="2"/>
+      <c r="BM525" s="2"/>
+      <c r="BN525" s="2"/>
+      <c r="BO525" s="2"/>
+      <c r="BP525" s="2"/>
+      <c r="BQ525" s="2"/>
+      <c r="BR525" s="2"/>
+      <c r="BS525" s="2"/>
+      <c r="BT525" s="2"/>
+      <c r="BU525" s="2"/>
+      <c r="BV525" s="2"/>
+      <c r="BW525" s="2"/>
+      <c r="BX525" s="2"/>
+      <c r="BY525" s="2"/>
+      <c r="BZ525" s="2"/>
+      <c r="CA525" s="2"/>
+      <c r="CB525" s="2"/>
+      <c r="CC525" s="2"/>
+      <c r="CD525" s="2"/>
+    </row>
+    <row r="559" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B559" s="2"/>
+      <c r="C559" s="2"/>
+      <c r="D559" s="2"/>
+      <c r="E559" s="2"/>
+      <c r="F559" s="2"/>
+      <c r="G559" s="2"/>
+      <c r="H559" s="2"/>
+      <c r="I559" s="2"/>
+      <c r="J559" s="2"/>
+      <c r="K559" s="2"/>
+      <c r="L559" s="2"/>
+      <c r="M559" s="2"/>
+      <c r="N559" s="2"/>
+      <c r="O559" s="2"/>
+      <c r="P559" s="2"/>
+      <c r="Q559" s="2"/>
+      <c r="R559" s="2"/>
+      <c r="S559" s="2"/>
+      <c r="T559" s="2"/>
+      <c r="U559" s="2"/>
+      <c r="V559" s="2"/>
+      <c r="W559" s="2"/>
+      <c r="X559" s="2"/>
+      <c r="Y559" s="4"/>
+      <c r="Z559" s="2"/>
+      <c r="AA559" s="2"/>
+      <c r="AB559" s="2"/>
+      <c r="AC559" s="2"/>
+      <c r="AD559" s="2"/>
+      <c r="AE559" s="2"/>
+      <c r="AF559" s="2"/>
+      <c r="AG559" s="2"/>
+      <c r="AH559" s="2"/>
+      <c r="AI559" s="2"/>
+      <c r="AJ559" s="2"/>
+      <c r="AK559" s="2"/>
+      <c r="AL559" s="2"/>
+      <c r="AM559" s="2"/>
+      <c r="AN559" s="2"/>
+      <c r="AO559" s="2"/>
+      <c r="AP559" s="2"/>
+      <c r="AQ559" s="2"/>
+      <c r="AR559" s="2"/>
+      <c r="AS559" s="2"/>
+      <c r="AT559" s="2"/>
+      <c r="AU559" s="2"/>
+      <c r="AV559" s="2"/>
+      <c r="AW559" s="2"/>
+      <c r="AX559" s="2"/>
+      <c r="AY559" s="2"/>
+      <c r="AZ559" s="2"/>
+      <c r="BA559" s="2"/>
+      <c r="BB559" s="2"/>
+      <c r="BC559" s="2"/>
+      <c r="BD559" s="2"/>
+      <c r="BE559" s="2"/>
+      <c r="BF559" s="2"/>
+      <c r="BG559" s="2"/>
+      <c r="BH559" s="2"/>
+      <c r="BI559" s="2"/>
+      <c r="BJ559" s="2"/>
+      <c r="BK559" s="2"/>
+      <c r="BL559" s="2"/>
+      <c r="BM559" s="2"/>
+      <c r="BN559" s="2"/>
+      <c r="BO559" s="2"/>
+      <c r="BP559" s="2"/>
+      <c r="BQ559" s="2"/>
+      <c r="BR559" s="2"/>
+      <c r="BS559" s="2"/>
+      <c r="BT559" s="2"/>
+      <c r="BU559" s="2"/>
+      <c r="BV559" s="2"/>
+      <c r="BW559" s="2"/>
+      <c r="BX559" s="2"/>
+      <c r="BY559" s="2"/>
+      <c r="BZ559" s="2"/>
+      <c r="CA559" s="2"/>
+      <c r="CB559" s="2"/>
+      <c r="CC559" s="2"/>
+      <c r="CD559" s="2"/>
+    </row>
+    <row r="593" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B593" s="2"/>
+      <c r="C593" s="2"/>
+      <c r="D593" s="2"/>
+      <c r="E593" s="2"/>
+      <c r="F593" s="2"/>
+      <c r="G593" s="2"/>
+      <c r="H593" s="2"/>
+      <c r="I593" s="2"/>
+      <c r="J593" s="2"/>
+      <c r="K593" s="2"/>
+      <c r="L593" s="2"/>
+      <c r="M593" s="2"/>
+      <c r="N593" s="2"/>
+      <c r="O593" s="2"/>
+      <c r="P593" s="2"/>
+      <c r="Q593" s="2"/>
+      <c r="R593" s="2"/>
+      <c r="S593" s="2"/>
+      <c r="T593" s="2"/>
+      <c r="U593" s="2"/>
+      <c r="V593" s="2"/>
+      <c r="W593" s="2"/>
+      <c r="X593" s="2"/>
+      <c r="Y593" s="4"/>
+      <c r="Z593" s="2"/>
+      <c r="AA593" s="2"/>
+      <c r="AB593" s="2"/>
+      <c r="AC593" s="2"/>
+      <c r="AD593" s="2"/>
+      <c r="AE593" s="2"/>
+      <c r="AF593" s="2"/>
+      <c r="AG593" s="2"/>
+      <c r="AH593" s="2"/>
+      <c r="AI593" s="2"/>
+      <c r="AJ593" s="2"/>
+      <c r="AK593" s="2"/>
+      <c r="AL593" s="2"/>
+      <c r="AM593" s="2"/>
+      <c r="AN593" s="2"/>
+      <c r="AO593" s="2"/>
+      <c r="AP593" s="2"/>
+      <c r="AQ593" s="2"/>
+      <c r="AR593" s="2"/>
+      <c r="AS593" s="2"/>
+      <c r="AT593" s="2"/>
+      <c r="AU593" s="2"/>
+      <c r="AV593" s="2"/>
+      <c r="AW593" s="2"/>
+      <c r="AX593" s="2"/>
+      <c r="AY593" s="2"/>
+      <c r="AZ593" s="2"/>
+      <c r="BA593" s="2"/>
+      <c r="BB593" s="2"/>
+      <c r="BC593" s="2"/>
+      <c r="BD593" s="2"/>
+      <c r="BE593" s="2"/>
+      <c r="BF593" s="2"/>
+      <c r="BG593" s="2"/>
+      <c r="BH593" s="2"/>
+      <c r="BI593" s="2"/>
+      <c r="BJ593" s="2"/>
+      <c r="BK593" s="2"/>
+      <c r="BL593" s="2"/>
+      <c r="BM593" s="2"/>
+      <c r="BN593" s="2"/>
+      <c r="BO593" s="2"/>
+      <c r="BP593" s="2"/>
+      <c r="BQ593" s="2"/>
+      <c r="BR593" s="2"/>
+      <c r="BS593" s="2"/>
+      <c r="BT593" s="2"/>
+      <c r="BU593" s="2"/>
+      <c r="BV593" s="2"/>
+      <c r="BW593" s="2"/>
+      <c r="BX593" s="2"/>
+      <c r="BY593" s="2"/>
+      <c r="BZ593" s="2"/>
+      <c r="CA593" s="2"/>
+      <c r="CB593" s="2"/>
+      <c r="CC593" s="2"/>
+      <c r="CD593" s="2"/>
+    </row>
+    <row r="627" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B627" s="2"/>
+      <c r="C627" s="2"/>
+      <c r="D627" s="2"/>
+      <c r="E627" s="2"/>
+      <c r="F627" s="2"/>
+      <c r="G627" s="2"/>
+      <c r="H627" s="2"/>
+      <c r="I627" s="2"/>
+      <c r="J627" s="2"/>
+      <c r="K627" s="2"/>
+      <c r="L627" s="2"/>
+      <c r="M627" s="2"/>
+      <c r="N627" s="2"/>
+      <c r="O627" s="2"/>
+      <c r="P627" s="2"/>
+      <c r="Q627" s="2"/>
+      <c r="R627" s="2"/>
+      <c r="S627" s="2"/>
+      <c r="T627" s="2"/>
+      <c r="U627" s="2"/>
+      <c r="V627" s="2"/>
+      <c r="W627" s="2"/>
+      <c r="X627" s="2"/>
+      <c r="Y627" s="4"/>
+      <c r="Z627" s="2"/>
+      <c r="AA627" s="2"/>
+      <c r="AB627" s="2"/>
+      <c r="AC627" s="2"/>
+      <c r="AD627" s="2"/>
+      <c r="AE627" s="2"/>
+      <c r="AF627" s="2"/>
+      <c r="AG627" s="2"/>
+      <c r="AH627" s="2"/>
+      <c r="AI627" s="2"/>
+      <c r="AJ627" s="2"/>
+      <c r="AK627" s="2"/>
+      <c r="AL627" s="2"/>
+      <c r="AM627" s="2"/>
+      <c r="AN627" s="2"/>
+      <c r="AO627" s="2"/>
+      <c r="AP627" s="2"/>
+      <c r="AQ627" s="2"/>
+      <c r="AR627" s="2"/>
+      <c r="AS627" s="2"/>
+      <c r="AT627" s="2"/>
+      <c r="AU627" s="2"/>
+      <c r="AV627" s="2"/>
+      <c r="AW627" s="2"/>
+      <c r="AX627" s="2"/>
+      <c r="AY627" s="2"/>
+      <c r="AZ627" s="2"/>
+      <c r="BA627" s="2"/>
+      <c r="BB627" s="2"/>
+      <c r="BC627" s="2"/>
+      <c r="BD627" s="2"/>
+      <c r="BE627" s="2"/>
+      <c r="BF627" s="2"/>
+      <c r="BG627" s="2"/>
+      <c r="BH627" s="2"/>
+      <c r="BI627" s="2"/>
+      <c r="BJ627" s="2"/>
+      <c r="BK627" s="2"/>
+      <c r="BL627" s="2"/>
+      <c r="BM627" s="2"/>
+      <c r="BN627" s="2"/>
+      <c r="BO627" s="2"/>
+      <c r="BP627" s="2"/>
+      <c r="BQ627" s="2"/>
+      <c r="BR627" s="2"/>
+      <c r="BS627" s="2"/>
+      <c r="BT627" s="2"/>
+      <c r="BU627" s="2"/>
+      <c r="BV627" s="2"/>
+      <c r="BW627" s="2"/>
+      <c r="BX627" s="2"/>
+      <c r="BY627" s="2"/>
+      <c r="BZ627" s="2"/>
+      <c r="CA627" s="2"/>
+      <c r="CB627" s="2"/>
+      <c r="CC627" s="2"/>
+      <c r="CD627" s="2"/>
+    </row>
+    <row r="661" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B661" s="2"/>
+      <c r="C661" s="2"/>
+      <c r="D661" s="2"/>
+      <c r="E661" s="2"/>
+      <c r="F661" s="2"/>
+      <c r="G661" s="2"/>
+      <c r="H661" s="2"/>
+      <c r="I661" s="2"/>
+      <c r="J661" s="2"/>
+      <c r="K661" s="2"/>
+      <c r="L661" s="2"/>
+      <c r="M661" s="2"/>
+      <c r="N661" s="2"/>
+      <c r="O661" s="2"/>
+      <c r="P661" s="2"/>
+      <c r="Q661" s="2"/>
+      <c r="R661" s="2"/>
+      <c r="S661" s="2"/>
+      <c r="T661" s="2"/>
+      <c r="U661" s="2"/>
+      <c r="V661" s="2"/>
+      <c r="W661" s="2"/>
+      <c r="X661" s="2"/>
+      <c r="Y661" s="4"/>
+      <c r="Z661" s="2"/>
+      <c r="AA661" s="2"/>
+      <c r="AB661" s="2"/>
+      <c r="AC661" s="2"/>
+      <c r="AD661" s="2"/>
+      <c r="AE661" s="2"/>
+      <c r="AF661" s="2"/>
+      <c r="AG661" s="2"/>
+      <c r="AH661" s="2"/>
+      <c r="AI661" s="2"/>
+      <c r="AJ661" s="2"/>
+      <c r="AK661" s="2"/>
+      <c r="AL661" s="2"/>
+      <c r="AM661" s="2"/>
+      <c r="AN661" s="2"/>
+      <c r="AO661" s="2"/>
+      <c r="AP661" s="2"/>
+      <c r="AQ661" s="2"/>
+      <c r="AR661" s="2"/>
+      <c r="AS661" s="2"/>
+      <c r="AT661" s="2"/>
+      <c r="AU661" s="2"/>
+      <c r="AV661" s="2"/>
+      <c r="AW661" s="2"/>
+      <c r="AX661" s="2"/>
+      <c r="AY661" s="2"/>
+      <c r="AZ661" s="2"/>
+      <c r="BA661" s="2"/>
+      <c r="BB661" s="2"/>
+      <c r="BC661" s="2"/>
+      <c r="BD661" s="2"/>
+      <c r="BE661" s="2"/>
+      <c r="BF661" s="2"/>
+      <c r="BG661" s="2"/>
+      <c r="BH661" s="2"/>
+      <c r="BI661" s="2"/>
+      <c r="BJ661" s="2"/>
+      <c r="BK661" s="2"/>
+      <c r="BL661" s="2"/>
+      <c r="BM661" s="2"/>
+      <c r="BN661" s="2"/>
+      <c r="BO661" s="2"/>
+      <c r="BP661" s="2"/>
+      <c r="BQ661" s="2"/>
+      <c r="BR661" s="2"/>
+      <c r="BS661" s="2"/>
+      <c r="BT661" s="2"/>
+      <c r="BU661" s="2"/>
+      <c r="BV661" s="2"/>
+      <c r="BW661" s="2"/>
+      <c r="BX661" s="2"/>
+      <c r="BY661" s="2"/>
+      <c r="BZ661" s="2"/>
+      <c r="CA661" s="2"/>
+      <c r="CB661" s="2"/>
+      <c r="CC661" s="2"/>
+      <c r="CD661" s="2"/>
+    </row>
+    <row r="695" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B695" s="2"/>
+      <c r="C695" s="2"/>
+      <c r="D695" s="2"/>
+      <c r="E695" s="2"/>
+      <c r="F695" s="2"/>
+      <c r="G695" s="2"/>
+      <c r="H695" s="2"/>
+      <c r="I695" s="2"/>
+      <c r="J695" s="2"/>
+      <c r="K695" s="2"/>
+      <c r="L695" s="2"/>
+      <c r="M695" s="2"/>
+      <c r="N695" s="2"/>
+      <c r="O695" s="2"/>
+      <c r="P695" s="2"/>
+      <c r="Q695" s="2"/>
+      <c r="R695" s="2"/>
+      <c r="S695" s="2"/>
+      <c r="T695" s="2"/>
+      <c r="U695" s="2"/>
+      <c r="V695" s="2"/>
+      <c r="W695" s="2"/>
+      <c r="X695" s="2"/>
+      <c r="Y695" s="4"/>
+      <c r="Z695" s="2"/>
+      <c r="AA695" s="2"/>
+      <c r="AB695" s="2"/>
+      <c r="AC695" s="2"/>
+      <c r="AD695" s="2"/>
+      <c r="AE695" s="2"/>
+      <c r="AF695" s="2"/>
+      <c r="AG695" s="2"/>
+      <c r="AH695" s="2"/>
+      <c r="AI695" s="2"/>
+      <c r="AJ695" s="2"/>
+      <c r="AK695" s="2"/>
+      <c r="AL695" s="2"/>
+      <c r="AM695" s="2"/>
+      <c r="AN695" s="2"/>
+      <c r="AO695" s="2"/>
+      <c r="AP695" s="2"/>
+      <c r="AQ695" s="2"/>
+      <c r="AR695" s="2"/>
+      <c r="AS695" s="2"/>
+      <c r="AT695" s="2"/>
+      <c r="AU695" s="2"/>
+      <c r="AV695" s="2"/>
+      <c r="AW695" s="2"/>
+      <c r="AX695" s="2"/>
+      <c r="AY695" s="2"/>
+      <c r="AZ695" s="2"/>
+      <c r="BA695" s="2"/>
+      <c r="BB695" s="2"/>
+      <c r="BC695" s="2"/>
+      <c r="BD695" s="2"/>
+      <c r="BE695" s="2"/>
+      <c r="BF695" s="2"/>
+      <c r="BG695" s="2"/>
+      <c r="BH695" s="2"/>
+      <c r="BI695" s="2"/>
+      <c r="BJ695" s="2"/>
+      <c r="BK695" s="2"/>
+      <c r="BL695" s="2"/>
+      <c r="BM695" s="2"/>
+      <c r="BN695" s="2"/>
+      <c r="BO695" s="2"/>
+      <c r="BP695" s="2"/>
+      <c r="BQ695" s="2"/>
+      <c r="BR695" s="2"/>
+      <c r="BS695" s="2"/>
+      <c r="BT695" s="2"/>
+      <c r="BU695" s="2"/>
+      <c r="BV695" s="2"/>
+      <c r="BW695" s="2"/>
+      <c r="BX695" s="2"/>
+      <c r="BY695" s="2"/>
+      <c r="BZ695" s="2"/>
+      <c r="CA695" s="2"/>
+      <c r="CB695" s="2"/>
+      <c r="CC695" s="2"/>
+      <c r="CD695" s="2"/>
+    </row>
+    <row r="729" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B729" s="2"/>
+      <c r="C729" s="2"/>
+      <c r="D729" s="2"/>
+      <c r="E729" s="2"/>
+      <c r="F729" s="2"/>
+      <c r="G729" s="2"/>
+      <c r="H729" s="2"/>
+      <c r="I729" s="2"/>
+      <c r="J729" s="2"/>
+      <c r="K729" s="2"/>
+      <c r="L729" s="2"/>
+      <c r="M729" s="2"/>
+      <c r="N729" s="2"/>
+      <c r="O729" s="2"/>
+      <c r="P729" s="2"/>
+      <c r="Q729" s="2"/>
+      <c r="R729" s="2"/>
+      <c r="S729" s="2"/>
+      <c r="T729" s="2"/>
+      <c r="U729" s="2"/>
+      <c r="V729" s="2"/>
+      <c r="W729" s="2"/>
+      <c r="X729" s="2"/>
+      <c r="Y729" s="4"/>
+      <c r="Z729" s="2"/>
+      <c r="AA729" s="2"/>
+      <c r="AB729" s="2"/>
+      <c r="AC729" s="2"/>
+      <c r="AD729" s="2"/>
+      <c r="AE729" s="2"/>
+      <c r="AF729" s="2"/>
+      <c r="AG729" s="2"/>
+      <c r="AH729" s="2"/>
+      <c r="AI729" s="2"/>
+      <c r="AJ729" s="2"/>
+      <c r="AK729" s="2"/>
+      <c r="AL729" s="2"/>
+      <c r="AM729" s="2"/>
+      <c r="AN729" s="2"/>
+      <c r="AO729" s="2"/>
+      <c r="AP729" s="2"/>
+      <c r="AQ729" s="2"/>
+      <c r="AR729" s="2"/>
+      <c r="AS729" s="2"/>
+      <c r="AT729" s="2"/>
+      <c r="AU729" s="2"/>
+      <c r="AV729" s="2"/>
+      <c r="AW729" s="2"/>
+      <c r="AX729" s="2"/>
+      <c r="AY729" s="2"/>
+      <c r="AZ729" s="2"/>
+      <c r="BA729" s="2"/>
+      <c r="BB729" s="2"/>
+      <c r="BC729" s="2"/>
+      <c r="BD729" s="2"/>
+      <c r="BE729" s="2"/>
+      <c r="BF729" s="2"/>
+      <c r="BG729" s="2"/>
+      <c r="BH729" s="2"/>
+      <c r="BI729" s="2"/>
+      <c r="BJ729" s="2"/>
+      <c r="BK729" s="2"/>
+      <c r="BL729" s="2"/>
+      <c r="BM729" s="2"/>
+      <c r="BN729" s="2"/>
+      <c r="BO729" s="2"/>
+      <c r="BP729" s="2"/>
+      <c r="BQ729" s="2"/>
+      <c r="BR729" s="2"/>
+      <c r="BS729" s="2"/>
+      <c r="BT729" s="2"/>
+      <c r="BU729" s="2"/>
+      <c r="BV729" s="2"/>
+      <c r="BW729" s="2"/>
+      <c r="BX729" s="2"/>
+      <c r="BY729" s="2"/>
+      <c r="BZ729" s="2"/>
+      <c r="CA729" s="2"/>
+      <c r="CB729" s="2"/>
+      <c r="CC729" s="2"/>
+      <c r="CD729" s="2"/>
+    </row>
+    <row r="763" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B763" s="2"/>
+      <c r="C763" s="2"/>
+      <c r="D763" s="2"/>
+      <c r="E763" s="2"/>
+      <c r="F763" s="2"/>
+      <c r="G763" s="2"/>
+      <c r="H763" s="2"/>
+      <c r="I763" s="2"/>
+      <c r="J763" s="2"/>
+      <c r="K763" s="2"/>
+      <c r="L763" s="2"/>
+      <c r="M763" s="2"/>
+      <c r="N763" s="2"/>
+      <c r="O763" s="2"/>
+      <c r="P763" s="2"/>
+      <c r="Q763" s="2"/>
+      <c r="R763" s="2"/>
+      <c r="S763" s="2"/>
+      <c r="T763" s="2"/>
+      <c r="U763" s="2"/>
+      <c r="V763" s="2"/>
+      <c r="W763" s="2"/>
+      <c r="X763" s="2"/>
+      <c r="Y763" s="4"/>
+      <c r="Z763" s="2"/>
+      <c r="AA763" s="2"/>
+      <c r="AB763" s="2"/>
+      <c r="AC763" s="2"/>
+      <c r="AD763" s="2"/>
+      <c r="AE763" s="2"/>
+      <c r="AF763" s="2"/>
+      <c r="AG763" s="2"/>
+      <c r="AH763" s="2"/>
+      <c r="AI763" s="2"/>
+      <c r="AJ763" s="2"/>
+      <c r="AK763" s="2"/>
+      <c r="AL763" s="2"/>
+      <c r="AM763" s="2"/>
+      <c r="AN763" s="2"/>
+      <c r="AO763" s="2"/>
+      <c r="AP763" s="2"/>
+      <c r="AQ763" s="2"/>
+      <c r="AR763" s="2"/>
+      <c r="AS763" s="2"/>
+      <c r="AT763" s="2"/>
+      <c r="AU763" s="2"/>
+      <c r="AV763" s="2"/>
+      <c r="AW763" s="2"/>
+      <c r="AX763" s="2"/>
+      <c r="AY763" s="2"/>
+      <c r="AZ763" s="2"/>
+      <c r="BA763" s="2"/>
+      <c r="BB763" s="2"/>
+      <c r="BC763" s="2"/>
+      <c r="BD763" s="2"/>
+      <c r="BE763" s="2"/>
+      <c r="BF763" s="2"/>
+      <c r="BG763" s="2"/>
+      <c r="BH763" s="2"/>
+      <c r="BI763" s="2"/>
+      <c r="BJ763" s="2"/>
+      <c r="BK763" s="2"/>
+      <c r="BL763" s="2"/>
+      <c r="BM763" s="2"/>
+      <c r="BN763" s="2"/>
+      <c r="BO763" s="2"/>
+      <c r="BP763" s="2"/>
+      <c r="BQ763" s="2"/>
+      <c r="BR763" s="2"/>
+      <c r="BS763" s="2"/>
+      <c r="BT763" s="2"/>
+      <c r="BU763" s="2"/>
+      <c r="BV763" s="2"/>
+      <c r="BW763" s="2"/>
+      <c r="BX763" s="2"/>
+      <c r="BY763" s="2"/>
+      <c r="BZ763" s="2"/>
+      <c r="CA763" s="2"/>
+      <c r="CB763" s="2"/>
+      <c r="CC763" s="2"/>
+      <c r="CD763" s="2"/>
+    </row>
+    <row r="797" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B797" s="2"/>
+      <c r="C797" s="2"/>
+      <c r="D797" s="2"/>
+      <c r="E797" s="2"/>
+      <c r="F797" s="2"/>
+      <c r="G797" s="2"/>
+      <c r="H797" s="2"/>
+      <c r="I797" s="2"/>
+      <c r="J797" s="2"/>
+      <c r="K797" s="2"/>
+      <c r="L797" s="2"/>
+      <c r="M797" s="2"/>
+      <c r="N797" s="2"/>
+      <c r="O797" s="2"/>
+      <c r="P797" s="2"/>
+      <c r="Q797" s="2"/>
+      <c r="R797" s="2"/>
+      <c r="S797" s="2"/>
+      <c r="T797" s="2"/>
+      <c r="U797" s="2"/>
+      <c r="V797" s="2"/>
+      <c r="W797" s="2"/>
+      <c r="X797" s="2"/>
+      <c r="Y797" s="4"/>
+      <c r="Z797" s="2"/>
+      <c r="AA797" s="2"/>
+      <c r="AB797" s="2"/>
+      <c r="AC797" s="2"/>
+      <c r="AD797" s="2"/>
+      <c r="AE797" s="2"/>
+      <c r="AF797" s="2"/>
+      <c r="AG797" s="2"/>
+      <c r="AH797" s="2"/>
+      <c r="AI797" s="2"/>
+      <c r="AJ797" s="2"/>
+      <c r="AK797" s="2"/>
+      <c r="AL797" s="2"/>
+      <c r="AM797" s="2"/>
+      <c r="AN797" s="2"/>
+      <c r="AO797" s="2"/>
+      <c r="AP797" s="2"/>
+      <c r="AQ797" s="2"/>
+      <c r="AR797" s="2"/>
+      <c r="AS797" s="2"/>
+      <c r="AT797" s="2"/>
+      <c r="AU797" s="2"/>
+      <c r="AV797" s="2"/>
+      <c r="AW797" s="2"/>
+      <c r="AX797" s="2"/>
+      <c r="AY797" s="2"/>
+      <c r="AZ797" s="2"/>
+      <c r="BA797" s="2"/>
+      <c r="BB797" s="2"/>
+      <c r="BC797" s="2"/>
+      <c r="BD797" s="2"/>
+      <c r="BE797" s="2"/>
+      <c r="BF797" s="2"/>
+      <c r="BG797" s="2"/>
+      <c r="BH797" s="2"/>
+      <c r="BI797" s="2"/>
+      <c r="BJ797" s="2"/>
+      <c r="BK797" s="2"/>
+      <c r="BL797" s="2"/>
+      <c r="BM797" s="2"/>
+      <c r="BN797" s="2"/>
+      <c r="BO797" s="2"/>
+      <c r="BP797" s="2"/>
+      <c r="BQ797" s="2"/>
+      <c r="BR797" s="2"/>
+      <c r="BS797" s="2"/>
+      <c r="BT797" s="2"/>
+      <c r="BU797" s="2"/>
+      <c r="BV797" s="2"/>
+      <c r="BW797" s="2"/>
+      <c r="BX797" s="2"/>
+      <c r="BY797" s="2"/>
+      <c r="BZ797" s="2"/>
+      <c r="CA797" s="2"/>
+      <c r="CB797" s="2"/>
+      <c r="CC797" s="2"/>
+      <c r="CD797" s="2"/>
+    </row>
+    <row r="831" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B831" s="2"/>
+      <c r="C831" s="2"/>
+      <c r="D831" s="2"/>
+      <c r="E831" s="2"/>
+      <c r="F831" s="2"/>
+      <c r="G831" s="2"/>
+      <c r="H831" s="2"/>
+      <c r="I831" s="2"/>
+      <c r="J831" s="2"/>
+      <c r="K831" s="2"/>
+      <c r="L831" s="2"/>
+      <c r="M831" s="2"/>
+      <c r="N831" s="2"/>
+      <c r="O831" s="2"/>
+      <c r="P831" s="2"/>
+      <c r="Q831" s="2"/>
+      <c r="R831" s="2"/>
+      <c r="S831" s="2"/>
+      <c r="T831" s="2"/>
+      <c r="U831" s="2"/>
+      <c r="V831" s="2"/>
+      <c r="W831" s="2"/>
+      <c r="X831" s="2"/>
+      <c r="Y831" s="4"/>
+      <c r="Z831" s="2"/>
+      <c r="AA831" s="2"/>
+      <c r="AB831" s="2"/>
+      <c r="AC831" s="2"/>
+      <c r="AD831" s="2"/>
+      <c r="AE831" s="2"/>
+      <c r="AF831" s="2"/>
+      <c r="AG831" s="2"/>
+      <c r="AH831" s="2"/>
+      <c r="AI831" s="2"/>
+      <c r="AJ831" s="2"/>
+      <c r="AK831" s="2"/>
+      <c r="AL831" s="2"/>
+      <c r="AM831" s="2"/>
+      <c r="AN831" s="2"/>
+      <c r="AO831" s="2"/>
+      <c r="AP831" s="2"/>
+      <c r="AQ831" s="2"/>
+      <c r="AR831" s="2"/>
+      <c r="AS831" s="2"/>
+      <c r="AT831" s="2"/>
+      <c r="AU831" s="2"/>
+      <c r="AV831" s="2"/>
+      <c r="AW831" s="2"/>
+      <c r="AX831" s="2"/>
+      <c r="AY831" s="2"/>
+      <c r="AZ831" s="2"/>
+      <c r="BA831" s="2"/>
+      <c r="BB831" s="2"/>
+      <c r="BC831" s="2"/>
+      <c r="BD831" s="2"/>
+      <c r="BE831" s="2"/>
+      <c r="BF831" s="2"/>
+      <c r="BG831" s="2"/>
+      <c r="BH831" s="2"/>
+      <c r="BI831" s="2"/>
+      <c r="BJ831" s="2"/>
+      <c r="BK831" s="2"/>
+      <c r="BL831" s="2"/>
+      <c r="BM831" s="2"/>
+      <c r="BN831" s="2"/>
+      <c r="BO831" s="2"/>
+      <c r="BP831" s="2"/>
+      <c r="BQ831" s="2"/>
+      <c r="BR831" s="2"/>
+      <c r="BS831" s="2"/>
+      <c r="BT831" s="2"/>
+      <c r="BU831" s="2"/>
+      <c r="BV831" s="2"/>
+      <c r="BW831" s="2"/>
+      <c r="BX831" s="2"/>
+      <c r="BY831" s="2"/>
+      <c r="BZ831" s="2"/>
+      <c r="CA831" s="2"/>
+      <c r="CB831" s="2"/>
+      <c r="CC831" s="2"/>
+      <c r="CD831" s="2"/>
+    </row>
+    <row r="865" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B865" s="2"/>
+      <c r="C865" s="2"/>
+      <c r="D865" s="2"/>
+      <c r="E865" s="2"/>
+      <c r="F865" s="2"/>
+      <c r="G865" s="2"/>
+      <c r="H865" s="2"/>
+      <c r="I865" s="2"/>
+      <c r="J865" s="2"/>
+      <c r="K865" s="2"/>
+      <c r="L865" s="2"/>
+      <c r="M865" s="2"/>
+      <c r="N865" s="2"/>
+      <c r="O865" s="2"/>
+      <c r="P865" s="2"/>
+      <c r="Q865" s="2"/>
+      <c r="R865" s="2"/>
+      <c r="S865" s="2"/>
+      <c r="T865" s="2"/>
+      <c r="U865" s="2"/>
+      <c r="V865" s="2"/>
+      <c r="W865" s="2"/>
+      <c r="X865" s="2"/>
+      <c r="Y865" s="4"/>
+      <c r="Z865" s="2"/>
+      <c r="AA865" s="2"/>
+      <c r="AB865" s="2"/>
+      <c r="AC865" s="2"/>
+      <c r="AD865" s="2"/>
+      <c r="AE865" s="2"/>
+      <c r="AF865" s="2"/>
+      <c r="AG865" s="2"/>
+      <c r="AH865" s="2"/>
+      <c r="AI865" s="2"/>
+      <c r="AJ865" s="2"/>
+      <c r="AK865" s="2"/>
+      <c r="AL865" s="2"/>
+      <c r="AM865" s="2"/>
+      <c r="AN865" s="2"/>
+      <c r="AO865" s="2"/>
+      <c r="AP865" s="2"/>
+      <c r="AQ865" s="2"/>
+      <c r="AR865" s="2"/>
+      <c r="AS865" s="2"/>
+      <c r="AT865" s="2"/>
+      <c r="AU865" s="2"/>
+      <c r="AV865" s="2"/>
+      <c r="AW865" s="2"/>
+      <c r="AX865" s="2"/>
+      <c r="AY865" s="2"/>
+      <c r="AZ865" s="2"/>
+      <c r="BA865" s="2"/>
+      <c r="BB865" s="2"/>
+      <c r="BC865" s="2"/>
+      <c r="BD865" s="2"/>
+      <c r="BE865" s="2"/>
+      <c r="BF865" s="2"/>
+      <c r="BG865" s="2"/>
+      <c r="BH865" s="2"/>
+      <c r="BI865" s="2"/>
+      <c r="BJ865" s="2"/>
+      <c r="BK865" s="2"/>
+      <c r="BL865" s="2"/>
+      <c r="BM865" s="2"/>
+      <c r="BN865" s="2"/>
+      <c r="BO865" s="2"/>
+      <c r="BP865" s="2"/>
+      <c r="BQ865" s="2"/>
+      <c r="BR865" s="2"/>
+      <c r="BS865" s="2"/>
+      <c r="BT865" s="2"/>
+      <c r="BU865" s="2"/>
+      <c r="BV865" s="2"/>
+      <c r="BW865" s="2"/>
+      <c r="BX865" s="2"/>
+      <c r="BY865" s="2"/>
+      <c r="BZ865" s="2"/>
+      <c r="CA865" s="2"/>
+      <c r="CB865" s="2"/>
+      <c r="CC865" s="2"/>
+      <c r="CD865" s="2"/>
+    </row>
+    <row r="899" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B899" s="2"/>
+      <c r="C899" s="2"/>
+      <c r="D899" s="2"/>
+      <c r="E899" s="2"/>
+      <c r="F899" s="2"/>
+      <c r="G899" s="2"/>
+      <c r="H899" s="2"/>
+      <c r="I899" s="2"/>
+      <c r="J899" s="2"/>
+      <c r="K899" s="2"/>
+      <c r="L899" s="2"/>
+      <c r="M899" s="2"/>
+      <c r="N899" s="2"/>
+      <c r="O899" s="2"/>
+      <c r="P899" s="2"/>
+      <c r="Q899" s="2"/>
+      <c r="R899" s="2"/>
+      <c r="S899" s="2"/>
+      <c r="T899" s="2"/>
+      <c r="U899" s="2"/>
+      <c r="V899" s="2"/>
+      <c r="W899" s="2"/>
+      <c r="X899" s="2"/>
+      <c r="Y899" s="4"/>
+      <c r="Z899" s="2"/>
+      <c r="AA899" s="2"/>
+      <c r="AB899" s="2"/>
+      <c r="AC899" s="2"/>
+      <c r="AD899" s="2"/>
+      <c r="AE899" s="2"/>
+      <c r="AF899" s="2"/>
+      <c r="AG899" s="2"/>
+      <c r="AH899" s="2"/>
+      <c r="AI899" s="2"/>
+      <c r="AJ899" s="2"/>
+      <c r="AK899" s="2"/>
+      <c r="AL899" s="2"/>
+      <c r="AM899" s="2"/>
+      <c r="AN899" s="2"/>
+      <c r="AO899" s="2"/>
+      <c r="AP899" s="2"/>
+      <c r="AQ899" s="2"/>
+      <c r="AR899" s="2"/>
+      <c r="AS899" s="2"/>
+      <c r="AT899" s="2"/>
+      <c r="AU899" s="2"/>
+      <c r="AV899" s="2"/>
+      <c r="AW899" s="2"/>
+      <c r="AX899" s="2"/>
+      <c r="AY899" s="2"/>
+      <c r="AZ899" s="2"/>
+      <c r="BA899" s="2"/>
+      <c r="BB899" s="2"/>
+      <c r="BC899" s="2"/>
+      <c r="BD899" s="2"/>
+      <c r="BE899" s="2"/>
+      <c r="BF899" s="2"/>
+      <c r="BG899" s="2"/>
+      <c r="BH899" s="2"/>
+      <c r="BI899" s="2"/>
+      <c r="BJ899" s="2"/>
+      <c r="BK899" s="2"/>
+      <c r="BL899" s="2"/>
+      <c r="BM899" s="2"/>
+      <c r="BN899" s="2"/>
+      <c r="BO899" s="2"/>
+      <c r="BP899" s="2"/>
+      <c r="BQ899" s="2"/>
+      <c r="BR899" s="2"/>
+      <c r="BS899" s="2"/>
+      <c r="BT899" s="2"/>
+      <c r="BU899" s="2"/>
+      <c r="BV899" s="2"/>
+      <c r="BW899" s="2"/>
+      <c r="BX899" s="2"/>
+      <c r="BY899" s="2"/>
+      <c r="BZ899" s="2"/>
+      <c r="CA899" s="2"/>
+      <c r="CB899" s="2"/>
+      <c r="CC899" s="2"/>
+      <c r="CD899" s="2"/>
+    </row>
+    <row r="933" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B933" s="2"/>
+      <c r="C933" s="2"/>
+      <c r="D933" s="2"/>
+      <c r="E933" s="2"/>
+      <c r="F933" s="2"/>
+      <c r="G933" s="2"/>
+      <c r="H933" s="2"/>
+      <c r="I933" s="2"/>
+      <c r="J933" s="2"/>
+      <c r="K933" s="2"/>
+      <c r="L933" s="2"/>
+      <c r="M933" s="2"/>
+      <c r="N933" s="2"/>
+      <c r="O933" s="2"/>
+      <c r="P933" s="2"/>
+      <c r="Q933" s="2"/>
+      <c r="R933" s="2"/>
+      <c r="S933" s="2"/>
+      <c r="T933" s="2"/>
+      <c r="U933" s="2"/>
+      <c r="V933" s="2"/>
+      <c r="W933" s="2"/>
+      <c r="X933" s="2"/>
+      <c r="Y933" s="4"/>
+      <c r="Z933" s="2"/>
+      <c r="AA933" s="2"/>
+      <c r="AB933" s="2"/>
+      <c r="AC933" s="2"/>
+      <c r="AD933" s="2"/>
+      <c r="AE933" s="2"/>
+      <c r="AF933" s="2"/>
+      <c r="AG933" s="2"/>
+      <c r="AH933" s="2"/>
+      <c r="AI933" s="2"/>
+      <c r="AJ933" s="2"/>
+      <c r="AK933" s="2"/>
+      <c r="AL933" s="2"/>
+      <c r="AM933" s="2"/>
+      <c r="AN933" s="2"/>
+      <c r="AO933" s="2"/>
+      <c r="AP933" s="2"/>
+      <c r="AQ933" s="2"/>
+      <c r="AR933" s="2"/>
+      <c r="AS933" s="2"/>
+      <c r="AT933" s="2"/>
+      <c r="AU933" s="2"/>
+      <c r="AV933" s="2"/>
+      <c r="AW933" s="2"/>
+      <c r="AX933" s="2"/>
+      <c r="AY933" s="2"/>
+      <c r="AZ933" s="2"/>
+      <c r="BA933" s="2"/>
+      <c r="BB933" s="2"/>
+      <c r="BC933" s="2"/>
+      <c r="BD933" s="2"/>
+      <c r="BE933" s="2"/>
+      <c r="BF933" s="2"/>
+      <c r="BG933" s="2"/>
+      <c r="BH933" s="2"/>
+      <c r="BI933" s="2"/>
+      <c r="BJ933" s="2"/>
+      <c r="BK933" s="2"/>
+      <c r="BL933" s="2"/>
+      <c r="BM933" s="2"/>
+      <c r="BN933" s="2"/>
+      <c r="BO933" s="2"/>
+      <c r="BP933" s="2"/>
+      <c r="BQ933" s="2"/>
+      <c r="BR933" s="2"/>
+      <c r="BS933" s="2"/>
+      <c r="BT933" s="2"/>
+      <c r="BU933" s="2"/>
+      <c r="BV933" s="2"/>
+      <c r="BW933" s="2"/>
+      <c r="BX933" s="2"/>
+      <c r="BY933" s="2"/>
+      <c r="BZ933" s="2"/>
+      <c r="CA933" s="2"/>
+      <c r="CB933" s="2"/>
+      <c r="CC933" s="2"/>
+      <c r="CD933" s="2"/>
+    </row>
+    <row r="967" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B967" s="2"/>
+      <c r="C967" s="2"/>
+      <c r="D967" s="2"/>
+      <c r="E967" s="2"/>
+      <c r="F967" s="2"/>
+      <c r="G967" s="2"/>
+      <c r="H967" s="2"/>
+      <c r="I967" s="2"/>
+      <c r="J967" s="2"/>
+      <c r="K967" s="2"/>
+      <c r="L967" s="2"/>
+      <c r="M967" s="2"/>
+      <c r="N967" s="2"/>
+      <c r="O967" s="2"/>
+      <c r="P967" s="2"/>
+      <c r="Q967" s="2"/>
+      <c r="R967" s="2"/>
+      <c r="S967" s="2"/>
+      <c r="T967" s="2"/>
+      <c r="U967" s="2"/>
+      <c r="V967" s="2"/>
+      <c r="W967" s="2"/>
+      <c r="X967" s="2"/>
+      <c r="Y967" s="4"/>
+      <c r="Z967" s="2"/>
+      <c r="AA967" s="2"/>
+      <c r="AB967" s="2"/>
+      <c r="AC967" s="2"/>
+      <c r="AD967" s="2"/>
+      <c r="AE967" s="2"/>
+      <c r="AF967" s="2"/>
+      <c r="AG967" s="2"/>
+      <c r="AH967" s="2"/>
+      <c r="AI967" s="2"/>
+      <c r="AJ967" s="2"/>
+      <c r="AK967" s="2"/>
+      <c r="AL967" s="2"/>
+      <c r="AM967" s="2"/>
+      <c r="AN967" s="2"/>
+      <c r="AO967" s="2"/>
+      <c r="AP967" s="2"/>
+      <c r="AQ967" s="2"/>
+      <c r="AR967" s="2"/>
+      <c r="AS967" s="2"/>
+      <c r="AT967" s="2"/>
+      <c r="AU967" s="2"/>
+      <c r="AV967" s="2"/>
+      <c r="AW967" s="2"/>
+      <c r="AX967" s="2"/>
+      <c r="AY967" s="2"/>
+      <c r="AZ967" s="2"/>
+      <c r="BA967" s="2"/>
+      <c r="BB967" s="2"/>
+      <c r="BC967" s="2"/>
+      <c r="BD967" s="2"/>
+      <c r="BE967" s="2"/>
+      <c r="BF967" s="2"/>
+      <c r="BG967" s="2"/>
+      <c r="BH967" s="2"/>
+      <c r="BI967" s="2"/>
+      <c r="BJ967" s="2"/>
+      <c r="BK967" s="2"/>
+      <c r="BL967" s="2"/>
+      <c r="BM967" s="2"/>
+      <c r="BN967" s="2"/>
+      <c r="BO967" s="2"/>
+      <c r="BP967" s="2"/>
+      <c r="BQ967" s="2"/>
+      <c r="BR967" s="2"/>
+      <c r="BS967" s="2"/>
+      <c r="BT967" s="2"/>
+      <c r="BU967" s="2"/>
+      <c r="BV967" s="2"/>
+      <c r="BW967" s="2"/>
+      <c r="BX967" s="2"/>
+      <c r="BY967" s="2"/>
+      <c r="BZ967" s="2"/>
+      <c r="CA967" s="2"/>
+      <c r="CB967" s="2"/>
+      <c r="CC967" s="2"/>
+      <c r="CD967" s="2"/>
+    </row>
+    <row r="1001" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="4"/>
+      <c r="Z1001" s="2"/>
+      <c r="AA1001" s="2"/>
+      <c r="AB1001" s="2"/>
+      <c r="AC1001" s="2"/>
+      <c r="AD1001" s="2"/>
+      <c r="AE1001" s="2"/>
+      <c r="AF1001" s="2"/>
+      <c r="AG1001" s="2"/>
+      <c r="AH1001" s="2"/>
+      <c r="AI1001" s="2"/>
+      <c r="AJ1001" s="2"/>
+      <c r="AK1001" s="2"/>
+      <c r="AL1001" s="2"/>
+      <c r="AM1001" s="2"/>
+      <c r="AN1001" s="2"/>
+      <c r="AO1001" s="2"/>
+      <c r="AP1001" s="2"/>
+      <c r="AQ1001" s="2"/>
+      <c r="AR1001" s="2"/>
+      <c r="AS1001" s="2"/>
+      <c r="AT1001" s="2"/>
+      <c r="AU1001" s="2"/>
+      <c r="AV1001" s="2"/>
+      <c r="AW1001" s="2"/>
+      <c r="AX1001" s="2"/>
+      <c r="AY1001" s="2"/>
+      <c r="AZ1001" s="2"/>
+      <c r="BA1001" s="2"/>
+      <c r="BB1001" s="2"/>
+      <c r="BC1001" s="2"/>
+      <c r="BD1001" s="2"/>
+      <c r="BE1001" s="2"/>
+      <c r="BF1001" s="2"/>
+      <c r="BG1001" s="2"/>
+      <c r="BH1001" s="2"/>
+      <c r="BI1001" s="2"/>
+      <c r="BJ1001" s="2"/>
+      <c r="BK1001" s="2"/>
+      <c r="BL1001" s="2"/>
+      <c r="BM1001" s="2"/>
+      <c r="BN1001" s="2"/>
+      <c r="BO1001" s="2"/>
+      <c r="BP1001" s="2"/>
+      <c r="BQ1001" s="2"/>
+      <c r="BR1001" s="2"/>
+      <c r="BS1001" s="2"/>
+      <c r="BT1001" s="2"/>
+      <c r="BU1001" s="2"/>
+      <c r="BV1001" s="2"/>
+      <c r="BW1001" s="2"/>
+      <c r="BX1001" s="2"/>
+      <c r="BY1001" s="2"/>
+      <c r="BZ1001" s="2"/>
+      <c r="CA1001" s="2"/>
+      <c r="CB1001" s="2"/>
+      <c r="CC1001" s="2"/>
+      <c r="CD1001" s="2"/>
+    </row>
+    <row r="1035" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="2"/>
+      <c r="D1035" s="2"/>
+      <c r="E1035" s="2"/>
+      <c r="F1035" s="2"/>
+      <c r="G1035" s="2"/>
+      <c r="H1035" s="2"/>
+      <c r="I1035" s="2"/>
+      <c r="J1035" s="2"/>
+      <c r="K1035" s="2"/>
+      <c r="L1035" s="2"/>
+      <c r="M1035" s="2"/>
+      <c r="N1035" s="2"/>
+      <c r="O1035" s="2"/>
+      <c r="P1035" s="2"/>
+      <c r="Q1035" s="2"/>
+      <c r="R1035" s="2"/>
+      <c r="S1035" s="2"/>
+      <c r="T1035" s="2"/>
+      <c r="U1035" s="2"/>
+      <c r="V1035" s="2"/>
+      <c r="W1035" s="2"/>
+      <c r="X1035" s="2"/>
+      <c r="Y1035" s="4"/>
+      <c r="Z1035" s="2"/>
+      <c r="AA1035" s="2"/>
+      <c r="AB1035" s="2"/>
+      <c r="AC1035" s="2"/>
+      <c r="AD1035" s="2"/>
+      <c r="AE1035" s="2"/>
+      <c r="AF1035" s="2"/>
+      <c r="AG1035" s="2"/>
+      <c r="AH1035" s="2"/>
+      <c r="AI1035" s="2"/>
+      <c r="AJ1035" s="2"/>
+      <c r="AK1035" s="2"/>
+      <c r="AL1035" s="2"/>
+      <c r="AM1035" s="2"/>
+      <c r="AN1035" s="2"/>
+      <c r="AO1035" s="2"/>
+      <c r="AP1035" s="2"/>
+      <c r="AQ1035" s="2"/>
+      <c r="AR1035" s="2"/>
+      <c r="AS1035" s="2"/>
+      <c r="AT1035" s="2"/>
+      <c r="AU1035" s="2"/>
+      <c r="AV1035" s="2"/>
+      <c r="AW1035" s="2"/>
+      <c r="AX1035" s="2"/>
+      <c r="AY1035" s="2"/>
+      <c r="AZ1035" s="2"/>
+      <c r="BA1035" s="2"/>
+      <c r="BB1035" s="2"/>
+      <c r="BC1035" s="2"/>
+      <c r="BD1035" s="2"/>
+      <c r="BE1035" s="2"/>
+      <c r="BF1035" s="2"/>
+      <c r="BG1035" s="2"/>
+      <c r="BH1035" s="2"/>
+      <c r="BI1035" s="2"/>
+      <c r="BJ1035" s="2"/>
+      <c r="BK1035" s="2"/>
+      <c r="BL1035" s="2"/>
+      <c r="BM1035" s="2"/>
+      <c r="BN1035" s="2"/>
+      <c r="BO1035" s="2"/>
+      <c r="BP1035" s="2"/>
+      <c r="BQ1035" s="2"/>
+      <c r="BR1035" s="2"/>
+      <c r="BS1035" s="2"/>
+      <c r="BT1035" s="2"/>
+      <c r="BU1035" s="2"/>
+      <c r="BV1035" s="2"/>
+      <c r="BW1035" s="2"/>
+      <c r="BX1035" s="2"/>
+      <c r="BY1035" s="2"/>
+      <c r="BZ1035" s="2"/>
+      <c r="CA1035" s="2"/>
+      <c r="CB1035" s="2"/>
+      <c r="CC1035" s="2"/>
+      <c r="CD1035" s="2"/>
+    </row>
+    <row r="1069" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1069" s="2"/>
+      <c r="C1069" s="2"/>
+      <c r="D1069" s="2"/>
+      <c r="E1069" s="2"/>
+      <c r="F1069" s="2"/>
+      <c r="G1069" s="2"/>
+      <c r="H1069" s="2"/>
+      <c r="I1069" s="2"/>
+      <c r="J1069" s="2"/>
+      <c r="K1069" s="2"/>
+      <c r="L1069" s="2"/>
+      <c r="M1069" s="2"/>
+      <c r="N1069" s="2"/>
+      <c r="O1069" s="2"/>
+      <c r="P1069" s="2"/>
+      <c r="Q1069" s="2"/>
+      <c r="R1069" s="2"/>
+      <c r="S1069" s="2"/>
+      <c r="T1069" s="2"/>
+      <c r="U1069" s="2"/>
+      <c r="V1069" s="2"/>
+      <c r="W1069" s="2"/>
+      <c r="X1069" s="2"/>
+      <c r="Y1069" s="4"/>
+      <c r="Z1069" s="2"/>
+      <c r="AA1069" s="2"/>
+      <c r="AB1069" s="2"/>
+      <c r="AC1069" s="2"/>
+      <c r="AD1069" s="2"/>
+      <c r="AE1069" s="2"/>
+      <c r="AF1069" s="2"/>
+      <c r="AG1069" s="2"/>
+      <c r="AH1069" s="2"/>
+      <c r="AI1069" s="2"/>
+      <c r="AJ1069" s="2"/>
+      <c r="AK1069" s="2"/>
+      <c r="AL1069" s="2"/>
+      <c r="AM1069" s="2"/>
+      <c r="AN1069" s="2"/>
+      <c r="AO1069" s="2"/>
+      <c r="AP1069" s="2"/>
+      <c r="AQ1069" s="2"/>
+      <c r="AR1069" s="2"/>
+      <c r="AS1069" s="2"/>
+      <c r="AT1069" s="2"/>
+      <c r="AU1069" s="2"/>
+      <c r="AV1069" s="2"/>
+      <c r="AW1069" s="2"/>
+      <c r="AX1069" s="2"/>
+      <c r="AY1069" s="2"/>
+      <c r="AZ1069" s="2"/>
+      <c r="BA1069" s="2"/>
+      <c r="BB1069" s="2"/>
+      <c r="BC1069" s="2"/>
+      <c r="BD1069" s="2"/>
+      <c r="BE1069" s="2"/>
+      <c r="BF1069" s="2"/>
+      <c r="BG1069" s="2"/>
+      <c r="BH1069" s="2"/>
+      <c r="BI1069" s="2"/>
+      <c r="BJ1069" s="2"/>
+      <c r="BK1069" s="2"/>
+      <c r="BL1069" s="2"/>
+      <c r="BM1069" s="2"/>
+      <c r="BN1069" s="2"/>
+      <c r="BO1069" s="2"/>
+      <c r="BP1069" s="2"/>
+      <c r="BQ1069" s="2"/>
+      <c r="BR1069" s="2"/>
+      <c r="BS1069" s="2"/>
+      <c r="BT1069" s="2"/>
+      <c r="BU1069" s="2"/>
+      <c r="BV1069" s="2"/>
+      <c r="BW1069" s="2"/>
+      <c r="BX1069" s="2"/>
+      <c r="BY1069" s="2"/>
+      <c r="BZ1069" s="2"/>
+      <c r="CA1069" s="2"/>
+      <c r="CB1069" s="2"/>
+      <c r="CC1069" s="2"/>
+      <c r="CD1069" s="2"/>
+    </row>
+    <row r="1103" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1103" s="2"/>
+      <c r="C1103" s="2"/>
+      <c r="D1103" s="2"/>
+      <c r="E1103" s="2"/>
+      <c r="F1103" s="2"/>
+      <c r="G1103" s="2"/>
+      <c r="H1103" s="2"/>
+      <c r="I1103" s="2"/>
+      <c r="J1103" s="2"/>
+      <c r="K1103" s="2"/>
+      <c r="L1103" s="2"/>
+      <c r="M1103" s="2"/>
+      <c r="N1103" s="2"/>
+      <c r="O1103" s="2"/>
+      <c r="P1103" s="2"/>
+      <c r="Q1103" s="2"/>
+      <c r="R1103" s="2"/>
+      <c r="S1103" s="2"/>
+      <c r="T1103" s="2"/>
+      <c r="U1103" s="2"/>
+      <c r="V1103" s="2"/>
+      <c r="W1103" s="2"/>
+      <c r="X1103" s="2"/>
+      <c r="Y1103" s="4"/>
+      <c r="Z1103" s="2"/>
+      <c r="AA1103" s="2"/>
+      <c r="AB1103" s="2"/>
+      <c r="AC1103" s="2"/>
+      <c r="AD1103" s="2"/>
+      <c r="AE1103" s="2"/>
+      <c r="AF1103" s="2"/>
+      <c r="AG1103" s="2"/>
+      <c r="AH1103" s="2"/>
+      <c r="AI1103" s="2"/>
+      <c r="AJ1103" s="2"/>
+      <c r="AK1103" s="2"/>
+      <c r="AL1103" s="2"/>
+      <c r="AM1103" s="2"/>
+      <c r="AN1103" s="2"/>
+      <c r="AO1103" s="2"/>
+      <c r="AP1103" s="2"/>
+      <c r="AQ1103" s="2"/>
+      <c r="AR1103" s="2"/>
+      <c r="AS1103" s="2"/>
+      <c r="AT1103" s="2"/>
+      <c r="AU1103" s="2"/>
+      <c r="AV1103" s="2"/>
+      <c r="AW1103" s="2"/>
+      <c r="AX1103" s="2"/>
+      <c r="AY1103" s="2"/>
+      <c r="AZ1103" s="2"/>
+      <c r="BA1103" s="2"/>
+      <c r="BB1103" s="2"/>
+      <c r="BC1103" s="2"/>
+      <c r="BD1103" s="2"/>
+      <c r="BE1103" s="2"/>
+      <c r="BF1103" s="2"/>
+      <c r="BG1103" s="2"/>
+      <c r="BH1103" s="2"/>
+      <c r="BI1103" s="2"/>
+      <c r="BJ1103" s="2"/>
+      <c r="BK1103" s="2"/>
+      <c r="BL1103" s="2"/>
+      <c r="BM1103" s="2"/>
+      <c r="BN1103" s="2"/>
+      <c r="BO1103" s="2"/>
+      <c r="BP1103" s="2"/>
+      <c r="BQ1103" s="2"/>
+      <c r="BR1103" s="2"/>
+      <c r="BS1103" s="2"/>
+      <c r="BT1103" s="2"/>
+      <c r="BU1103" s="2"/>
+      <c r="BV1103" s="2"/>
+      <c r="BW1103" s="2"/>
+      <c r="BX1103" s="2"/>
+      <c r="BY1103" s="2"/>
+      <c r="BZ1103" s="2"/>
+      <c r="CA1103" s="2"/>
+      <c r="CB1103" s="2"/>
+      <c r="CC1103" s="2"/>
+      <c r="CD1103" s="2"/>
+    </row>
+    <row r="1137" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1137" s="2"/>
+      <c r="C1137" s="2"/>
+      <c r="D1137" s="2"/>
+      <c r="E1137" s="2"/>
+      <c r="F1137" s="2"/>
+      <c r="G1137" s="2"/>
+      <c r="H1137" s="2"/>
+      <c r="I1137" s="2"/>
+      <c r="J1137" s="2"/>
+      <c r="K1137" s="2"/>
+      <c r="L1137" s="2"/>
+      <c r="M1137" s="2"/>
+      <c r="N1137" s="2"/>
+      <c r="O1137" s="2"/>
+      <c r="P1137" s="2"/>
+      <c r="Q1137" s="2"/>
+      <c r="R1137" s="2"/>
+      <c r="S1137" s="2"/>
+      <c r="T1137" s="2"/>
+      <c r="U1137" s="2"/>
+      <c r="V1137" s="2"/>
+      <c r="W1137" s="2"/>
+      <c r="X1137" s="2"/>
+      <c r="Y1137" s="4"/>
+      <c r="Z1137" s="2"/>
+      <c r="AA1137" s="2"/>
+      <c r="AB1137" s="2"/>
+      <c r="AC1137" s="2"/>
+      <c r="AD1137" s="2"/>
+      <c r="AE1137" s="2"/>
+      <c r="AF1137" s="2"/>
+      <c r="AG1137" s="2"/>
+      <c r="AH1137" s="2"/>
+      <c r="AI1137" s="2"/>
+      <c r="AJ1137" s="2"/>
+      <c r="AK1137" s="2"/>
+      <c r="AL1137" s="2"/>
+      <c r="AM1137" s="2"/>
+      <c r="AN1137" s="2"/>
+      <c r="AO1137" s="2"/>
+      <c r="AP1137" s="2"/>
+      <c r="AQ1137" s="2"/>
+      <c r="AR1137" s="2"/>
+      <c r="AS1137" s="2"/>
+      <c r="AT1137" s="2"/>
+      <c r="AU1137" s="2"/>
+      <c r="AV1137" s="2"/>
+      <c r="AW1137" s="2"/>
+      <c r="AX1137" s="2"/>
+      <c r="AY1137" s="2"/>
+      <c r="AZ1137" s="2"/>
+      <c r="BA1137" s="2"/>
+      <c r="BB1137" s="2"/>
+      <c r="BC1137" s="2"/>
+      <c r="BD1137" s="2"/>
+      <c r="BE1137" s="2"/>
+      <c r="BF1137" s="2"/>
+      <c r="BG1137" s="2"/>
+      <c r="BH1137" s="2"/>
+      <c r="BI1137" s="2"/>
+      <c r="BJ1137" s="2"/>
+      <c r="BK1137" s="2"/>
+      <c r="BL1137" s="2"/>
+      <c r="BM1137" s="2"/>
+      <c r="BN1137" s="2"/>
+      <c r="BO1137" s="2"/>
+      <c r="BP1137" s="2"/>
+      <c r="BQ1137" s="2"/>
+      <c r="BR1137" s="2"/>
+      <c r="BS1137" s="2"/>
+      <c r="BT1137" s="2"/>
+      <c r="BU1137" s="2"/>
+      <c r="BV1137" s="2"/>
+      <c r="BW1137" s="2"/>
+      <c r="BX1137" s="2"/>
+      <c r="BY1137" s="2"/>
+      <c r="BZ1137" s="2"/>
+      <c r="CA1137" s="2"/>
+      <c r="CB1137" s="2"/>
+      <c r="CC1137" s="2"/>
+      <c r="CD1137" s="2"/>
+    </row>
+    <row r="1171" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1171" s="2"/>
+      <c r="C1171" s="2"/>
+      <c r="D1171" s="2"/>
+      <c r="E1171" s="2"/>
+      <c r="F1171" s="2"/>
+      <c r="G1171" s="2"/>
+      <c r="H1171" s="2"/>
+      <c r="I1171" s="2"/>
+      <c r="J1171" s="2"/>
+      <c r="K1171" s="2"/>
+      <c r="L1171" s="2"/>
+      <c r="M1171" s="2"/>
+      <c r="N1171" s="2"/>
+      <c r="O1171" s="2"/>
+      <c r="P1171" s="2"/>
+      <c r="Q1171" s="2"/>
+      <c r="R1171" s="2"/>
+      <c r="S1171" s="2"/>
+      <c r="T1171" s="2"/>
+      <c r="U1171" s="2"/>
+      <c r="V1171" s="2"/>
+      <c r="W1171" s="2"/>
+      <c r="X1171" s="2"/>
+      <c r="Y1171" s="4"/>
+      <c r="Z1171" s="2"/>
+      <c r="AA1171" s="2"/>
+      <c r="AB1171" s="2"/>
+      <c r="AC1171" s="2"/>
+      <c r="AD1171" s="2"/>
+      <c r="AE1171" s="2"/>
+      <c r="AF1171" s="2"/>
+      <c r="AG1171" s="2"/>
+      <c r="AH1171" s="2"/>
+      <c r="AI1171" s="2"/>
+      <c r="AJ1171" s="2"/>
+      <c r="AK1171" s="2"/>
+      <c r="AL1171" s="2"/>
+      <c r="AM1171" s="2"/>
+      <c r="AN1171" s="2"/>
+      <c r="AO1171" s="2"/>
+      <c r="AP1171" s="2"/>
+      <c r="AQ1171" s="2"/>
+      <c r="AR1171" s="2"/>
+      <c r="AS1171" s="2"/>
+      <c r="AT1171" s="2"/>
+      <c r="AU1171" s="2"/>
+      <c r="AV1171" s="2"/>
+      <c r="AW1171" s="2"/>
+      <c r="AX1171" s="2"/>
+      <c r="AY1171" s="2"/>
+      <c r="AZ1171" s="2"/>
+      <c r="BA1171" s="2"/>
+      <c r="BB1171" s="2"/>
+      <c r="BC1171" s="2"/>
+      <c r="BD1171" s="2"/>
+      <c r="BE1171" s="2"/>
+      <c r="BF1171" s="2"/>
+      <c r="BG1171" s="2"/>
+      <c r="BH1171" s="2"/>
+      <c r="BI1171" s="2"/>
+      <c r="BJ1171" s="2"/>
+      <c r="BK1171" s="2"/>
+      <c r="BL1171" s="2"/>
+      <c r="BM1171" s="2"/>
+      <c r="BN1171" s="2"/>
+      <c r="BO1171" s="2"/>
+      <c r="BP1171" s="2"/>
+      <c r="BQ1171" s="2"/>
+      <c r="BR1171" s="2"/>
+      <c r="BS1171" s="2"/>
+      <c r="BT1171" s="2"/>
+      <c r="BU1171" s="2"/>
+      <c r="BV1171" s="2"/>
+      <c r="BW1171" s="2"/>
+      <c r="BX1171" s="2"/>
+      <c r="BY1171" s="2"/>
+      <c r="BZ1171" s="2"/>
+      <c r="CA1171" s="2"/>
+      <c r="CB1171" s="2"/>
+      <c r="CC1171" s="2"/>
+      <c r="CD1171" s="2"/>
+    </row>
+    <row r="1205" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1205" s="2"/>
+      <c r="C1205" s="2"/>
+      <c r="D1205" s="2"/>
+      <c r="E1205" s="2"/>
+      <c r="F1205" s="2"/>
+      <c r="G1205" s="2"/>
+      <c r="H1205" s="2"/>
+      <c r="I1205" s="2"/>
+      <c r="J1205" s="2"/>
+      <c r="K1205" s="2"/>
+      <c r="L1205" s="2"/>
+      <c r="M1205" s="2"/>
+      <c r="N1205" s="2"/>
+      <c r="O1205" s="2"/>
+      <c r="P1205" s="2"/>
+      <c r="Q1205" s="2"/>
+      <c r="R1205" s="2"/>
+      <c r="S1205" s="2"/>
+      <c r="T1205" s="2"/>
+      <c r="U1205" s="2"/>
+      <c r="V1205" s="2"/>
+      <c r="W1205" s="2"/>
+      <c r="X1205" s="2"/>
+      <c r="Y1205" s="4"/>
+      <c r="Z1205" s="2"/>
+      <c r="AA1205" s="2"/>
+      <c r="AB1205" s="2"/>
+      <c r="AC1205" s="2"/>
+      <c r="AD1205" s="2"/>
+      <c r="AE1205" s="2"/>
+      <c r="AF1205" s="2"/>
+      <c r="AG1205" s="2"/>
+      <c r="AH1205" s="2"/>
+      <c r="AI1205" s="2"/>
+      <c r="AJ1205" s="2"/>
+      <c r="AK1205" s="2"/>
+      <c r="AL1205" s="2"/>
+      <c r="AM1205" s="2"/>
+      <c r="AN1205" s="2"/>
+      <c r="AO1205" s="2"/>
+      <c r="AP1205" s="2"/>
+      <c r="AQ1205" s="2"/>
+      <c r="AR1205" s="2"/>
+      <c r="AS1205" s="2"/>
+      <c r="AT1205" s="2"/>
+      <c r="AU1205" s="2"/>
+      <c r="AV1205" s="2"/>
+      <c r="AW1205" s="2"/>
+      <c r="AX1205" s="2"/>
+      <c r="AY1205" s="2"/>
+      <c r="AZ1205" s="2"/>
+      <c r="BA1205" s="2"/>
+      <c r="BB1205" s="2"/>
+      <c r="BC1205" s="2"/>
+      <c r="BD1205" s="2"/>
+      <c r="BE1205" s="2"/>
+      <c r="BF1205" s="2"/>
+      <c r="BG1205" s="2"/>
+      <c r="BH1205" s="2"/>
+      <c r="BI1205" s="2"/>
+      <c r="BJ1205" s="2"/>
+      <c r="BK1205" s="2"/>
+      <c r="BL1205" s="2"/>
+      <c r="BM1205" s="2"/>
+      <c r="BN1205" s="2"/>
+      <c r="BO1205" s="2"/>
+      <c r="BP1205" s="2"/>
+      <c r="BQ1205" s="2"/>
+      <c r="BR1205" s="2"/>
+      <c r="BS1205" s="2"/>
+      <c r="BT1205" s="2"/>
+      <c r="BU1205" s="2"/>
+      <c r="BV1205" s="2"/>
+      <c r="BW1205" s="2"/>
+      <c r="BX1205" s="2"/>
+      <c r="BY1205" s="2"/>
+      <c r="BZ1205" s="2"/>
+      <c r="CA1205" s="2"/>
+      <c r="CB1205" s="2"/>
+      <c r="CC1205" s="2"/>
+      <c r="CD1205" s="2"/>
+    </row>
+    <row r="1239" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1239" s="2"/>
+      <c r="C1239" s="2"/>
+      <c r="D1239" s="2"/>
+      <c r="E1239" s="2"/>
+      <c r="F1239" s="2"/>
+      <c r="G1239" s="2"/>
+      <c r="H1239" s="2"/>
+      <c r="I1239" s="2"/>
+      <c r="J1239" s="2"/>
+      <c r="K1239" s="2"/>
+      <c r="L1239" s="2"/>
+      <c r="M1239" s="2"/>
+      <c r="N1239" s="2"/>
+      <c r="O1239" s="2"/>
+      <c r="P1239" s="2"/>
+      <c r="Q1239" s="2"/>
+      <c r="R1239" s="2"/>
+      <c r="S1239" s="2"/>
+      <c r="T1239" s="2"/>
+      <c r="U1239" s="2"/>
+      <c r="V1239" s="2"/>
+      <c r="W1239" s="2"/>
+      <c r="X1239" s="2"/>
+      <c r="Y1239" s="4"/>
+      <c r="Z1239" s="2"/>
+      <c r="AA1239" s="2"/>
+      <c r="AB1239" s="2"/>
+      <c r="AC1239" s="2"/>
+      <c r="AD1239" s="2"/>
+      <c r="AE1239" s="2"/>
+      <c r="AF1239" s="2"/>
+      <c r="AG1239" s="2"/>
+      <c r="AH1239" s="2"/>
+      <c r="AI1239" s="2"/>
+      <c r="AJ1239" s="2"/>
+      <c r="AK1239" s="2"/>
+      <c r="AL1239" s="2"/>
+      <c r="AM1239" s="2"/>
+      <c r="AN1239" s="2"/>
+      <c r="AO1239" s="2"/>
+      <c r="AP1239" s="2"/>
+      <c r="AQ1239" s="2"/>
+      <c r="AR1239" s="2"/>
+      <c r="AS1239" s="2"/>
+      <c r="AT1239" s="2"/>
+      <c r="AU1239" s="2"/>
+      <c r="AV1239" s="2"/>
+      <c r="AW1239" s="2"/>
+      <c r="AX1239" s="2"/>
+      <c r="AY1239" s="2"/>
+      <c r="AZ1239" s="2"/>
+      <c r="BA1239" s="2"/>
+      <c r="BB1239" s="2"/>
+      <c r="BC1239" s="2"/>
+      <c r="BD1239" s="2"/>
+      <c r="BE1239" s="2"/>
+      <c r="BF1239" s="2"/>
+      <c r="BG1239" s="2"/>
+      <c r="BH1239" s="2"/>
+      <c r="BI1239" s="2"/>
+      <c r="BJ1239" s="2"/>
+      <c r="BK1239" s="2"/>
+      <c r="BL1239" s="2"/>
+      <c r="BM1239" s="2"/>
+      <c r="BN1239" s="2"/>
+      <c r="BO1239" s="2"/>
+      <c r="BP1239" s="2"/>
+      <c r="BQ1239" s="2"/>
+      <c r="BR1239" s="2"/>
+      <c r="BS1239" s="2"/>
+      <c r="BT1239" s="2"/>
+      <c r="BU1239" s="2"/>
+      <c r="BV1239" s="2"/>
+      <c r="BW1239" s="2"/>
+      <c r="BX1239" s="2"/>
+      <c r="BY1239" s="2"/>
+      <c r="BZ1239" s="2"/>
+      <c r="CA1239" s="2"/>
+      <c r="CB1239" s="2"/>
+      <c r="CC1239" s="2"/>
+      <c r="CD1239" s="2"/>
+    </row>
+    <row r="1273" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1273" s="2"/>
+      <c r="C1273" s="2"/>
+      <c r="D1273" s="2"/>
+      <c r="E1273" s="2"/>
+      <c r="F1273" s="2"/>
+      <c r="G1273" s="2"/>
+      <c r="H1273" s="2"/>
+      <c r="I1273" s="2"/>
+      <c r="J1273" s="2"/>
+      <c r="K1273" s="2"/>
+      <c r="L1273" s="2"/>
+      <c r="M1273" s="2"/>
+      <c r="N1273" s="2"/>
+      <c r="O1273" s="2"/>
+      <c r="P1273" s="2"/>
+      <c r="Q1273" s="2"/>
+      <c r="R1273" s="2"/>
+      <c r="S1273" s="2"/>
+      <c r="T1273" s="2"/>
+      <c r="U1273" s="2"/>
+      <c r="V1273" s="2"/>
+      <c r="W1273" s="2"/>
+      <c r="X1273" s="2"/>
+      <c r="Y1273" s="4"/>
+      <c r="Z1273" s="2"/>
+      <c r="AA1273" s="2"/>
+      <c r="AB1273" s="2"/>
+      <c r="AC1273" s="2"/>
+      <c r="AD1273" s="2"/>
+      <c r="AE1273" s="2"/>
+      <c r="AF1273" s="2"/>
+      <c r="AG1273" s="2"/>
+      <c r="AH1273" s="2"/>
+      <c r="AI1273" s="2"/>
+      <c r="AJ1273" s="2"/>
+      <c r="AK1273" s="2"/>
+      <c r="AL1273" s="2"/>
+      <c r="AM1273" s="2"/>
+      <c r="AN1273" s="2"/>
+      <c r="AO1273" s="2"/>
+      <c r="AP1273" s="2"/>
+      <c r="AQ1273" s="2"/>
+      <c r="AR1273" s="2"/>
+      <c r="AS1273" s="2"/>
+      <c r="AT1273" s="2"/>
+      <c r="AU1273" s="2"/>
+      <c r="AV1273" s="2"/>
+      <c r="AW1273" s="2"/>
+      <c r="AX1273" s="2"/>
+      <c r="AY1273" s="2"/>
+      <c r="AZ1273" s="2"/>
+      <c r="BA1273" s="2"/>
+      <c r="BB1273" s="2"/>
+      <c r="BC1273" s="2"/>
+      <c r="BD1273" s="2"/>
+      <c r="BE1273" s="2"/>
+      <c r="BF1273" s="2"/>
+      <c r="BG1273" s="2"/>
+      <c r="BH1273" s="2"/>
+      <c r="BI1273" s="2"/>
+      <c r="BJ1273" s="2"/>
+      <c r="BK1273" s="2"/>
+      <c r="BL1273" s="2"/>
+      <c r="BM1273" s="2"/>
+      <c r="BN1273" s="2"/>
+      <c r="BO1273" s="2"/>
+      <c r="BP1273" s="2"/>
+      <c r="BQ1273" s="2"/>
+      <c r="BR1273" s="2"/>
+      <c r="BS1273" s="2"/>
+      <c r="BT1273" s="2"/>
+      <c r="BU1273" s="2"/>
+      <c r="BV1273" s="2"/>
+      <c r="BW1273" s="2"/>
+      <c r="BX1273" s="2"/>
+      <c r="BY1273" s="2"/>
+      <c r="BZ1273" s="2"/>
+      <c r="CA1273" s="2"/>
+      <c r="CB1273" s="2"/>
+      <c r="CC1273" s="2"/>
+      <c r="CD1273" s="2"/>
+    </row>
+    <row r="1307" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1307" s="2"/>
+      <c r="C1307" s="2"/>
+      <c r="D1307" s="2"/>
+      <c r="E1307" s="2"/>
+      <c r="F1307" s="2"/>
+      <c r="G1307" s="2"/>
+      <c r="H1307" s="2"/>
+      <c r="I1307" s="2"/>
+      <c r="J1307" s="2"/>
+      <c r="K1307" s="2"/>
+      <c r="L1307" s="2"/>
+      <c r="M1307" s="2"/>
+      <c r="N1307" s="2"/>
+      <c r="O1307" s="2"/>
+      <c r="P1307" s="2"/>
+      <c r="Q1307" s="2"/>
+      <c r="R1307" s="2"/>
+      <c r="S1307" s="2"/>
+      <c r="T1307" s="2"/>
+      <c r="U1307" s="2"/>
+      <c r="V1307" s="2"/>
+      <c r="W1307" s="2"/>
+      <c r="X1307" s="2"/>
+      <c r="Y1307" s="4"/>
+      <c r="Z1307" s="2"/>
+      <c r="AA1307" s="2"/>
+      <c r="AB1307" s="2"/>
+      <c r="AC1307" s="2"/>
+      <c r="AD1307" s="2"/>
+      <c r="AE1307" s="2"/>
+      <c r="AF1307" s="2"/>
+      <c r="AG1307" s="2"/>
+      <c r="AH1307" s="2"/>
+      <c r="AI1307" s="2"/>
+      <c r="AJ1307" s="2"/>
+      <c r="AK1307" s="2"/>
+      <c r="AL1307" s="2"/>
+      <c r="AM1307" s="2"/>
+      <c r="AN1307" s="2"/>
+      <c r="AO1307" s="2"/>
+      <c r="AP1307" s="2"/>
+      <c r="AQ1307" s="2"/>
+      <c r="AR1307" s="2"/>
+      <c r="AS1307" s="2"/>
+      <c r="AT1307" s="2"/>
+      <c r="AU1307" s="2"/>
+      <c r="AV1307" s="2"/>
+      <c r="AW1307" s="2"/>
+      <c r="AX1307" s="2"/>
+      <c r="AY1307" s="2"/>
+      <c r="AZ1307" s="2"/>
+      <c r="BA1307" s="2"/>
+      <c r="BB1307" s="2"/>
+      <c r="BC1307" s="2"/>
+      <c r="BD1307" s="2"/>
+      <c r="BE1307" s="2"/>
+      <c r="BF1307" s="2"/>
+      <c r="BG1307" s="2"/>
+      <c r="BH1307" s="2"/>
+      <c r="BI1307" s="2"/>
+      <c r="BJ1307" s="2"/>
+      <c r="BK1307" s="2"/>
+      <c r="BL1307" s="2"/>
+      <c r="BM1307" s="2"/>
+      <c r="BN1307" s="2"/>
+      <c r="BO1307" s="2"/>
+      <c r="BP1307" s="2"/>
+      <c r="BQ1307" s="2"/>
+      <c r="BR1307" s="2"/>
+      <c r="BS1307" s="2"/>
+      <c r="BT1307" s="2"/>
+      <c r="BU1307" s="2"/>
+      <c r="BV1307" s="2"/>
+      <c r="BW1307" s="2"/>
+      <c r="BX1307" s="2"/>
+      <c r="BY1307" s="2"/>
+      <c r="BZ1307" s="2"/>
+      <c r="CA1307" s="2"/>
+      <c r="CB1307" s="2"/>
+      <c r="CC1307" s="2"/>
+      <c r="CD1307" s="2"/>
+    </row>
+    <row r="1341" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1341" s="2"/>
+      <c r="C1341" s="2"/>
+      <c r="D1341" s="2"/>
+      <c r="E1341" s="2"/>
+      <c r="F1341" s="2"/>
+      <c r="G1341" s="2"/>
+      <c r="H1341" s="2"/>
+      <c r="I1341" s="2"/>
+      <c r="J1341" s="2"/>
+      <c r="K1341" s="2"/>
+      <c r="L1341" s="2"/>
+      <c r="M1341" s="2"/>
+      <c r="N1341" s="2"/>
+      <c r="O1341" s="2"/>
+      <c r="P1341" s="2"/>
+      <c r="Q1341" s="2"/>
+      <c r="R1341" s="2"/>
+      <c r="S1341" s="2"/>
+      <c r="T1341" s="2"/>
+      <c r="U1341" s="2"/>
+      <c r="V1341" s="2"/>
+      <c r="W1341" s="2"/>
+      <c r="X1341" s="2"/>
+      <c r="Y1341" s="4"/>
+      <c r="Z1341" s="2"/>
+      <c r="AA1341" s="2"/>
+      <c r="AB1341" s="2"/>
+      <c r="AC1341" s="2"/>
+      <c r="AD1341" s="2"/>
+      <c r="AE1341" s="2"/>
+      <c r="AF1341" s="2"/>
+      <c r="AG1341" s="2"/>
+      <c r="AH1341" s="2"/>
+      <c r="AI1341" s="2"/>
+      <c r="AJ1341" s="2"/>
+      <c r="AK1341" s="2"/>
+      <c r="AL1341" s="2"/>
+      <c r="AM1341" s="2"/>
+      <c r="AN1341" s="2"/>
+      <c r="AO1341" s="2"/>
+      <c r="AP1341" s="2"/>
+      <c r="AQ1341" s="2"/>
+      <c r="AR1341" s="2"/>
+      <c r="AS1341" s="2"/>
+      <c r="AT1341" s="2"/>
+      <c r="AU1341" s="2"/>
+      <c r="AV1341" s="2"/>
+      <c r="AW1341" s="2"/>
+      <c r="AX1341" s="2"/>
+      <c r="AY1341" s="2"/>
+      <c r="AZ1341" s="2"/>
+      <c r="BA1341" s="2"/>
+      <c r="BB1341" s="2"/>
+      <c r="BC1341" s="2"/>
+      <c r="BD1341" s="2"/>
+      <c r="BE1341" s="2"/>
+      <c r="BF1341" s="2"/>
+      <c r="BG1341" s="2"/>
+      <c r="BH1341" s="2"/>
+      <c r="BI1341" s="2"/>
+      <c r="BJ1341" s="2"/>
+      <c r="BK1341" s="2"/>
+      <c r="BL1341" s="2"/>
+      <c r="BM1341" s="2"/>
+      <c r="BN1341" s="2"/>
+      <c r="BO1341" s="2"/>
+      <c r="BP1341" s="2"/>
+      <c r="BQ1341" s="2"/>
+      <c r="BR1341" s="2"/>
+      <c r="BS1341" s="2"/>
+      <c r="BT1341" s="2"/>
+      <c r="BU1341" s="2"/>
+      <c r="BV1341" s="2"/>
+      <c r="BW1341" s="2"/>
+      <c r="BX1341" s="2"/>
+      <c r="BY1341" s="2"/>
+      <c r="BZ1341" s="2"/>
+      <c r="CA1341" s="2"/>
+      <c r="CB1341" s="2"/>
+      <c r="CC1341" s="2"/>
+      <c r="CD1341" s="2"/>
+    </row>
+    <row r="1375" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1375" s="2"/>
+      <c r="C1375" s="2"/>
+      <c r="D1375" s="2"/>
+      <c r="E1375" s="2"/>
+      <c r="F1375" s="2"/>
+      <c r="G1375" s="2"/>
+      <c r="H1375" s="2"/>
+      <c r="I1375" s="2"/>
+      <c r="J1375" s="2"/>
+      <c r="K1375" s="2"/>
+      <c r="L1375" s="2"/>
+      <c r="M1375" s="2"/>
+      <c r="N1375" s="2"/>
+      <c r="O1375" s="2"/>
+      <c r="P1375" s="2"/>
+      <c r="Q1375" s="2"/>
+      <c r="R1375" s="2"/>
+      <c r="S1375" s="2"/>
+      <c r="T1375" s="2"/>
+      <c r="U1375" s="2"/>
+      <c r="V1375" s="2"/>
+      <c r="W1375" s="2"/>
+      <c r="X1375" s="2"/>
+      <c r="Y1375" s="4"/>
+      <c r="Z1375" s="2"/>
+      <c r="AA1375" s="2"/>
+      <c r="AB1375" s="2"/>
+      <c r="AC1375" s="2"/>
+      <c r="AD1375" s="2"/>
+      <c r="AE1375" s="2"/>
+      <c r="AF1375" s="2"/>
+      <c r="AG1375" s="2"/>
+      <c r="AH1375" s="2"/>
+      <c r="AI1375" s="2"/>
+      <c r="AJ1375" s="2"/>
+      <c r="AK1375" s="2"/>
+      <c r="AL1375" s="2"/>
+      <c r="AM1375" s="2"/>
+      <c r="AN1375" s="2"/>
+      <c r="AO1375" s="2"/>
+      <c r="AP1375" s="2"/>
+      <c r="AQ1375" s="2"/>
+      <c r="AR1375" s="2"/>
+      <c r="AS1375" s="2"/>
+      <c r="AT1375" s="2"/>
+      <c r="AU1375" s="2"/>
+      <c r="AV1375" s="2"/>
+      <c r="AW1375" s="2"/>
+      <c r="AX1375" s="2"/>
+      <c r="AY1375" s="2"/>
+      <c r="AZ1375" s="2"/>
+      <c r="BA1375" s="2"/>
+      <c r="BB1375" s="2"/>
+      <c r="BC1375" s="2"/>
+      <c r="BD1375" s="2"/>
+      <c r="BE1375" s="2"/>
+      <c r="BF1375" s="2"/>
+      <c r="BG1375" s="2"/>
+      <c r="BH1375" s="2"/>
+      <c r="BI1375" s="2"/>
+      <c r="BJ1375" s="2"/>
+      <c r="BK1375" s="2"/>
+      <c r="BL1375" s="2"/>
+      <c r="BM1375" s="2"/>
+      <c r="BN1375" s="2"/>
+      <c r="BO1375" s="2"/>
+      <c r="BP1375" s="2"/>
+      <c r="BQ1375" s="2"/>
+      <c r="BR1375" s="2"/>
+      <c r="BS1375" s="2"/>
+      <c r="BT1375" s="2"/>
+      <c r="BU1375" s="2"/>
+      <c r="BV1375" s="2"/>
+      <c r="BW1375" s="2"/>
+      <c r="BX1375" s="2"/>
+      <c r="BY1375" s="2"/>
+      <c r="BZ1375" s="2"/>
+      <c r="CA1375" s="2"/>
+      <c r="CB1375" s="2"/>
+      <c r="CC1375" s="2"/>
+      <c r="CD1375" s="2"/>
+    </row>
+    <row r="1409" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1409" s="2"/>
+      <c r="C1409" s="2"/>
+      <c r="D1409" s="2"/>
+      <c r="E1409" s="2"/>
+      <c r="F1409" s="2"/>
+      <c r="G1409" s="2"/>
+      <c r="H1409" s="2"/>
+      <c r="I1409" s="2"/>
+      <c r="J1409" s="2"/>
+      <c r="K1409" s="2"/>
+      <c r="L1409" s="2"/>
+      <c r="M1409" s="2"/>
+      <c r="N1409" s="2"/>
+      <c r="O1409" s="2"/>
+      <c r="P1409" s="2"/>
+      <c r="Q1409" s="2"/>
+      <c r="R1409" s="2"/>
+      <c r="S1409" s="2"/>
+      <c r="T1409" s="2"/>
+      <c r="U1409" s="2"/>
+      <c r="V1409" s="2"/>
+      <c r="W1409" s="2"/>
+      <c r="X1409" s="2"/>
+      <c r="Y1409" s="4"/>
+      <c r="Z1409" s="2"/>
+      <c r="AA1409" s="2"/>
+      <c r="AB1409" s="2"/>
+      <c r="AC1409" s="2"/>
+      <c r="AD1409" s="2"/>
+      <c r="AE1409" s="2"/>
+      <c r="AF1409" s="2"/>
+      <c r="AG1409" s="2"/>
+      <c r="AH1409" s="2"/>
+      <c r="AI1409" s="2"/>
+      <c r="AJ1409" s="2"/>
+      <c r="AK1409" s="2"/>
+      <c r="AL1409" s="2"/>
+      <c r="AM1409" s="2"/>
+      <c r="AN1409" s="2"/>
+      <c r="AO1409" s="2"/>
+      <c r="AP1409" s="2"/>
+      <c r="AQ1409" s="2"/>
+      <c r="AR1409" s="2"/>
+      <c r="AS1409" s="2"/>
+      <c r="AT1409" s="2"/>
+      <c r="AU1409" s="2"/>
+      <c r="AV1409" s="2"/>
+      <c r="AW1409" s="2"/>
+      <c r="AX1409" s="2"/>
+      <c r="AY1409" s="2"/>
+      <c r="AZ1409" s="2"/>
+      <c r="BA1409" s="2"/>
+      <c r="BB1409" s="2"/>
+      <c r="BC1409" s="2"/>
+      <c r="BD1409" s="2"/>
+      <c r="BE1409" s="2"/>
+      <c r="BF1409" s="2"/>
+      <c r="BG1409" s="2"/>
+      <c r="BH1409" s="2"/>
+      <c r="BI1409" s="2"/>
+      <c r="BJ1409" s="2"/>
+      <c r="BK1409" s="2"/>
+      <c r="BL1409" s="2"/>
+      <c r="BM1409" s="2"/>
+      <c r="BN1409" s="2"/>
+      <c r="BO1409" s="2"/>
+      <c r="BP1409" s="2"/>
+      <c r="BQ1409" s="2"/>
+      <c r="BR1409" s="2"/>
+      <c r="BS1409" s="2"/>
+      <c r="BT1409" s="2"/>
+      <c r="BU1409" s="2"/>
+      <c r="BV1409" s="2"/>
+      <c r="BW1409" s="2"/>
+      <c r="BX1409" s="2"/>
+      <c r="BY1409" s="2"/>
+      <c r="BZ1409" s="2"/>
+      <c r="CA1409" s="2"/>
+      <c r="CB1409" s="2"/>
+      <c r="CC1409" s="2"/>
+      <c r="CD1409" s="2"/>
+    </row>
+    <row r="1443" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1443" s="2"/>
+      <c r="C1443" s="2"/>
+      <c r="D1443" s="2"/>
+      <c r="E1443" s="2"/>
+      <c r="F1443" s="2"/>
+      <c r="G1443" s="2"/>
+      <c r="H1443" s="2"/>
+      <c r="I1443" s="2"/>
+      <c r="J1443" s="2"/>
+      <c r="K1443" s="2"/>
+      <c r="L1443" s="2"/>
+      <c r="M1443" s="2"/>
+      <c r="N1443" s="2"/>
+      <c r="O1443" s="2"/>
+      <c r="P1443" s="2"/>
+      <c r="Q1443" s="2"/>
+      <c r="R1443" s="2"/>
+      <c r="S1443" s="2"/>
+      <c r="T1443" s="2"/>
+      <c r="U1443" s="2"/>
+      <c r="V1443" s="2"/>
+      <c r="W1443" s="2"/>
+      <c r="X1443" s="2"/>
+      <c r="Y1443" s="4"/>
+      <c r="Z1443" s="2"/>
+      <c r="AA1443" s="2"/>
+      <c r="AB1443" s="2"/>
+      <c r="AC1443" s="2"/>
+      <c r="AD1443" s="2"/>
+      <c r="AE1443" s="2"/>
+      <c r="AF1443" s="2"/>
+      <c r="AG1443" s="2"/>
+      <c r="AH1443" s="2"/>
+      <c r="AI1443" s="2"/>
+      <c r="AJ1443" s="2"/>
+      <c r="AK1443" s="2"/>
+      <c r="AL1443" s="2"/>
+      <c r="AM1443" s="2"/>
+      <c r="AN1443" s="2"/>
+      <c r="AO1443" s="2"/>
+      <c r="AP1443" s="2"/>
+      <c r="AQ1443" s="2"/>
+      <c r="AR1443" s="2"/>
+      <c r="AS1443" s="2"/>
+      <c r="AT1443" s="2"/>
+      <c r="AU1443" s="2"/>
+      <c r="AV1443" s="2"/>
+      <c r="AW1443" s="2"/>
+      <c r="AX1443" s="2"/>
+      <c r="AY1443" s="2"/>
+      <c r="AZ1443" s="2"/>
+      <c r="BA1443" s="2"/>
+      <c r="BB1443" s="2"/>
+      <c r="BC1443" s="2"/>
+      <c r="BD1443" s="2"/>
+      <c r="BE1443" s="2"/>
+      <c r="BF1443" s="2"/>
+      <c r="BG1443" s="2"/>
+      <c r="BH1443" s="2"/>
+      <c r="BI1443" s="2"/>
+      <c r="BJ1443" s="2"/>
+      <c r="BK1443" s="2"/>
+      <c r="BL1443" s="2"/>
+      <c r="BM1443" s="2"/>
+      <c r="BN1443" s="2"/>
+      <c r="BO1443" s="2"/>
+      <c r="BP1443" s="2"/>
+      <c r="BQ1443" s="2"/>
+      <c r="BR1443" s="2"/>
+      <c r="BS1443" s="2"/>
+      <c r="BT1443" s="2"/>
+      <c r="BU1443" s="2"/>
+      <c r="BV1443" s="2"/>
+      <c r="BW1443" s="2"/>
+      <c r="BX1443" s="2"/>
+      <c r="BY1443" s="2"/>
+      <c r="BZ1443" s="2"/>
+      <c r="CA1443" s="2"/>
+      <c r="CB1443" s="2"/>
+      <c r="CC1443" s="2"/>
+      <c r="CD1443" s="2"/>
+    </row>
+    <row r="1477" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1477" s="2"/>
+      <c r="C1477" s="2"/>
+      <c r="D1477" s="2"/>
+      <c r="E1477" s="2"/>
+      <c r="F1477" s="2"/>
+      <c r="G1477" s="2"/>
+      <c r="H1477" s="2"/>
+      <c r="I1477" s="2"/>
+      <c r="J1477" s="2"/>
+      <c r="K1477" s="2"/>
+      <c r="L1477" s="2"/>
+      <c r="M1477" s="2"/>
+      <c r="N1477" s="2"/>
+      <c r="O1477" s="2"/>
+      <c r="P1477" s="2"/>
+      <c r="Q1477" s="2"/>
+      <c r="R1477" s="2"/>
+      <c r="S1477" s="2"/>
+      <c r="T1477" s="2"/>
+      <c r="U1477" s="2"/>
+      <c r="V1477" s="2"/>
+      <c r="W1477" s="2"/>
+      <c r="X1477" s="2"/>
+      <c r="Y1477" s="4"/>
+      <c r="Z1477" s="2"/>
+      <c r="AA1477" s="2"/>
+      <c r="AB1477" s="2"/>
+      <c r="AC1477" s="2"/>
+      <c r="AD1477" s="2"/>
+      <c r="AE1477" s="2"/>
+      <c r="AF1477" s="2"/>
+      <c r="AG1477" s="2"/>
+      <c r="AH1477" s="2"/>
+      <c r="AI1477" s="2"/>
+      <c r="AJ1477" s="2"/>
+      <c r="AK1477" s="2"/>
+      <c r="AL1477" s="2"/>
+      <c r="AM1477" s="2"/>
+      <c r="AN1477" s="2"/>
+      <c r="AO1477" s="2"/>
+      <c r="AP1477" s="2"/>
+      <c r="AQ1477" s="2"/>
+      <c r="AR1477" s="2"/>
+      <c r="AS1477" s="2"/>
+      <c r="AT1477" s="2"/>
+      <c r="AU1477" s="2"/>
+      <c r="AV1477" s="2"/>
+      <c r="AW1477" s="2"/>
+      <c r="AX1477" s="2"/>
+      <c r="AY1477" s="2"/>
+      <c r="AZ1477" s="2"/>
+      <c r="BA1477" s="2"/>
+      <c r="BB1477" s="2"/>
+      <c r="BC1477" s="2"/>
+      <c r="BD1477" s="2"/>
+      <c r="BE1477" s="2"/>
+      <c r="BF1477" s="2"/>
+      <c r="BG1477" s="2"/>
+      <c r="BH1477" s="2"/>
+      <c r="BI1477" s="2"/>
+      <c r="BJ1477" s="2"/>
+      <c r="BK1477" s="2"/>
+      <c r="BL1477" s="2"/>
+      <c r="BM1477" s="2"/>
+      <c r="BN1477" s="2"/>
+      <c r="BO1477" s="2"/>
+      <c r="BP1477" s="2"/>
+      <c r="BQ1477" s="2"/>
+      <c r="BR1477" s="2"/>
+      <c r="BS1477" s="2"/>
+      <c r="BT1477" s="2"/>
+      <c r="BU1477" s="2"/>
+      <c r="BV1477" s="2"/>
+      <c r="BW1477" s="2"/>
+      <c r="BX1477" s="2"/>
+      <c r="BY1477" s="2"/>
+      <c r="BZ1477" s="2"/>
+      <c r="CA1477" s="2"/>
+      <c r="CB1477" s="2"/>
+      <c r="CC1477" s="2"/>
+      <c r="CD1477" s="2"/>
+    </row>
+    <row r="1511" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1511" s="2"/>
+      <c r="C1511" s="2"/>
+      <c r="D1511" s="2"/>
+      <c r="E1511" s="2"/>
+      <c r="F1511" s="2"/>
+      <c r="G1511" s="2"/>
+      <c r="H1511" s="2"/>
+      <c r="I1511" s="2"/>
+      <c r="J1511" s="2"/>
+      <c r="K1511" s="2"/>
+      <c r="L1511" s="2"/>
+      <c r="M1511" s="2"/>
+      <c r="N1511" s="2"/>
+      <c r="O1511" s="2"/>
+      <c r="P1511" s="2"/>
+      <c r="Q1511" s="2"/>
+      <c r="R1511" s="2"/>
+      <c r="S1511" s="2"/>
+      <c r="T1511" s="2"/>
+      <c r="U1511" s="2"/>
+      <c r="V1511" s="2"/>
+      <c r="W1511" s="2"/>
+      <c r="X1511" s="2"/>
+      <c r="Y1511" s="4"/>
+      <c r="Z1511" s="2"/>
+      <c r="AA1511" s="2"/>
+      <c r="AB1511" s="2"/>
+      <c r="AC1511" s="2"/>
+      <c r="AD1511" s="2"/>
+      <c r="AE1511" s="2"/>
+      <c r="AF1511" s="2"/>
+      <c r="AG1511" s="2"/>
+      <c r="AH1511" s="2"/>
+      <c r="AI1511" s="2"/>
+      <c r="AJ1511" s="2"/>
+      <c r="AK1511" s="2"/>
+      <c r="AL1511" s="2"/>
+      <c r="AM1511" s="2"/>
+      <c r="AN1511" s="2"/>
+      <c r="AO1511" s="2"/>
+      <c r="AP1511" s="2"/>
+      <c r="AQ1511" s="2"/>
+      <c r="AR1511" s="2"/>
+      <c r="AS1511" s="2"/>
+      <c r="AT1511" s="2"/>
+      <c r="AU1511" s="2"/>
+      <c r="AV1511" s="2"/>
+      <c r="AW1511" s="2"/>
+      <c r="AX1511" s="2"/>
+      <c r="AY1511" s="2"/>
+      <c r="AZ1511" s="2"/>
+      <c r="BA1511" s="2"/>
+      <c r="BB1511" s="2"/>
+      <c r="BC1511" s="2"/>
+      <c r="BD1511" s="2"/>
+      <c r="BE1511" s="2"/>
+      <c r="BF1511" s="2"/>
+      <c r="BG1511" s="2"/>
+      <c r="BH1511" s="2"/>
+      <c r="BI1511" s="2"/>
+      <c r="BJ1511" s="2"/>
+      <c r="BK1511" s="2"/>
+      <c r="BL1511" s="2"/>
+      <c r="BM1511" s="2"/>
+      <c r="BN1511" s="2"/>
+      <c r="BO1511" s="2"/>
+      <c r="BP1511" s="2"/>
+      <c r="BQ1511" s="2"/>
+      <c r="BR1511" s="2"/>
+      <c r="BS1511" s="2"/>
+      <c r="BT1511" s="2"/>
+      <c r="BU1511" s="2"/>
+      <c r="BV1511" s="2"/>
+      <c r="BW1511" s="2"/>
+      <c r="BX1511" s="2"/>
+      <c r="BY1511" s="2"/>
+      <c r="BZ1511" s="2"/>
+      <c r="CA1511" s="2"/>
+      <c r="CB1511" s="2"/>
+      <c r="CC1511" s="2"/>
+      <c r="CD1511" s="2"/>
+    </row>
+    <row r="1545" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1545" s="2"/>
+      <c r="C1545" s="2"/>
+      <c r="D1545" s="2"/>
+      <c r="E1545" s="2"/>
+      <c r="F1545" s="2"/>
+      <c r="G1545" s="2"/>
+      <c r="H1545" s="2"/>
+      <c r="I1545" s="2"/>
+      <c r="J1545" s="2"/>
+      <c r="K1545" s="2"/>
+      <c r="L1545" s="2"/>
+      <c r="M1545" s="2"/>
+      <c r="N1545" s="2"/>
+      <c r="O1545" s="2"/>
+      <c r="P1545" s="2"/>
+      <c r="Q1545" s="2"/>
+      <c r="R1545" s="2"/>
+      <c r="S1545" s="2"/>
+      <c r="T1545" s="2"/>
+      <c r="U1545" s="2"/>
+      <c r="V1545" s="2"/>
+      <c r="W1545" s="2"/>
+      <c r="X1545" s="2"/>
+      <c r="Y1545" s="4"/>
+      <c r="Z1545" s="2"/>
+      <c r="AA1545" s="2"/>
+      <c r="AB1545" s="2"/>
+      <c r="AC1545" s="2"/>
+      <c r="AD1545" s="2"/>
+      <c r="AE1545" s="2"/>
+      <c r="AF1545" s="2"/>
+      <c r="AG1545" s="2"/>
+      <c r="AH1545" s="2"/>
+      <c r="AI1545" s="2"/>
+      <c r="AJ1545" s="2"/>
+      <c r="AK1545" s="2"/>
+      <c r="AL1545" s="2"/>
+      <c r="AM1545" s="2"/>
+      <c r="AN1545" s="2"/>
+      <c r="AO1545" s="2"/>
+      <c r="AP1545" s="2"/>
+      <c r="AQ1545" s="2"/>
+      <c r="AR1545" s="2"/>
+      <c r="AS1545" s="2"/>
+      <c r="AT1545" s="2"/>
+      <c r="AU1545" s="2"/>
+      <c r="AV1545" s="2"/>
+      <c r="AW1545" s="2"/>
+      <c r="AX1545" s="2"/>
+      <c r="AY1545" s="2"/>
+      <c r="AZ1545" s="2"/>
+      <c r="BA1545" s="2"/>
+      <c r="BB1545" s="2"/>
+      <c r="BC1545" s="2"/>
+      <c r="BD1545" s="2"/>
+      <c r="BE1545" s="2"/>
+      <c r="BF1545" s="2"/>
+      <c r="BG1545" s="2"/>
+      <c r="BH1545" s="2"/>
+      <c r="BI1545" s="2"/>
+      <c r="BJ1545" s="2"/>
+      <c r="BK1545" s="2"/>
+      <c r="BL1545" s="2"/>
+      <c r="BM1545" s="2"/>
+      <c r="BN1545" s="2"/>
+      <c r="BO1545" s="2"/>
+      <c r="BP1545" s="2"/>
+      <c r="BQ1545" s="2"/>
+      <c r="BR1545" s="2"/>
+      <c r="BS1545" s="2"/>
+      <c r="BT1545" s="2"/>
+      <c r="BU1545" s="2"/>
+      <c r="BV1545" s="2"/>
+      <c r="BW1545" s="2"/>
+      <c r="BX1545" s="2"/>
+      <c r="BY1545" s="2"/>
+      <c r="BZ1545" s="2"/>
+      <c r="CA1545" s="2"/>
+      <c r="CB1545" s="2"/>
+      <c r="CC1545" s="2"/>
+      <c r="CD1545" s="2"/>
+    </row>
+    <row r="1579" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1579" s="2"/>
+      <c r="C1579" s="2"/>
+      <c r="D1579" s="2"/>
+      <c r="E1579" s="2"/>
+      <c r="F1579" s="2"/>
+      <c r="G1579" s="2"/>
+      <c r="H1579" s="2"/>
+      <c r="I1579" s="2"/>
+      <c r="J1579" s="2"/>
+      <c r="K1579" s="2"/>
+      <c r="L1579" s="2"/>
+      <c r="M1579" s="2"/>
+      <c r="N1579" s="2"/>
+      <c r="O1579" s="2"/>
+      <c r="P1579" s="2"/>
+      <c r="Q1579" s="2"/>
+      <c r="R1579" s="2"/>
+      <c r="S1579" s="2"/>
+      <c r="T1579" s="2"/>
+      <c r="U1579" s="2"/>
+      <c r="V1579" s="2"/>
+      <c r="W1579" s="2"/>
+      <c r="X1579" s="2"/>
+      <c r="Y1579" s="4"/>
+      <c r="Z1579" s="2"/>
+      <c r="AA1579" s="2"/>
+      <c r="AB1579" s="2"/>
+      <c r="AC1579" s="2"/>
+      <c r="AD1579" s="2"/>
+      <c r="AE1579" s="2"/>
+      <c r="AF1579" s="2"/>
+      <c r="AG1579" s="2"/>
+      <c r="AH1579" s="2"/>
+      <c r="AI1579" s="2"/>
+      <c r="AJ1579" s="2"/>
+      <c r="AK1579" s="2"/>
+      <c r="AL1579" s="2"/>
+      <c r="AM1579" s="2"/>
+      <c r="AN1579" s="2"/>
+      <c r="AO1579" s="2"/>
+      <c r="AP1579" s="2"/>
+      <c r="AQ1579" s="2"/>
+      <c r="AR1579" s="2"/>
+      <c r="AS1579" s="2"/>
+      <c r="AT1579" s="2"/>
+      <c r="AU1579" s="2"/>
+      <c r="AV1579" s="2"/>
+      <c r="AW1579" s="2"/>
+      <c r="AX1579" s="2"/>
+      <c r="AY1579" s="2"/>
+      <c r="AZ1579" s="2"/>
+      <c r="BA1579" s="2"/>
+      <c r="BB1579" s="2"/>
+      <c r="BC1579" s="2"/>
+      <c r="BD1579" s="2"/>
+      <c r="BE1579" s="2"/>
+      <c r="BF1579" s="2"/>
+      <c r="BG1579" s="2"/>
+      <c r="BH1579" s="2"/>
+      <c r="BI1579" s="2"/>
+      <c r="BJ1579" s="2"/>
+      <c r="BK1579" s="2"/>
+      <c r="BL1579" s="2"/>
+      <c r="BM1579" s="2"/>
+      <c r="BN1579" s="2"/>
+      <c r="BO1579" s="2"/>
+      <c r="BP1579" s="2"/>
+      <c r="BQ1579" s="2"/>
+      <c r="BR1579" s="2"/>
+      <c r="BS1579" s="2"/>
+      <c r="BT1579" s="2"/>
+      <c r="BU1579" s="2"/>
+      <c r="BV1579" s="2"/>
+      <c r="BW1579" s="2"/>
+      <c r="BX1579" s="2"/>
+      <c r="BY1579" s="2"/>
+      <c r="BZ1579" s="2"/>
+      <c r="CA1579" s="2"/>
+      <c r="CB1579" s="2"/>
+      <c r="CC1579" s="2"/>
+      <c r="CD1579" s="2"/>
+    </row>
+    <row r="1613" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1613" s="2"/>
+      <c r="C1613" s="2"/>
+      <c r="D1613" s="2"/>
+      <c r="E1613" s="2"/>
+      <c r="F1613" s="2"/>
+      <c r="G1613" s="2"/>
+      <c r="H1613" s="2"/>
+      <c r="I1613" s="2"/>
+      <c r="J1613" s="2"/>
+      <c r="K1613" s="2"/>
+      <c r="L1613" s="2"/>
+      <c r="M1613" s="2"/>
+      <c r="N1613" s="2"/>
+      <c r="O1613" s="2"/>
+      <c r="P1613" s="2"/>
+      <c r="Q1613" s="2"/>
+      <c r="R1613" s="2"/>
+      <c r="S1613" s="2"/>
+      <c r="T1613" s="2"/>
+      <c r="U1613" s="2"/>
+      <c r="V1613" s="2"/>
+      <c r="W1613" s="2"/>
+      <c r="X1613" s="2"/>
+      <c r="Y1613" s="4"/>
+      <c r="Z1613" s="2"/>
+      <c r="AA1613" s="2"/>
+      <c r="AB1613" s="2"/>
+      <c r="AC1613" s="2"/>
+      <c r="AD1613" s="2"/>
+      <c r="AE1613" s="2"/>
+      <c r="AF1613" s="2"/>
+      <c r="AG1613" s="2"/>
+      <c r="AH1613" s="2"/>
+      <c r="AI1613" s="2"/>
+      <c r="AJ1613" s="2"/>
+      <c r="AK1613" s="2"/>
+      <c r="AL1613" s="2"/>
+      <c r="AM1613" s="2"/>
+      <c r="AN1613" s="2"/>
+      <c r="AO1613" s="2"/>
+      <c r="AP1613" s="2"/>
+      <c r="AQ1613" s="2"/>
+      <c r="AR1613" s="2"/>
+      <c r="AS1613" s="2"/>
+      <c r="AT1613" s="2"/>
+      <c r="AU1613" s="2"/>
+      <c r="AV1613" s="2"/>
+      <c r="AW1613" s="2"/>
+      <c r="AX1613" s="2"/>
+      <c r="AY1613" s="2"/>
+      <c r="AZ1613" s="2"/>
+      <c r="BA1613" s="2"/>
+      <c r="BB1613" s="2"/>
+      <c r="BC1613" s="2"/>
+      <c r="BD1613" s="2"/>
+      <c r="BE1613" s="2"/>
+      <c r="BF1613" s="2"/>
+      <c r="BG1613" s="2"/>
+      <c r="BH1613" s="2"/>
+      <c r="BI1613" s="2"/>
+      <c r="BJ1613" s="2"/>
+      <c r="BK1613" s="2"/>
+      <c r="BL1613" s="2"/>
+      <c r="BM1613" s="2"/>
+      <c r="BN1613" s="2"/>
+      <c r="BO1613" s="2"/>
+      <c r="BP1613" s="2"/>
+      <c r="BQ1613" s="2"/>
+      <c r="BR1613" s="2"/>
+      <c r="BS1613" s="2"/>
+      <c r="BT1613" s="2"/>
+      <c r="BU1613" s="2"/>
+      <c r="BV1613" s="2"/>
+      <c r="BW1613" s="2"/>
+      <c r="BX1613" s="2"/>
+      <c r="BY1613" s="2"/>
+      <c r="BZ1613" s="2"/>
+      <c r="CA1613" s="2"/>
+      <c r="CB1613" s="2"/>
+      <c r="CC1613" s="2"/>
+      <c r="CD1613" s="2"/>
+    </row>
+    <row r="1647" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1647" s="2"/>
+      <c r="C1647" s="2"/>
+      <c r="D1647" s="2"/>
+      <c r="E1647" s="2"/>
+      <c r="F1647" s="2"/>
+      <c r="G1647" s="2"/>
+      <c r="H1647" s="2"/>
+      <c r="I1647" s="2"/>
+      <c r="J1647" s="2"/>
+      <c r="K1647" s="2"/>
+      <c r="L1647" s="2"/>
+      <c r="M1647" s="2"/>
+      <c r="N1647" s="2"/>
+      <c r="O1647" s="2"/>
+      <c r="P1647" s="2"/>
+      <c r="Q1647" s="2"/>
+      <c r="R1647" s="2"/>
+      <c r="S1647" s="2"/>
+      <c r="T1647" s="2"/>
+      <c r="U1647" s="2"/>
+      <c r="V1647" s="2"/>
+      <c r="W1647" s="2"/>
+      <c r="X1647" s="2"/>
+      <c r="Y1647" s="4"/>
+      <c r="Z1647" s="2"/>
+      <c r="AA1647" s="2"/>
+      <c r="AB1647" s="2"/>
+      <c r="AC1647" s="2"/>
+      <c r="AD1647" s="2"/>
+      <c r="AE1647" s="2"/>
+      <c r="AF1647" s="2"/>
+      <c r="AG1647" s="2"/>
+      <c r="AH1647" s="2"/>
+      <c r="AI1647" s="2"/>
+      <c r="AJ1647" s="2"/>
+      <c r="AK1647" s="2"/>
+      <c r="AL1647" s="2"/>
+      <c r="AM1647" s="2"/>
+      <c r="AN1647" s="2"/>
+      <c r="AO1647" s="2"/>
+      <c r="AP1647" s="2"/>
+      <c r="AQ1647" s="2"/>
+      <c r="AR1647" s="2"/>
+      <c r="AS1647" s="2"/>
+      <c r="AT1647" s="2"/>
+      <c r="AU1647" s="2"/>
+      <c r="AV1647" s="2"/>
+      <c r="AW1647" s="2"/>
+      <c r="AX1647" s="2"/>
+      <c r="AY1647" s="2"/>
+      <c r="AZ1647" s="2"/>
+      <c r="BA1647" s="2"/>
+      <c r="BB1647" s="2"/>
+      <c r="BC1647" s="2"/>
+      <c r="BD1647" s="2"/>
+      <c r="BE1647" s="2"/>
+      <c r="BF1647" s="2"/>
+      <c r="BG1647" s="2"/>
+      <c r="BH1647" s="2"/>
+      <c r="BI1647" s="2"/>
+      <c r="BJ1647" s="2"/>
+      <c r="BK1647" s="2"/>
+      <c r="BL1647" s="2"/>
+      <c r="BM1647" s="2"/>
+      <c r="BN1647" s="2"/>
+      <c r="BO1647" s="2"/>
+      <c r="BP1647" s="2"/>
+      <c r="BQ1647" s="2"/>
+      <c r="BR1647" s="2"/>
+      <c r="BS1647" s="2"/>
+      <c r="BT1647" s="2"/>
+      <c r="BU1647" s="2"/>
+      <c r="BV1647" s="2"/>
+      <c r="BW1647" s="2"/>
+      <c r="BX1647" s="2"/>
+      <c r="BY1647" s="2"/>
+      <c r="BZ1647" s="2"/>
+      <c r="CA1647" s="2"/>
+      <c r="CB1647" s="2"/>
+      <c r="CC1647" s="2"/>
+      <c r="CD1647" s="2"/>
+    </row>
+    <row r="1681" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1681" s="2"/>
+      <c r="C1681" s="2"/>
+      <c r="D1681" s="2"/>
+      <c r="E1681" s="2"/>
+      <c r="F1681" s="2"/>
+      <c r="G1681" s="2"/>
+      <c r="H1681" s="2"/>
+      <c r="I1681" s="2"/>
+      <c r="J1681" s="2"/>
+      <c r="K1681" s="2"/>
+      <c r="L1681" s="2"/>
+      <c r="M1681" s="2"/>
+      <c r="N1681" s="2"/>
+      <c r="O1681" s="2"/>
+      <c r="P1681" s="2"/>
+      <c r="Q1681" s="2"/>
+      <c r="R1681" s="2"/>
+      <c r="S1681" s="2"/>
+      <c r="T1681" s="2"/>
+      <c r="U1681" s="2"/>
+      <c r="V1681" s="2"/>
+      <c r="W1681" s="2"/>
+      <c r="X1681" s="2"/>
+      <c r="Y1681" s="4"/>
+      <c r="Z1681" s="2"/>
+      <c r="AA1681" s="2"/>
+      <c r="AB1681" s="2"/>
+      <c r="AC1681" s="2"/>
+      <c r="AD1681" s="2"/>
+      <c r="AE1681" s="2"/>
+      <c r="AF1681" s="2"/>
+      <c r="AG1681" s="2"/>
+      <c r="AH1681" s="2"/>
+      <c r="AI1681" s="2"/>
+      <c r="AJ1681" s="2"/>
+      <c r="AK1681" s="2"/>
+      <c r="AL1681" s="2"/>
+      <c r="AM1681" s="2"/>
+      <c r="AN1681" s="2"/>
+      <c r="AO1681" s="2"/>
+      <c r="AP1681" s="2"/>
+      <c r="AQ1681" s="2"/>
+      <c r="AR1681" s="2"/>
+      <c r="AS1681" s="2"/>
+      <c r="AT1681" s="2"/>
+      <c r="AU1681" s="2"/>
+      <c r="AV1681" s="2"/>
+      <c r="AW1681" s="2"/>
+      <c r="AX1681" s="2"/>
+      <c r="AY1681" s="2"/>
+      <c r="AZ1681" s="2"/>
+      <c r="BA1681" s="2"/>
+      <c r="BB1681" s="2"/>
+      <c r="BC1681" s="2"/>
+      <c r="BD1681" s="2"/>
+      <c r="BE1681" s="2"/>
+      <c r="BF1681" s="2"/>
+      <c r="BG1681" s="2"/>
+      <c r="BH1681" s="2"/>
+      <c r="BI1681" s="2"/>
+      <c r="BJ1681" s="2"/>
+      <c r="BK1681" s="2"/>
+      <c r="BL1681" s="2"/>
+      <c r="BM1681" s="2"/>
+      <c r="BN1681" s="2"/>
+      <c r="BO1681" s="2"/>
+      <c r="BP1681" s="2"/>
+      <c r="BQ1681" s="2"/>
+      <c r="BR1681" s="2"/>
+      <c r="BS1681" s="2"/>
+      <c r="BT1681" s="2"/>
+      <c r="BU1681" s="2"/>
+      <c r="BV1681" s="2"/>
+      <c r="BW1681" s="2"/>
+      <c r="BX1681" s="2"/>
+      <c r="BY1681" s="2"/>
+      <c r="BZ1681" s="2"/>
+      <c r="CA1681" s="2"/>
+      <c r="CB1681" s="2"/>
+      <c r="CC1681" s="2"/>
+      <c r="CD1681" s="2"/>
+    </row>
+    <row r="1715" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1715" s="2"/>
+      <c r="C1715" s="2"/>
+      <c r="D1715" s="2"/>
+      <c r="E1715" s="2"/>
+      <c r="F1715" s="2"/>
+      <c r="G1715" s="2"/>
+      <c r="H1715" s="2"/>
+      <c r="I1715" s="2"/>
+      <c r="J1715" s="2"/>
+      <c r="K1715" s="2"/>
+      <c r="L1715" s="2"/>
+      <c r="M1715" s="2"/>
+      <c r="N1715" s="2"/>
+      <c r="O1715" s="2"/>
+      <c r="P1715" s="2"/>
+      <c r="Q1715" s="2"/>
+      <c r="R1715" s="2"/>
+      <c r="S1715" s="2"/>
+      <c r="T1715" s="2"/>
+      <c r="U1715" s="2"/>
+      <c r="V1715" s="2"/>
+      <c r="W1715" s="2"/>
+      <c r="X1715" s="2"/>
+      <c r="Y1715" s="4"/>
+      <c r="Z1715" s="2"/>
+      <c r="AA1715" s="2"/>
+      <c r="AB1715" s="2"/>
+      <c r="AC1715" s="2"/>
+      <c r="AD1715" s="2"/>
+      <c r="AE1715" s="2"/>
+      <c r="AF1715" s="2"/>
+      <c r="AG1715" s="2"/>
+      <c r="AH1715" s="2"/>
+      <c r="AI1715" s="2"/>
+      <c r="AJ1715" s="2"/>
+      <c r="AK1715" s="2"/>
+      <c r="AL1715" s="2"/>
+      <c r="AM1715" s="2"/>
+      <c r="AN1715" s="2"/>
+      <c r="AO1715" s="2"/>
+      <c r="AP1715" s="2"/>
+      <c r="AQ1715" s="2"/>
+      <c r="AR1715" s="2"/>
+      <c r="AS1715" s="2"/>
+      <c r="AT1715" s="2"/>
+      <c r="AU1715" s="2"/>
+      <c r="AV1715" s="2"/>
+      <c r="AW1715" s="2"/>
+      <c r="AX1715" s="2"/>
+      <c r="AY1715" s="2"/>
+      <c r="AZ1715" s="2"/>
+      <c r="BA1715" s="2"/>
+      <c r="BB1715" s="2"/>
+      <c r="BC1715" s="2"/>
+      <c r="BD1715" s="2"/>
+      <c r="BE1715" s="2"/>
+      <c r="BF1715" s="2"/>
+      <c r="BG1715" s="2"/>
+      <c r="BH1715" s="2"/>
+      <c r="BI1715" s="2"/>
+      <c r="BJ1715" s="2"/>
+      <c r="BK1715" s="2"/>
+      <c r="BL1715" s="2"/>
+      <c r="BM1715" s="2"/>
+      <c r="BN1715" s="2"/>
+      <c r="BO1715" s="2"/>
+      <c r="BP1715" s="2"/>
+      <c r="BQ1715" s="2"/>
+      <c r="BR1715" s="2"/>
+      <c r="BS1715" s="2"/>
+      <c r="BT1715" s="2"/>
+      <c r="BU1715" s="2"/>
+      <c r="BV1715" s="2"/>
+      <c r="BW1715" s="2"/>
+      <c r="BX1715" s="2"/>
+      <c r="BY1715" s="2"/>
+      <c r="BZ1715" s="2"/>
+      <c r="CA1715" s="2"/>
+      <c r="CB1715" s="2"/>
+      <c r="CC1715" s="2"/>
+      <c r="CD1715" s="2"/>
+    </row>
+    <row r="1749" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1749" s="2"/>
+      <c r="C1749" s="2"/>
+      <c r="D1749" s="2"/>
+      <c r="E1749" s="2"/>
+      <c r="F1749" s="2"/>
+      <c r="G1749" s="2"/>
+      <c r="H1749" s="2"/>
+      <c r="I1749" s="2"/>
+      <c r="J1749" s="2"/>
+      <c r="K1749" s="2"/>
+      <c r="L1749" s="2"/>
+      <c r="M1749" s="2"/>
+      <c r="N1749" s="2"/>
+      <c r="O1749" s="2"/>
+      <c r="P1749" s="2"/>
+      <c r="Q1749" s="2"/>
+      <c r="R1749" s="2"/>
+      <c r="S1749" s="2"/>
+      <c r="T1749" s="2"/>
+      <c r="U1749" s="2"/>
+      <c r="V1749" s="2"/>
+      <c r="W1749" s="2"/>
+      <c r="X1749" s="2"/>
+      <c r="Y1749" s="4"/>
+      <c r="Z1749" s="2"/>
+      <c r="AA1749" s="2"/>
+      <c r="AB1749" s="2"/>
+      <c r="AC1749" s="2"/>
+      <c r="AD1749" s="2"/>
+      <c r="AE1749" s="2"/>
+      <c r="AF1749" s="2"/>
+      <c r="AG1749" s="2"/>
+      <c r="AH1749" s="2"/>
+      <c r="AI1749" s="2"/>
+      <c r="AJ1749" s="2"/>
+      <c r="AK1749" s="2"/>
+      <c r="AL1749" s="2"/>
+      <c r="AM1749" s="2"/>
+      <c r="AN1749" s="2"/>
+      <c r="AO1749" s="2"/>
+      <c r="AP1749" s="2"/>
+      <c r="AQ1749" s="2"/>
+      <c r="AR1749" s="2"/>
+      <c r="AS1749" s="2"/>
+      <c r="AT1749" s="2"/>
+      <c r="AU1749" s="2"/>
+      <c r="AV1749" s="2"/>
+      <c r="AW1749" s="2"/>
+      <c r="AX1749" s="2"/>
+      <c r="AY1749" s="2"/>
+      <c r="AZ1749" s="2"/>
+      <c r="BA1749" s="2"/>
+      <c r="BB1749" s="2"/>
+      <c r="BC1749" s="2"/>
+      <c r="BD1749" s="2"/>
+      <c r="BE1749" s="2"/>
+      <c r="BF1749" s="2"/>
+      <c r="BG1749" s="2"/>
+      <c r="BH1749" s="2"/>
+      <c r="BI1749" s="2"/>
+      <c r="BJ1749" s="2"/>
+      <c r="BK1749" s="2"/>
+      <c r="BL1749" s="2"/>
+      <c r="BM1749" s="2"/>
+      <c r="BN1749" s="2"/>
+      <c r="BO1749" s="2"/>
+      <c r="BP1749" s="2"/>
+      <c r="BQ1749" s="2"/>
+      <c r="BR1749" s="2"/>
+      <c r="BS1749" s="2"/>
+      <c r="BT1749" s="2"/>
+      <c r="BU1749" s="2"/>
+      <c r="BV1749" s="2"/>
+      <c r="BW1749" s="2"/>
+      <c r="BX1749" s="2"/>
+      <c r="BY1749" s="2"/>
+      <c r="BZ1749" s="2"/>
+      <c r="CA1749" s="2"/>
+      <c r="CB1749" s="2"/>
+      <c r="CC1749" s="2"/>
+      <c r="CD1749" s="2"/>
+    </row>
+    <row r="1783" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1783" s="2"/>
+      <c r="C1783" s="2"/>
+      <c r="D1783" s="2"/>
+      <c r="E1783" s="2"/>
+      <c r="F1783" s="2"/>
+      <c r="G1783" s="2"/>
+      <c r="H1783" s="2"/>
+      <c r="I1783" s="2"/>
+      <c r="J1783" s="2"/>
+      <c r="K1783" s="2"/>
+      <c r="L1783" s="2"/>
+      <c r="M1783" s="2"/>
+      <c r="N1783" s="2"/>
+      <c r="O1783" s="2"/>
+      <c r="P1783" s="2"/>
+      <c r="Q1783" s="2"/>
+      <c r="R1783" s="2"/>
+      <c r="S1783" s="2"/>
+      <c r="T1783" s="2"/>
+      <c r="U1783" s="2"/>
+      <c r="V1783" s="2"/>
+      <c r="W1783" s="2"/>
+      <c r="X1783" s="2"/>
+      <c r="Y1783" s="4"/>
+      <c r="Z1783" s="2"/>
+      <c r="AA1783" s="2"/>
+      <c r="AB1783" s="2"/>
+      <c r="AC1783" s="2"/>
+      <c r="AD1783" s="2"/>
+      <c r="AE1783" s="2"/>
+      <c r="AF1783" s="2"/>
+      <c r="AG1783" s="2"/>
+      <c r="AH1783" s="2"/>
+      <c r="AI1783" s="2"/>
+      <c r="AJ1783" s="2"/>
+      <c r="AK1783" s="2"/>
+      <c r="AL1783" s="2"/>
+      <c r="AM1783" s="2"/>
+      <c r="AN1783" s="2"/>
+      <c r="AO1783" s="2"/>
+      <c r="AP1783" s="2"/>
+      <c r="AQ1783" s="2"/>
+      <c r="AR1783" s="2"/>
+      <c r="AS1783" s="2"/>
+      <c r="AT1783" s="2"/>
+      <c r="AU1783" s="2"/>
+      <c r="AV1783" s="2"/>
+      <c r="AW1783" s="2"/>
+      <c r="AX1783" s="2"/>
+      <c r="AY1783" s="2"/>
+      <c r="AZ1783" s="2"/>
+      <c r="BA1783" s="2"/>
+      <c r="BB1783" s="2"/>
+      <c r="BC1783" s="2"/>
+      <c r="BD1783" s="2"/>
+      <c r="BE1783" s="2"/>
+      <c r="BF1783" s="2"/>
+      <c r="BG1783" s="2"/>
+      <c r="BH1783" s="2"/>
+      <c r="BI1783" s="2"/>
+      <c r="BJ1783" s="2"/>
+      <c r="BK1783" s="2"/>
+      <c r="BL1783" s="2"/>
+      <c r="BM1783" s="2"/>
+      <c r="BN1783" s="2"/>
+      <c r="BO1783" s="2"/>
+      <c r="BP1783" s="2"/>
+      <c r="BQ1783" s="2"/>
+      <c r="BR1783" s="2"/>
+      <c r="BS1783" s="2"/>
+      <c r="BT1783" s="2"/>
+      <c r="BU1783" s="2"/>
+      <c r="BV1783" s="2"/>
+      <c r="BW1783" s="2"/>
+      <c r="BX1783" s="2"/>
+      <c r="BY1783" s="2"/>
+      <c r="BZ1783" s="2"/>
+      <c r="CA1783" s="2"/>
+      <c r="CB1783" s="2"/>
+      <c r="CC1783" s="2"/>
+      <c r="CD1783" s="2"/>
+    </row>
+    <row r="1817" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1817" s="2"/>
+      <c r="C1817" s="2"/>
+      <c r="D1817" s="2"/>
+      <c r="E1817" s="2"/>
+      <c r="F1817" s="2"/>
+      <c r="G1817" s="2"/>
+      <c r="H1817" s="2"/>
+      <c r="I1817" s="2"/>
+      <c r="J1817" s="2"/>
+      <c r="K1817" s="2"/>
+      <c r="L1817" s="2"/>
+      <c r="M1817" s="2"/>
+      <c r="N1817" s="2"/>
+      <c r="O1817" s="2"/>
+      <c r="P1817" s="2"/>
+      <c r="Q1817" s="2"/>
+      <c r="R1817" s="2"/>
+      <c r="S1817" s="2"/>
+      <c r="T1817" s="2"/>
+      <c r="U1817" s="2"/>
+      <c r="V1817" s="2"/>
+      <c r="W1817" s="2"/>
+      <c r="X1817" s="2"/>
+      <c r="Y1817" s="4"/>
+      <c r="Z1817" s="2"/>
+      <c r="AA1817" s="2"/>
+      <c r="AB1817" s="2"/>
+      <c r="AC1817" s="2"/>
+      <c r="AD1817" s="2"/>
+      <c r="AE1817" s="2"/>
+      <c r="AF1817" s="2"/>
+      <c r="AG1817" s="2"/>
+      <c r="AH1817" s="2"/>
+      <c r="AI1817" s="2"/>
+      <c r="AJ1817" s="2"/>
+      <c r="AK1817" s="2"/>
+      <c r="AL1817" s="2"/>
+      <c r="AM1817" s="2"/>
+      <c r="AN1817" s="2"/>
+      <c r="AO1817" s="2"/>
+      <c r="AP1817" s="2"/>
+      <c r="AQ1817" s="2"/>
+      <c r="AR1817" s="2"/>
+      <c r="AS1817" s="2"/>
+      <c r="AT1817" s="2"/>
+      <c r="AU1817" s="2"/>
+      <c r="AV1817" s="2"/>
+      <c r="AW1817" s="2"/>
+      <c r="AX1817" s="2"/>
+      <c r="AY1817" s="2"/>
+      <c r="AZ1817" s="2"/>
+      <c r="BA1817" s="2"/>
+      <c r="BB1817" s="2"/>
+      <c r="BC1817" s="2"/>
+      <c r="BD1817" s="2"/>
+      <c r="BE1817" s="2"/>
+      <c r="BF1817" s="2"/>
+      <c r="BG1817" s="2"/>
+      <c r="BH1817" s="2"/>
+      <c r="BI1817" s="2"/>
+      <c r="BJ1817" s="2"/>
+      <c r="BK1817" s="2"/>
+      <c r="BL1817" s="2"/>
+      <c r="BM1817" s="2"/>
+      <c r="BN1817" s="2"/>
+      <c r="BO1817" s="2"/>
+      <c r="BP1817" s="2"/>
+      <c r="BQ1817" s="2"/>
+      <c r="BR1817" s="2"/>
+      <c r="BS1817" s="2"/>
+      <c r="BT1817" s="2"/>
+      <c r="BU1817" s="2"/>
+      <c r="BV1817" s="2"/>
+      <c r="BW1817" s="2"/>
+      <c r="BX1817" s="2"/>
+      <c r="BY1817" s="2"/>
+      <c r="BZ1817" s="2"/>
+      <c r="CA1817" s="2"/>
+      <c r="CB1817" s="2"/>
+      <c r="CC1817" s="2"/>
+      <c r="CD1817" s="2"/>
+    </row>
+    <row r="1851" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1851" s="2"/>
+      <c r="C1851" s="2"/>
+      <c r="D1851" s="2"/>
+      <c r="E1851" s="2"/>
+      <c r="F1851" s="2"/>
+      <c r="G1851" s="2"/>
+      <c r="H1851" s="2"/>
+      <c r="I1851" s="2"/>
+      <c r="J1851" s="2"/>
+      <c r="K1851" s="2"/>
+      <c r="L1851" s="2"/>
+      <c r="M1851" s="2"/>
+      <c r="N1851" s="2"/>
+      <c r="O1851" s="2"/>
+      <c r="P1851" s="2"/>
+      <c r="Q1851" s="2"/>
+      <c r="R1851" s="2"/>
+      <c r="S1851" s="2"/>
+      <c r="T1851" s="2"/>
+      <c r="U1851" s="2"/>
+      <c r="V1851" s="2"/>
+      <c r="W1851" s="2"/>
+      <c r="X1851" s="2"/>
+      <c r="Y1851" s="4"/>
+      <c r="Z1851" s="2"/>
+      <c r="AA1851" s="2"/>
+      <c r="AB1851" s="2"/>
+      <c r="AC1851" s="2"/>
+      <c r="AD1851" s="2"/>
+      <c r="AE1851" s="2"/>
+      <c r="AF1851" s="2"/>
+      <c r="AG1851" s="2"/>
+      <c r="AH1851" s="2"/>
+      <c r="AI1851" s="2"/>
+      <c r="AJ1851" s="2"/>
+      <c r="AK1851" s="2"/>
+      <c r="AL1851" s="2"/>
+      <c r="AM1851" s="2"/>
+      <c r="AN1851" s="2"/>
+      <c r="AO1851" s="2"/>
+      <c r="AP1851" s="2"/>
+      <c r="AQ1851" s="2"/>
+      <c r="AR1851" s="2"/>
+      <c r="AS1851" s="2"/>
+      <c r="AT1851" s="2"/>
+      <c r="AU1851" s="2"/>
+      <c r="AV1851" s="2"/>
+      <c r="AW1851" s="2"/>
+      <c r="AX1851" s="2"/>
+      <c r="AY1851" s="2"/>
+      <c r="AZ1851" s="2"/>
+      <c r="BA1851" s="2"/>
+      <c r="BB1851" s="2"/>
+      <c r="BC1851" s="2"/>
+      <c r="BD1851" s="2"/>
+      <c r="BE1851" s="2"/>
+      <c r="BF1851" s="2"/>
+      <c r="BG1851" s="2"/>
+      <c r="BH1851" s="2"/>
+      <c r="BI1851" s="2"/>
+      <c r="BJ1851" s="2"/>
+      <c r="BK1851" s="2"/>
+      <c r="BL1851" s="2"/>
+      <c r="BM1851" s="2"/>
+      <c r="BN1851" s="2"/>
+      <c r="BO1851" s="2"/>
+      <c r="BP1851" s="2"/>
+      <c r="BQ1851" s="2"/>
+      <c r="BR1851" s="2"/>
+      <c r="BS1851" s="2"/>
+      <c r="BT1851" s="2"/>
+      <c r="BU1851" s="2"/>
+      <c r="BV1851" s="2"/>
+      <c r="BW1851" s="2"/>
+      <c r="BX1851" s="2"/>
+      <c r="BY1851" s="2"/>
+      <c r="BZ1851" s="2"/>
+      <c r="CA1851" s="2"/>
+      <c r="CB1851" s="2"/>
+      <c r="CC1851" s="2"/>
+      <c r="CD1851" s="2"/>
+    </row>
+    <row r="1885" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1885" s="2"/>
+      <c r="C1885" s="2"/>
+      <c r="D1885" s="2"/>
+      <c r="E1885" s="2"/>
+      <c r="F1885" s="2"/>
+      <c r="G1885" s="2"/>
+      <c r="H1885" s="2"/>
+      <c r="I1885" s="2"/>
+      <c r="J1885" s="2"/>
+      <c r="K1885" s="2"/>
+      <c r="L1885" s="2"/>
+      <c r="M1885" s="2"/>
+      <c r="N1885" s="2"/>
+      <c r="O1885" s="2"/>
+      <c r="P1885" s="2"/>
+      <c r="Q1885" s="2"/>
+      <c r="R1885" s="2"/>
+      <c r="S1885" s="2"/>
+      <c r="T1885" s="2"/>
+      <c r="U1885" s="2"/>
+      <c r="V1885" s="2"/>
+      <c r="W1885" s="2"/>
+      <c r="X1885" s="2"/>
+      <c r="Y1885" s="4"/>
+      <c r="Z1885" s="2"/>
+      <c r="AA1885" s="2"/>
+      <c r="AB1885" s="2"/>
+      <c r="AC1885" s="2"/>
+      <c r="AD1885" s="2"/>
+      <c r="AE1885" s="2"/>
+      <c r="AF1885" s="2"/>
+      <c r="AG1885" s="2"/>
+      <c r="AH1885" s="2"/>
+      <c r="AI1885" s="2"/>
+      <c r="AJ1885" s="2"/>
+      <c r="AK1885" s="2"/>
+      <c r="AL1885" s="2"/>
+      <c r="AM1885" s="2"/>
+      <c r="AN1885" s="2"/>
+      <c r="AO1885" s="2"/>
+      <c r="AP1885" s="2"/>
+      <c r="AQ1885" s="2"/>
+      <c r="AR1885" s="2"/>
+      <c r="AS1885" s="2"/>
+      <c r="AT1885" s="2"/>
+      <c r="AU1885" s="2"/>
+      <c r="AV1885" s="2"/>
+      <c r="AW1885" s="2"/>
+      <c r="AX1885" s="2"/>
+      <c r="AY1885" s="2"/>
+      <c r="AZ1885" s="2"/>
+      <c r="BA1885" s="2"/>
+      <c r="BB1885" s="2"/>
+      <c r="BC1885" s="2"/>
+      <c r="BD1885" s="2"/>
+      <c r="BE1885" s="2"/>
+      <c r="BF1885" s="2"/>
+      <c r="BG1885" s="2"/>
+      <c r="BH1885" s="2"/>
+      <c r="BI1885" s="2"/>
+      <c r="BJ1885" s="2"/>
+      <c r="BK1885" s="2"/>
+      <c r="BL1885" s="2"/>
+      <c r="BM1885" s="2"/>
+      <c r="BN1885" s="2"/>
+      <c r="BO1885" s="2"/>
+      <c r="BP1885" s="2"/>
+      <c r="BQ1885" s="2"/>
+      <c r="BR1885" s="2"/>
+      <c r="BS1885" s="2"/>
+      <c r="BT1885" s="2"/>
+      <c r="BU1885" s="2"/>
+      <c r="BV1885" s="2"/>
+      <c r="BW1885" s="2"/>
+      <c r="BX1885" s="2"/>
+      <c r="BY1885" s="2"/>
+      <c r="BZ1885" s="2"/>
+      <c r="CA1885" s="2"/>
+      <c r="CB1885" s="2"/>
+      <c r="CC1885" s="2"/>
+      <c r="CD1885" s="2"/>
+    </row>
+    <row r="1919" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1919" s="2"/>
+      <c r="C1919" s="2"/>
+      <c r="D1919" s="2"/>
+      <c r="E1919" s="2"/>
+      <c r="F1919" s="2"/>
+      <c r="G1919" s="2"/>
+      <c r="H1919" s="2"/>
+      <c r="I1919" s="2"/>
+      <c r="J1919" s="2"/>
+      <c r="K1919" s="2"/>
+      <c r="L1919" s="2"/>
+      <c r="M1919" s="2"/>
+      <c r="N1919" s="2"/>
+      <c r="O1919" s="2"/>
+      <c r="P1919" s="2"/>
+      <c r="Q1919" s="2"/>
+      <c r="R1919" s="2"/>
+      <c r="S1919" s="2"/>
+      <c r="T1919" s="2"/>
+      <c r="U1919" s="2"/>
+      <c r="V1919" s="2"/>
+      <c r="W1919" s="2"/>
+      <c r="X1919" s="2"/>
+      <c r="Y1919" s="4"/>
+      <c r="Z1919" s="2"/>
+      <c r="AA1919" s="2"/>
+      <c r="AB1919" s="2"/>
+      <c r="AC1919" s="2"/>
+      <c r="AD1919" s="2"/>
+      <c r="AE1919" s="2"/>
+      <c r="AF1919" s="2"/>
+      <c r="AG1919" s="2"/>
+      <c r="AH1919" s="2"/>
+      <c r="AI1919" s="2"/>
+      <c r="AJ1919" s="2"/>
+      <c r="AK1919" s="2"/>
+      <c r="AL1919" s="2"/>
+      <c r="AM1919" s="2"/>
+      <c r="AN1919" s="2"/>
+      <c r="AO1919" s="2"/>
+      <c r="AP1919" s="2"/>
+      <c r="AQ1919" s="2"/>
+      <c r="AR1919" s="2"/>
+      <c r="AS1919" s="2"/>
+      <c r="AT1919" s="2"/>
+      <c r="AU1919" s="2"/>
+      <c r="AV1919" s="2"/>
+      <c r="AW1919" s="2"/>
+      <c r="AX1919" s="2"/>
+      <c r="AY1919" s="2"/>
+      <c r="AZ1919" s="2"/>
+      <c r="BA1919" s="2"/>
+      <c r="BB1919" s="2"/>
+      <c r="BC1919" s="2"/>
+      <c r="BD1919" s="2"/>
+      <c r="BE1919" s="2"/>
+      <c r="BF1919" s="2"/>
+      <c r="BG1919" s="2"/>
+      <c r="BH1919" s="2"/>
+      <c r="BI1919" s="2"/>
+      <c r="BJ1919" s="2"/>
+      <c r="BK1919" s="2"/>
+      <c r="BL1919" s="2"/>
+      <c r="BM1919" s="2"/>
+      <c r="BN1919" s="2"/>
+      <c r="BO1919" s="2"/>
+      <c r="BP1919" s="2"/>
+      <c r="BQ1919" s="2"/>
+      <c r="BR1919" s="2"/>
+      <c r="BS1919" s="2"/>
+      <c r="BT1919" s="2"/>
+      <c r="BU1919" s="2"/>
+      <c r="BV1919" s="2"/>
+      <c r="BW1919" s="2"/>
+      <c r="BX1919" s="2"/>
+      <c r="BY1919" s="2"/>
+      <c r="BZ1919" s="2"/>
+      <c r="CA1919" s="2"/>
+      <c r="CB1919" s="2"/>
+      <c r="CC1919" s="2"/>
+      <c r="CD1919" s="2"/>
+    </row>
+    <row r="1953" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1953" s="2"/>
+      <c r="C1953" s="2"/>
+      <c r="D1953" s="2"/>
+      <c r="E1953" s="2"/>
+      <c r="F1953" s="2"/>
+      <c r="G1953" s="2"/>
+      <c r="H1953" s="2"/>
+      <c r="I1953" s="2"/>
+      <c r="J1953" s="2"/>
+      <c r="K1953" s="2"/>
+      <c r="L1953" s="2"/>
+      <c r="M1953" s="2"/>
+      <c r="N1953" s="2"/>
+      <c r="O1953" s="2"/>
+      <c r="P1953" s="2"/>
+      <c r="Q1953" s="2"/>
+      <c r="R1953" s="2"/>
+      <c r="S1953" s="2"/>
+      <c r="T1953" s="2"/>
+      <c r="U1953" s="2"/>
+      <c r="V1953" s="2"/>
+      <c r="W1953" s="2"/>
+      <c r="X1953" s="2"/>
+      <c r="Y1953" s="4"/>
+      <c r="Z1953" s="2"/>
+      <c r="AA1953" s="2"/>
+      <c r="AB1953" s="2"/>
+      <c r="AC1953" s="2"/>
+      <c r="AD1953" s="2"/>
+      <c r="AE1953" s="2"/>
+      <c r="AF1953" s="2"/>
+      <c r="AG1953" s="2"/>
+      <c r="AH1953" s="2"/>
+      <c r="AI1953" s="2"/>
+      <c r="AJ1953" s="2"/>
+      <c r="AK1953" s="2"/>
+      <c r="AL1953" s="2"/>
+      <c r="AM1953" s="2"/>
+      <c r="AN1953" s="2"/>
+      <c r="AO1953" s="2"/>
+      <c r="AP1953" s="2"/>
+      <c r="AQ1953" s="2"/>
+      <c r="AR1953" s="2"/>
+      <c r="AS1953" s="2"/>
+      <c r="AT1953" s="2"/>
+      <c r="AU1953" s="2"/>
+      <c r="AV1953" s="2"/>
+      <c r="AW1953" s="2"/>
+      <c r="AX1953" s="2"/>
+      <c r="AY1953" s="2"/>
+      <c r="AZ1953" s="2"/>
+      <c r="BA1953" s="2"/>
+      <c r="BB1953" s="2"/>
+      <c r="BC1953" s="2"/>
+      <c r="BD1953" s="2"/>
+      <c r="BE1953" s="2"/>
+      <c r="BF1953" s="2"/>
+      <c r="BG1953" s="2"/>
+      <c r="BH1953" s="2"/>
+      <c r="BI1953" s="2"/>
+      <c r="BJ1953" s="2"/>
+      <c r="BK1953" s="2"/>
+      <c r="BL1953" s="2"/>
+      <c r="BM1953" s="2"/>
+      <c r="BN1953" s="2"/>
+      <c r="BO1953" s="2"/>
+      <c r="BP1953" s="2"/>
+      <c r="BQ1953" s="2"/>
+      <c r="BR1953" s="2"/>
+      <c r="BS1953" s="2"/>
+      <c r="BT1953" s="2"/>
+      <c r="BU1953" s="2"/>
+      <c r="BV1953" s="2"/>
+      <c r="BW1953" s="2"/>
+      <c r="BX1953" s="2"/>
+      <c r="BY1953" s="2"/>
+      <c r="BZ1953" s="2"/>
+      <c r="CA1953" s="2"/>
+      <c r="CB1953" s="2"/>
+      <c r="CC1953" s="2"/>
+      <c r="CD1953" s="2"/>
+    </row>
+    <row r="1987" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B1987" s="2"/>
+      <c r="C1987" s="2"/>
+      <c r="D1987" s="2"/>
+      <c r="E1987" s="2"/>
+      <c r="F1987" s="2"/>
+      <c r="G1987" s="2"/>
+      <c r="H1987" s="2"/>
+      <c r="I1987" s="2"/>
+      <c r="J1987" s="2"/>
+      <c r="K1987" s="2"/>
+      <c r="L1987" s="2"/>
+      <c r="M1987" s="2"/>
+      <c r="N1987" s="2"/>
+      <c r="O1987" s="2"/>
+      <c r="P1987" s="2"/>
+      <c r="Q1987" s="2"/>
+      <c r="R1987" s="2"/>
+      <c r="S1987" s="2"/>
+      <c r="T1987" s="2"/>
+      <c r="U1987" s="2"/>
+      <c r="V1987" s="2"/>
+      <c r="W1987" s="2"/>
+      <c r="X1987" s="2"/>
+      <c r="Y1987" s="4"/>
+      <c r="Z1987" s="2"/>
+      <c r="AA1987" s="2"/>
+      <c r="AB1987" s="2"/>
+      <c r="AC1987" s="2"/>
+      <c r="AD1987" s="2"/>
+      <c r="AE1987" s="2"/>
+      <c r="AF1987" s="2"/>
+      <c r="AG1987" s="2"/>
+      <c r="AH1987" s="2"/>
+      <c r="AI1987" s="2"/>
+      <c r="AJ1987" s="2"/>
+      <c r="AK1987" s="2"/>
+      <c r="AL1987" s="2"/>
+      <c r="AM1987" s="2"/>
+      <c r="AN1987" s="2"/>
+      <c r="AO1987" s="2"/>
+      <c r="AP1987" s="2"/>
+      <c r="AQ1987" s="2"/>
+      <c r="AR1987" s="2"/>
+      <c r="AS1987" s="2"/>
+      <c r="AT1987" s="2"/>
+      <c r="AU1987" s="2"/>
+      <c r="AV1987" s="2"/>
+      <c r="AW1987" s="2"/>
+      <c r="AX1987" s="2"/>
+      <c r="AY1987" s="2"/>
+      <c r="AZ1987" s="2"/>
+      <c r="BA1987" s="2"/>
+      <c r="BB1987" s="2"/>
+      <c r="BC1987" s="2"/>
+      <c r="BD1987" s="2"/>
+      <c r="BE1987" s="2"/>
+      <c r="BF1987" s="2"/>
+      <c r="BG1987" s="2"/>
+      <c r="BH1987" s="2"/>
+      <c r="BI1987" s="2"/>
+      <c r="BJ1987" s="2"/>
+      <c r="BK1987" s="2"/>
+      <c r="BL1987" s="2"/>
+      <c r="BM1987" s="2"/>
+      <c r="BN1987" s="2"/>
+      <c r="BO1987" s="2"/>
+      <c r="BP1987" s="2"/>
+      <c r="BQ1987" s="2"/>
+      <c r="BR1987" s="2"/>
+      <c r="BS1987" s="2"/>
+      <c r="BT1987" s="2"/>
+      <c r="BU1987" s="2"/>
+      <c r="BV1987" s="2"/>
+      <c r="BW1987" s="2"/>
+      <c r="BX1987" s="2"/>
+      <c r="BY1987" s="2"/>
+      <c r="BZ1987" s="2"/>
+      <c r="CA1987" s="2"/>
+      <c r="CB1987" s="2"/>
+      <c r="CC1987" s="2"/>
+      <c r="CD1987" s="2"/>
+    </row>
+    <row r="2021" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2021" s="2"/>
+      <c r="C2021" s="2"/>
+      <c r="D2021" s="2"/>
+      <c r="E2021" s="2"/>
+      <c r="F2021" s="2"/>
+      <c r="G2021" s="2"/>
+      <c r="H2021" s="2"/>
+      <c r="I2021" s="2"/>
+      <c r="J2021" s="2"/>
+      <c r="K2021" s="2"/>
+      <c r="L2021" s="2"/>
+      <c r="M2021" s="2"/>
+      <c r="N2021" s="2"/>
+      <c r="O2021" s="2"/>
+      <c r="P2021" s="2"/>
+      <c r="Q2021" s="2"/>
+      <c r="R2021" s="2"/>
+      <c r="S2021" s="2"/>
+      <c r="T2021" s="2"/>
+      <c r="U2021" s="2"/>
+      <c r="V2021" s="2"/>
+      <c r="W2021" s="2"/>
+      <c r="X2021" s="2"/>
+      <c r="Y2021" s="4"/>
+      <c r="Z2021" s="2"/>
+      <c r="AA2021" s="2"/>
+      <c r="AB2021" s="2"/>
+      <c r="AC2021" s="2"/>
+      <c r="AD2021" s="2"/>
+      <c r="AE2021" s="2"/>
+      <c r="AF2021" s="2"/>
+      <c r="AG2021" s="2"/>
+      <c r="AH2021" s="2"/>
+      <c r="AI2021" s="2"/>
+      <c r="AJ2021" s="2"/>
+      <c r="AK2021" s="2"/>
+      <c r="AL2021" s="2"/>
+      <c r="AM2021" s="2"/>
+      <c r="AN2021" s="2"/>
+      <c r="AO2021" s="2"/>
+      <c r="AP2021" s="2"/>
+      <c r="AQ2021" s="2"/>
+      <c r="AR2021" s="2"/>
+      <c r="AS2021" s="2"/>
+      <c r="AT2021" s="2"/>
+      <c r="AU2021" s="2"/>
+      <c r="AV2021" s="2"/>
+      <c r="AW2021" s="2"/>
+      <c r="AX2021" s="2"/>
+      <c r="AY2021" s="2"/>
+      <c r="AZ2021" s="2"/>
+      <c r="BA2021" s="2"/>
+      <c r="BB2021" s="2"/>
+      <c r="BC2021" s="2"/>
+      <c r="BD2021" s="2"/>
+      <c r="BE2021" s="2"/>
+      <c r="BF2021" s="2"/>
+      <c r="BG2021" s="2"/>
+      <c r="BH2021" s="2"/>
+      <c r="BI2021" s="2"/>
+      <c r="BJ2021" s="2"/>
+      <c r="BK2021" s="2"/>
+      <c r="BL2021" s="2"/>
+      <c r="BM2021" s="2"/>
+      <c r="BN2021" s="2"/>
+      <c r="BO2021" s="2"/>
+      <c r="BP2021" s="2"/>
+      <c r="BQ2021" s="2"/>
+      <c r="BR2021" s="2"/>
+      <c r="BS2021" s="2"/>
+      <c r="BT2021" s="2"/>
+      <c r="BU2021" s="2"/>
+      <c r="BV2021" s="2"/>
+      <c r="BW2021" s="2"/>
+      <c r="BX2021" s="2"/>
+      <c r="BY2021" s="2"/>
+      <c r="BZ2021" s="2"/>
+      <c r="CA2021" s="2"/>
+      <c r="CB2021" s="2"/>
+      <c r="CC2021" s="2"/>
+      <c r="CD2021" s="2"/>
+    </row>
+    <row r="2055" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2055" s="2"/>
+      <c r="C2055" s="2"/>
+      <c r="D2055" s="2"/>
+      <c r="E2055" s="2"/>
+      <c r="F2055" s="2"/>
+      <c r="G2055" s="2"/>
+      <c r="H2055" s="2"/>
+      <c r="I2055" s="2"/>
+      <c r="J2055" s="2"/>
+      <c r="K2055" s="2"/>
+      <c r="L2055" s="2"/>
+      <c r="M2055" s="2"/>
+      <c r="N2055" s="2"/>
+      <c r="O2055" s="2"/>
+      <c r="P2055" s="2"/>
+      <c r="Q2055" s="2"/>
+      <c r="R2055" s="2"/>
+      <c r="S2055" s="2"/>
+      <c r="T2055" s="2"/>
+      <c r="U2055" s="2"/>
+      <c r="V2055" s="2"/>
+      <c r="W2055" s="2"/>
+      <c r="X2055" s="2"/>
+      <c r="Y2055" s="4"/>
+      <c r="Z2055" s="2"/>
+      <c r="AA2055" s="2"/>
+      <c r="AB2055" s="2"/>
+      <c r="AC2055" s="2"/>
+      <c r="AD2055" s="2"/>
+      <c r="AE2055" s="2"/>
+      <c r="AF2055" s="2"/>
+      <c r="AG2055" s="2"/>
+      <c r="AH2055" s="2"/>
+      <c r="AI2055" s="2"/>
+      <c r="AJ2055" s="2"/>
+      <c r="AK2055" s="2"/>
+      <c r="AL2055" s="2"/>
+      <c r="AM2055" s="2"/>
+      <c r="AN2055" s="2"/>
+      <c r="AO2055" s="2"/>
+      <c r="AP2055" s="2"/>
+      <c r="AQ2055" s="2"/>
+      <c r="AR2055" s="2"/>
+      <c r="AS2055" s="2"/>
+      <c r="AT2055" s="2"/>
+      <c r="AU2055" s="2"/>
+      <c r="AV2055" s="2"/>
+      <c r="AW2055" s="2"/>
+      <c r="AX2055" s="2"/>
+      <c r="AY2055" s="2"/>
+      <c r="AZ2055" s="2"/>
+      <c r="BA2055" s="2"/>
+      <c r="BB2055" s="2"/>
+      <c r="BC2055" s="2"/>
+      <c r="BD2055" s="2"/>
+      <c r="BE2055" s="2"/>
+      <c r="BF2055" s="2"/>
+      <c r="BG2055" s="2"/>
+      <c r="BH2055" s="2"/>
+      <c r="BI2055" s="2"/>
+      <c r="BJ2055" s="2"/>
+      <c r="BK2055" s="2"/>
+      <c r="BL2055" s="2"/>
+      <c r="BM2055" s="2"/>
+      <c r="BN2055" s="2"/>
+      <c r="BO2055" s="2"/>
+      <c r="BP2055" s="2"/>
+      <c r="BQ2055" s="2"/>
+      <c r="BR2055" s="2"/>
+      <c r="BS2055" s="2"/>
+      <c r="BT2055" s="2"/>
+      <c r="BU2055" s="2"/>
+      <c r="BV2055" s="2"/>
+      <c r="BW2055" s="2"/>
+      <c r="BX2055" s="2"/>
+      <c r="BY2055" s="2"/>
+      <c r="BZ2055" s="2"/>
+      <c r="CA2055" s="2"/>
+      <c r="CB2055" s="2"/>
+      <c r="CC2055" s="2"/>
+      <c r="CD2055" s="2"/>
+    </row>
+    <row r="2089" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2089" s="2"/>
+      <c r="C2089" s="2"/>
+      <c r="D2089" s="2"/>
+      <c r="E2089" s="2"/>
+      <c r="F2089" s="2"/>
+      <c r="G2089" s="2"/>
+      <c r="H2089" s="2"/>
+      <c r="I2089" s="2"/>
+      <c r="J2089" s="2"/>
+      <c r="K2089" s="2"/>
+      <c r="L2089" s="2"/>
+      <c r="M2089" s="2"/>
+      <c r="N2089" s="2"/>
+      <c r="O2089" s="2"/>
+      <c r="P2089" s="2"/>
+      <c r="Q2089" s="2"/>
+      <c r="R2089" s="2"/>
+      <c r="S2089" s="2"/>
+      <c r="T2089" s="2"/>
+      <c r="U2089" s="2"/>
+      <c r="V2089" s="2"/>
+      <c r="W2089" s="2"/>
+      <c r="X2089" s="2"/>
+      <c r="Y2089" s="4"/>
+      <c r="Z2089" s="2"/>
+      <c r="AA2089" s="2"/>
+      <c r="AB2089" s="2"/>
+      <c r="AC2089" s="2"/>
+      <c r="AD2089" s="2"/>
+      <c r="AE2089" s="2"/>
+      <c r="AF2089" s="2"/>
+      <c r="AG2089" s="2"/>
+      <c r="AH2089" s="2"/>
+      <c r="AI2089" s="2"/>
+      <c r="AJ2089" s="2"/>
+      <c r="AK2089" s="2"/>
+      <c r="AL2089" s="2"/>
+      <c r="AM2089" s="2"/>
+      <c r="AN2089" s="2"/>
+      <c r="AO2089" s="2"/>
+      <c r="AP2089" s="2"/>
+      <c r="AQ2089" s="2"/>
+      <c r="AR2089" s="2"/>
+      <c r="AS2089" s="2"/>
+      <c r="AT2089" s="2"/>
+      <c r="AU2089" s="2"/>
+      <c r="AV2089" s="2"/>
+      <c r="AW2089" s="2"/>
+      <c r="AX2089" s="2"/>
+      <c r="AY2089" s="2"/>
+      <c r="AZ2089" s="2"/>
+      <c r="BA2089" s="2"/>
+      <c r="BB2089" s="2"/>
+      <c r="BC2089" s="2"/>
+      <c r="BD2089" s="2"/>
+      <c r="BE2089" s="2"/>
+      <c r="BF2089" s="2"/>
+      <c r="BG2089" s="2"/>
+      <c r="BH2089" s="2"/>
+      <c r="BI2089" s="2"/>
+      <c r="BJ2089" s="2"/>
+      <c r="BK2089" s="2"/>
+      <c r="BL2089" s="2"/>
+      <c r="BM2089" s="2"/>
+      <c r="BN2089" s="2"/>
+      <c r="BO2089" s="2"/>
+      <c r="BP2089" s="2"/>
+      <c r="BQ2089" s="2"/>
+      <c r="BR2089" s="2"/>
+      <c r="BS2089" s="2"/>
+      <c r="BT2089" s="2"/>
+      <c r="BU2089" s="2"/>
+      <c r="BV2089" s="2"/>
+      <c r="BW2089" s="2"/>
+      <c r="BX2089" s="2"/>
+      <c r="BY2089" s="2"/>
+      <c r="BZ2089" s="2"/>
+      <c r="CA2089" s="2"/>
+      <c r="CB2089" s="2"/>
+      <c r="CC2089" s="2"/>
+      <c r="CD2089" s="2"/>
+    </row>
+    <row r="2123" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2123" s="2"/>
+      <c r="C2123" s="2"/>
+      <c r="D2123" s="2"/>
+      <c r="E2123" s="2"/>
+      <c r="F2123" s="2"/>
+      <c r="G2123" s="2"/>
+      <c r="H2123" s="2"/>
+      <c r="I2123" s="2"/>
+      <c r="J2123" s="2"/>
+      <c r="K2123" s="2"/>
+      <c r="L2123" s="2"/>
+      <c r="M2123" s="2"/>
+      <c r="N2123" s="2"/>
+      <c r="O2123" s="2"/>
+      <c r="P2123" s="2"/>
+      <c r="Q2123" s="2"/>
+      <c r="R2123" s="2"/>
+      <c r="S2123" s="2"/>
+      <c r="T2123" s="2"/>
+      <c r="U2123" s="2"/>
+      <c r="V2123" s="2"/>
+      <c r="W2123" s="2"/>
+      <c r="X2123" s="2"/>
+      <c r="Y2123" s="4"/>
+      <c r="Z2123" s="2"/>
+      <c r="AA2123" s="2"/>
+      <c r="AB2123" s="2"/>
+      <c r="AC2123" s="2"/>
+      <c r="AD2123" s="2"/>
+      <c r="AE2123" s="2"/>
+      <c r="AF2123" s="2"/>
+      <c r="AG2123" s="2"/>
+      <c r="AH2123" s="2"/>
+      <c r="AI2123" s="2"/>
+      <c r="AJ2123" s="2"/>
+      <c r="AK2123" s="2"/>
+      <c r="AL2123" s="2"/>
+      <c r="AM2123" s="2"/>
+      <c r="AN2123" s="2"/>
+      <c r="AO2123" s="2"/>
+      <c r="AP2123" s="2"/>
+      <c r="AQ2123" s="2"/>
+      <c r="AR2123" s="2"/>
+      <c r="AS2123" s="2"/>
+      <c r="AT2123" s="2"/>
+      <c r="AU2123" s="2"/>
+      <c r="AV2123" s="2"/>
+      <c r="AW2123" s="2"/>
+      <c r="AX2123" s="2"/>
+      <c r="AY2123" s="2"/>
+      <c r="AZ2123" s="2"/>
+      <c r="BA2123" s="2"/>
+      <c r="BB2123" s="2"/>
+      <c r="BC2123" s="2"/>
+      <c r="BD2123" s="2"/>
+      <c r="BE2123" s="2"/>
+      <c r="BF2123" s="2"/>
+      <c r="BG2123" s="2"/>
+      <c r="BH2123" s="2"/>
+      <c r="BI2123" s="2"/>
+      <c r="BJ2123" s="2"/>
+      <c r="BK2123" s="2"/>
+      <c r="BL2123" s="2"/>
+      <c r="BM2123" s="2"/>
+      <c r="BN2123" s="2"/>
+      <c r="BO2123" s="2"/>
+      <c r="BP2123" s="2"/>
+      <c r="BQ2123" s="2"/>
+      <c r="BR2123" s="2"/>
+      <c r="BS2123" s="2"/>
+      <c r="BT2123" s="2"/>
+      <c r="BU2123" s="2"/>
+      <c r="BV2123" s="2"/>
+      <c r="BW2123" s="2"/>
+      <c r="BX2123" s="2"/>
+      <c r="BY2123" s="2"/>
+      <c r="BZ2123" s="2"/>
+      <c r="CA2123" s="2"/>
+      <c r="CB2123" s="2"/>
+      <c r="CC2123" s="2"/>
+      <c r="CD2123" s="2"/>
+    </row>
+    <row r="2157" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2157" s="2"/>
+      <c r="C2157" s="2"/>
+      <c r="D2157" s="2"/>
+      <c r="E2157" s="2"/>
+      <c r="F2157" s="2"/>
+      <c r="G2157" s="2"/>
+      <c r="H2157" s="2"/>
+      <c r="I2157" s="2"/>
+      <c r="J2157" s="2"/>
+      <c r="K2157" s="2"/>
+      <c r="L2157" s="2"/>
+      <c r="M2157" s="2"/>
+      <c r="N2157" s="2"/>
+      <c r="O2157" s="2"/>
+      <c r="P2157" s="2"/>
+      <c r="Q2157" s="2"/>
+      <c r="R2157" s="2"/>
+      <c r="S2157" s="2"/>
+      <c r="T2157" s="2"/>
+      <c r="U2157" s="2"/>
+      <c r="V2157" s="2"/>
+      <c r="W2157" s="2"/>
+      <c r="X2157" s="2"/>
+      <c r="Y2157" s="4"/>
+      <c r="Z2157" s="2"/>
+      <c r="AA2157" s="2"/>
+      <c r="AB2157" s="2"/>
+      <c r="AC2157" s="2"/>
+      <c r="AD2157" s="2"/>
+      <c r="AE2157" s="2"/>
+      <c r="AF2157" s="2"/>
+      <c r="AG2157" s="2"/>
+      <c r="AH2157" s="2"/>
+      <c r="AI2157" s="2"/>
+      <c r="AJ2157" s="2"/>
+      <c r="AK2157" s="2"/>
+      <c r="AL2157" s="2"/>
+      <c r="AM2157" s="2"/>
+      <c r="AN2157" s="2"/>
+      <c r="AO2157" s="2"/>
+      <c r="AP2157" s="2"/>
+      <c r="AQ2157" s="2"/>
+      <c r="AR2157" s="2"/>
+      <c r="AS2157" s="2"/>
+      <c r="AT2157" s="2"/>
+      <c r="AU2157" s="2"/>
+      <c r="AV2157" s="2"/>
+      <c r="AW2157" s="2"/>
+      <c r="AX2157" s="2"/>
+      <c r="AY2157" s="2"/>
+      <c r="AZ2157" s="2"/>
+      <c r="BA2157" s="2"/>
+      <c r="BB2157" s="2"/>
+      <c r="BC2157" s="2"/>
+      <c r="BD2157" s="2"/>
+      <c r="BE2157" s="2"/>
+      <c r="BF2157" s="2"/>
+      <c r="BG2157" s="2"/>
+      <c r="BH2157" s="2"/>
+      <c r="BI2157" s="2"/>
+      <c r="BJ2157" s="2"/>
+      <c r="BK2157" s="2"/>
+      <c r="BL2157" s="2"/>
+      <c r="BM2157" s="2"/>
+      <c r="BN2157" s="2"/>
+      <c r="BO2157" s="2"/>
+      <c r="BP2157" s="2"/>
+      <c r="BQ2157" s="2"/>
+      <c r="BR2157" s="2"/>
+      <c r="BS2157" s="2"/>
+      <c r="BT2157" s="2"/>
+      <c r="BU2157" s="2"/>
+      <c r="BV2157" s="2"/>
+      <c r="BW2157" s="2"/>
+      <c r="BX2157" s="2"/>
+      <c r="BY2157" s="2"/>
+      <c r="BZ2157" s="2"/>
+      <c r="CA2157" s="2"/>
+      <c r="CB2157" s="2"/>
+      <c r="CC2157" s="2"/>
+      <c r="CD2157" s="2"/>
+    </row>
+    <row r="2191" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2191" s="2"/>
+      <c r="C2191" s="2"/>
+      <c r="D2191" s="2"/>
+      <c r="E2191" s="2"/>
+      <c r="F2191" s="2"/>
+      <c r="G2191" s="2"/>
+      <c r="H2191" s="2"/>
+      <c r="I2191" s="2"/>
+      <c r="J2191" s="2"/>
+      <c r="K2191" s="2"/>
+      <c r="L2191" s="2"/>
+      <c r="M2191" s="2"/>
+      <c r="N2191" s="2"/>
+      <c r="O2191" s="2"/>
+      <c r="P2191" s="2"/>
+      <c r="Q2191" s="2"/>
+      <c r="R2191" s="2"/>
+      <c r="S2191" s="2"/>
+      <c r="T2191" s="2"/>
+      <c r="U2191" s="2"/>
+      <c r="V2191" s="2"/>
+      <c r="W2191" s="2"/>
+      <c r="X2191" s="2"/>
+      <c r="Y2191" s="4"/>
+      <c r="Z2191" s="2"/>
+      <c r="AA2191" s="2"/>
+      <c r="AB2191" s="2"/>
+      <c r="AC2191" s="2"/>
+      <c r="AD2191" s="2"/>
+      <c r="AE2191" s="2"/>
+      <c r="AF2191" s="2"/>
+      <c r="AG2191" s="2"/>
+      <c r="AH2191" s="2"/>
+      <c r="AI2191" s="2"/>
+      <c r="AJ2191" s="2"/>
+      <c r="AK2191" s="2"/>
+      <c r="AL2191" s="2"/>
+      <c r="AM2191" s="2"/>
+      <c r="AN2191" s="2"/>
+      <c r="AO2191" s="2"/>
+      <c r="AP2191" s="2"/>
+      <c r="AQ2191" s="2"/>
+      <c r="AR2191" s="2"/>
+      <c r="AS2191" s="2"/>
+      <c r="AT2191" s="2"/>
+      <c r="AU2191" s="2"/>
+      <c r="AV2191" s="2"/>
+      <c r="AW2191" s="2"/>
+      <c r="AX2191" s="2"/>
+      <c r="AY2191" s="2"/>
+      <c r="AZ2191" s="2"/>
+      <c r="BA2191" s="2"/>
+      <c r="BB2191" s="2"/>
+      <c r="BC2191" s="2"/>
+      <c r="BD2191" s="2"/>
+      <c r="BE2191" s="2"/>
+      <c r="BF2191" s="2"/>
+      <c r="BG2191" s="2"/>
+      <c r="BH2191" s="2"/>
+      <c r="BI2191" s="2"/>
+      <c r="BJ2191" s="2"/>
+      <c r="BK2191" s="2"/>
+      <c r="BL2191" s="2"/>
+      <c r="BM2191" s="2"/>
+      <c r="BN2191" s="2"/>
+      <c r="BO2191" s="2"/>
+      <c r="BP2191" s="2"/>
+      <c r="BQ2191" s="2"/>
+      <c r="BR2191" s="2"/>
+      <c r="BS2191" s="2"/>
+      <c r="BT2191" s="2"/>
+      <c r="BU2191" s="2"/>
+      <c r="BV2191" s="2"/>
+      <c r="BW2191" s="2"/>
+      <c r="BX2191" s="2"/>
+      <c r="BY2191" s="2"/>
+      <c r="BZ2191" s="2"/>
+      <c r="CA2191" s="2"/>
+      <c r="CB2191" s="2"/>
+      <c r="CC2191" s="2"/>
+      <c r="CD2191" s="2"/>
+    </row>
+    <row r="2225" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2225" s="2"/>
+      <c r="C2225" s="2"/>
+      <c r="D2225" s="2"/>
+      <c r="E2225" s="2"/>
+      <c r="F2225" s="2"/>
+      <c r="G2225" s="2"/>
+      <c r="H2225" s="2"/>
+      <c r="I2225" s="2"/>
+      <c r="J2225" s="2"/>
+      <c r="K2225" s="2"/>
+      <c r="L2225" s="2"/>
+      <c r="M2225" s="2"/>
+      <c r="N2225" s="2"/>
+      <c r="O2225" s="2"/>
+      <c r="P2225" s="2"/>
+      <c r="Q2225" s="2"/>
+      <c r="R2225" s="2"/>
+      <c r="S2225" s="2"/>
+      <c r="T2225" s="2"/>
+      <c r="U2225" s="2"/>
+      <c r="V2225" s="2"/>
+      <c r="W2225" s="2"/>
+      <c r="X2225" s="2"/>
+      <c r="Y2225" s="4"/>
+      <c r="Z2225" s="2"/>
+      <c r="AA2225" s="2"/>
+      <c r="AB2225" s="2"/>
+      <c r="AC2225" s="2"/>
+      <c r="AD2225" s="2"/>
+      <c r="AE2225" s="2"/>
+      <c r="AF2225" s="2"/>
+      <c r="AG2225" s="2"/>
+      <c r="AH2225" s="2"/>
+      <c r="AI2225" s="2"/>
+      <c r="AJ2225" s="2"/>
+      <c r="AK2225" s="2"/>
+      <c r="AL2225" s="2"/>
+      <c r="AM2225" s="2"/>
+      <c r="AN2225" s="2"/>
+      <c r="AO2225" s="2"/>
+      <c r="AP2225" s="2"/>
+      <c r="AQ2225" s="2"/>
+      <c r="AR2225" s="2"/>
+      <c r="AS2225" s="2"/>
+      <c r="AT2225" s="2"/>
+      <c r="AU2225" s="2"/>
+      <c r="AV2225" s="2"/>
+      <c r="AW2225" s="2"/>
+      <c r="AX2225" s="2"/>
+      <c r="AY2225" s="2"/>
+      <c r="AZ2225" s="2"/>
+      <c r="BA2225" s="2"/>
+      <c r="BB2225" s="2"/>
+      <c r="BC2225" s="2"/>
+      <c r="BD2225" s="2"/>
+      <c r="BE2225" s="2"/>
+      <c r="BF2225" s="2"/>
+      <c r="BG2225" s="2"/>
+      <c r="BH2225" s="2"/>
+      <c r="BI2225" s="2"/>
+      <c r="BJ2225" s="2"/>
+      <c r="BK2225" s="2"/>
+      <c r="BL2225" s="2"/>
+      <c r="BM2225" s="2"/>
+      <c r="BN2225" s="2"/>
+      <c r="BO2225" s="2"/>
+      <c r="BP2225" s="2"/>
+      <c r="BQ2225" s="2"/>
+      <c r="BR2225" s="2"/>
+      <c r="BS2225" s="2"/>
+      <c r="BT2225" s="2"/>
+      <c r="BU2225" s="2"/>
+      <c r="BV2225" s="2"/>
+      <c r="BW2225" s="2"/>
+      <c r="BX2225" s="2"/>
+      <c r="BY2225" s="2"/>
+      <c r="BZ2225" s="2"/>
+      <c r="CA2225" s="2"/>
+      <c r="CB2225" s="2"/>
+      <c r="CC2225" s="2"/>
+      <c r="CD2225" s="2"/>
+    </row>
+    <row r="2259" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2259" s="2"/>
+      <c r="C2259" s="2"/>
+      <c r="D2259" s="2"/>
+      <c r="E2259" s="2"/>
+      <c r="F2259" s="2"/>
+      <c r="G2259" s="2"/>
+      <c r="H2259" s="2"/>
+      <c r="I2259" s="2"/>
+      <c r="J2259" s="2"/>
+      <c r="K2259" s="2"/>
+      <c r="L2259" s="2"/>
+      <c r="M2259" s="2"/>
+      <c r="N2259" s="2"/>
+      <c r="O2259" s="2"/>
+      <c r="P2259" s="2"/>
+      <c r="Q2259" s="2"/>
+      <c r="R2259" s="2"/>
+      <c r="S2259" s="2"/>
+      <c r="T2259" s="2"/>
+      <c r="U2259" s="2"/>
+      <c r="V2259" s="2"/>
+      <c r="W2259" s="2"/>
+      <c r="X2259" s="2"/>
+      <c r="Y2259" s="4"/>
+      <c r="Z2259" s="2"/>
+      <c r="AA2259" s="2"/>
+      <c r="AB2259" s="2"/>
+      <c r="AC2259" s="2"/>
+      <c r="AD2259" s="2"/>
+      <c r="AE2259" s="2"/>
+      <c r="AF2259" s="2"/>
+      <c r="AG2259" s="2"/>
+      <c r="AH2259" s="2"/>
+      <c r="AI2259" s="2"/>
+      <c r="AJ2259" s="2"/>
+      <c r="AK2259" s="2"/>
+      <c r="AL2259" s="2"/>
+      <c r="AM2259" s="2"/>
+      <c r="AN2259" s="2"/>
+      <c r="AO2259" s="2"/>
+      <c r="AP2259" s="2"/>
+      <c r="AQ2259" s="2"/>
+      <c r="AR2259" s="2"/>
+      <c r="AS2259" s="2"/>
+      <c r="AT2259" s="2"/>
+      <c r="AU2259" s="2"/>
+      <c r="AV2259" s="2"/>
+      <c r="AW2259" s="2"/>
+      <c r="AX2259" s="2"/>
+      <c r="AY2259" s="2"/>
+      <c r="AZ2259" s="2"/>
+      <c r="BA2259" s="2"/>
+      <c r="BB2259" s="2"/>
+      <c r="BC2259" s="2"/>
+      <c r="BD2259" s="2"/>
+      <c r="BE2259" s="2"/>
+      <c r="BF2259" s="2"/>
+      <c r="BG2259" s="2"/>
+      <c r="BH2259" s="2"/>
+      <c r="BI2259" s="2"/>
+      <c r="BJ2259" s="2"/>
+      <c r="BK2259" s="2"/>
+      <c r="BL2259" s="2"/>
+      <c r="BM2259" s="2"/>
+      <c r="BN2259" s="2"/>
+      <c r="BO2259" s="2"/>
+      <c r="BP2259" s="2"/>
+      <c r="BQ2259" s="2"/>
+      <c r="BR2259" s="2"/>
+      <c r="BS2259" s="2"/>
+      <c r="BT2259" s="2"/>
+      <c r="BU2259" s="2"/>
+      <c r="BV2259" s="2"/>
+      <c r="BW2259" s="2"/>
+      <c r="BX2259" s="2"/>
+      <c r="BY2259" s="2"/>
+      <c r="BZ2259" s="2"/>
+      <c r="CA2259" s="2"/>
+      <c r="CB2259" s="2"/>
+      <c r="CC2259" s="2"/>
+      <c r="CD2259" s="2"/>
+    </row>
+    <row r="2293" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2293" s="2"/>
+      <c r="C2293" s="2"/>
+      <c r="D2293" s="2"/>
+      <c r="E2293" s="2"/>
+      <c r="F2293" s="2"/>
+      <c r="G2293" s="2"/>
+      <c r="H2293" s="2"/>
+      <c r="I2293" s="2"/>
+      <c r="J2293" s="2"/>
+      <c r="K2293" s="2"/>
+      <c r="L2293" s="2"/>
+      <c r="M2293" s="2"/>
+      <c r="N2293" s="2"/>
+      <c r="O2293" s="2"/>
+      <c r="P2293" s="2"/>
+      <c r="Q2293" s="2"/>
+      <c r="R2293" s="2"/>
+      <c r="S2293" s="2"/>
+      <c r="T2293" s="2"/>
+      <c r="U2293" s="2"/>
+      <c r="V2293" s="2"/>
+      <c r="W2293" s="2"/>
+      <c r="X2293" s="2"/>
+      <c r="Y2293" s="4"/>
+      <c r="Z2293" s="2"/>
+      <c r="AA2293" s="2"/>
+      <c r="AB2293" s="2"/>
+      <c r="AC2293" s="2"/>
+      <c r="AD2293" s="2"/>
+      <c r="AE2293" s="2"/>
+      <c r="AF2293" s="2"/>
+      <c r="AG2293" s="2"/>
+      <c r="AH2293" s="2"/>
+      <c r="AI2293" s="2"/>
+      <c r="AJ2293" s="2"/>
+      <c r="AK2293" s="2"/>
+      <c r="AL2293" s="2"/>
+      <c r="AM2293" s="2"/>
+      <c r="AN2293" s="2"/>
+      <c r="AO2293" s="2"/>
+      <c r="AP2293" s="2"/>
+      <c r="AQ2293" s="2"/>
+      <c r="AR2293" s="2"/>
+      <c r="AS2293" s="2"/>
+      <c r="AT2293" s="2"/>
+      <c r="AU2293" s="2"/>
+      <c r="AV2293" s="2"/>
+      <c r="AW2293" s="2"/>
+      <c r="AX2293" s="2"/>
+      <c r="AY2293" s="2"/>
+      <c r="AZ2293" s="2"/>
+      <c r="BA2293" s="2"/>
+      <c r="BB2293" s="2"/>
+      <c r="BC2293" s="2"/>
+      <c r="BD2293" s="2"/>
+      <c r="BE2293" s="2"/>
+      <c r="BF2293" s="2"/>
+      <c r="BG2293" s="2"/>
+      <c r="BH2293" s="2"/>
+      <c r="BI2293" s="2"/>
+      <c r="BJ2293" s="2"/>
+      <c r="BK2293" s="2"/>
+      <c r="BL2293" s="2"/>
+      <c r="BM2293" s="2"/>
+      <c r="BN2293" s="2"/>
+      <c r="BO2293" s="2"/>
+      <c r="BP2293" s="2"/>
+      <c r="BQ2293" s="2"/>
+      <c r="BR2293" s="2"/>
+      <c r="BS2293" s="2"/>
+      <c r="BT2293" s="2"/>
+      <c r="BU2293" s="2"/>
+      <c r="BV2293" s="2"/>
+      <c r="BW2293" s="2"/>
+      <c r="BX2293" s="2"/>
+      <c r="BY2293" s="2"/>
+      <c r="BZ2293" s="2"/>
+      <c r="CA2293" s="2"/>
+      <c r="CB2293" s="2"/>
+      <c r="CC2293" s="2"/>
+      <c r="CD2293" s="2"/>
+    </row>
+    <row r="2327" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2327" s="2"/>
+      <c r="C2327" s="2"/>
+      <c r="D2327" s="2"/>
+      <c r="E2327" s="2"/>
+      <c r="F2327" s="2"/>
+      <c r="G2327" s="2"/>
+      <c r="H2327" s="2"/>
+      <c r="I2327" s="2"/>
+      <c r="J2327" s="2"/>
+      <c r="K2327" s="2"/>
+      <c r="L2327" s="2"/>
+      <c r="M2327" s="2"/>
+      <c r="N2327" s="2"/>
+      <c r="O2327" s="2"/>
+      <c r="P2327" s="2"/>
+      <c r="Q2327" s="2"/>
+      <c r="R2327" s="2"/>
+      <c r="S2327" s="2"/>
+      <c r="T2327" s="2"/>
+      <c r="U2327" s="2"/>
+      <c r="V2327" s="2"/>
+      <c r="W2327" s="2"/>
+      <c r="X2327" s="2"/>
+      <c r="Y2327" s="4"/>
+      <c r="Z2327" s="2"/>
+      <c r="AA2327" s="2"/>
+      <c r="AB2327" s="2"/>
+      <c r="AC2327" s="2"/>
+      <c r="AD2327" s="2"/>
+      <c r="AE2327" s="2"/>
+      <c r="AF2327" s="2"/>
+      <c r="AG2327" s="2"/>
+      <c r="AH2327" s="2"/>
+      <c r="AI2327" s="2"/>
+      <c r="AJ2327" s="2"/>
+      <c r="AK2327" s="2"/>
+      <c r="AL2327" s="2"/>
+      <c r="AM2327" s="2"/>
+      <c r="AN2327" s="2"/>
+      <c r="AO2327" s="2"/>
+      <c r="AP2327" s="2"/>
+      <c r="AQ2327" s="2"/>
+      <c r="AR2327" s="2"/>
+      <c r="AS2327" s="2"/>
+      <c r="AT2327" s="2"/>
+      <c r="AU2327" s="2"/>
+      <c r="AV2327" s="2"/>
+      <c r="AW2327" s="2"/>
+      <c r="AX2327" s="2"/>
+      <c r="AY2327" s="2"/>
+      <c r="AZ2327" s="2"/>
+      <c r="BA2327" s="2"/>
+      <c r="BB2327" s="2"/>
+      <c r="BC2327" s="2"/>
+      <c r="BD2327" s="2"/>
+      <c r="BE2327" s="2"/>
+      <c r="BF2327" s="2"/>
+      <c r="BG2327" s="2"/>
+      <c r="BH2327" s="2"/>
+      <c r="BI2327" s="2"/>
+      <c r="BJ2327" s="2"/>
+      <c r="BK2327" s="2"/>
+      <c r="BL2327" s="2"/>
+      <c r="BM2327" s="2"/>
+      <c r="BN2327" s="2"/>
+      <c r="BO2327" s="2"/>
+      <c r="BP2327" s="2"/>
+      <c r="BQ2327" s="2"/>
+      <c r="BR2327" s="2"/>
+      <c r="BS2327" s="2"/>
+      <c r="BT2327" s="2"/>
+      <c r="BU2327" s="2"/>
+      <c r="BV2327" s="2"/>
+      <c r="BW2327" s="2"/>
+      <c r="BX2327" s="2"/>
+      <c r="BY2327" s="2"/>
+      <c r="BZ2327" s="2"/>
+      <c r="CA2327" s="2"/>
+      <c r="CB2327" s="2"/>
+      <c r="CC2327" s="2"/>
+      <c r="CD2327" s="2"/>
+    </row>
+    <row r="2361" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2361" s="2"/>
+      <c r="C2361" s="2"/>
+      <c r="D2361" s="2"/>
+      <c r="E2361" s="2"/>
+      <c r="F2361" s="2"/>
+      <c r="G2361" s="2"/>
+      <c r="H2361" s="2"/>
+      <c r="I2361" s="2"/>
+      <c r="J2361" s="2"/>
+      <c r="K2361" s="2"/>
+      <c r="L2361" s="2"/>
+      <c r="M2361" s="2"/>
+      <c r="N2361" s="2"/>
+      <c r="O2361" s="2"/>
+      <c r="P2361" s="2"/>
+      <c r="Q2361" s="2"/>
+      <c r="R2361" s="2"/>
+      <c r="S2361" s="2"/>
+      <c r="T2361" s="2"/>
+      <c r="U2361" s="2"/>
+      <c r="V2361" s="2"/>
+      <c r="W2361" s="2"/>
+      <c r="X2361" s="2"/>
+      <c r="Y2361" s="4"/>
+      <c r="Z2361" s="2"/>
+      <c r="AA2361" s="2"/>
+      <c r="AB2361" s="2"/>
+      <c r="AC2361" s="2"/>
+      <c r="AD2361" s="2"/>
+      <c r="AE2361" s="2"/>
+      <c r="AF2361" s="2"/>
+      <c r="AG2361" s="2"/>
+      <c r="AH2361" s="2"/>
+      <c r="AI2361" s="2"/>
+      <c r="AJ2361" s="2"/>
+      <c r="AK2361" s="2"/>
+      <c r="AL2361" s="2"/>
+      <c r="AM2361" s="2"/>
+      <c r="AN2361" s="2"/>
+      <c r="AO2361" s="2"/>
+      <c r="AP2361" s="2"/>
+      <c r="AQ2361" s="2"/>
+      <c r="AR2361" s="2"/>
+      <c r="AS2361" s="2"/>
+      <c r="AT2361" s="2"/>
+      <c r="AU2361" s="2"/>
+      <c r="AV2361" s="2"/>
+      <c r="AW2361" s="2"/>
+      <c r="AX2361" s="2"/>
+      <c r="AY2361" s="2"/>
+      <c r="AZ2361" s="2"/>
+      <c r="BA2361" s="2"/>
+      <c r="BB2361" s="2"/>
+      <c r="BC2361" s="2"/>
+      <c r="BD2361" s="2"/>
+      <c r="BE2361" s="2"/>
+      <c r="BF2361" s="2"/>
+      <c r="BG2361" s="2"/>
+      <c r="BH2361" s="2"/>
+      <c r="BI2361" s="2"/>
+      <c r="BJ2361" s="2"/>
+      <c r="BK2361" s="2"/>
+      <c r="BL2361" s="2"/>
+      <c r="BM2361" s="2"/>
+      <c r="BN2361" s="2"/>
+      <c r="BO2361" s="2"/>
+      <c r="BP2361" s="2"/>
+      <c r="BQ2361" s="2"/>
+      <c r="BR2361" s="2"/>
+      <c r="BS2361" s="2"/>
+      <c r="BT2361" s="2"/>
+      <c r="BU2361" s="2"/>
+      <c r="BV2361" s="2"/>
+      <c r="BW2361" s="2"/>
+      <c r="BX2361" s="2"/>
+      <c r="BY2361" s="2"/>
+      <c r="BZ2361" s="2"/>
+      <c r="CA2361" s="2"/>
+      <c r="CB2361" s="2"/>
+      <c r="CC2361" s="2"/>
+      <c r="CD2361" s="2"/>
+    </row>
+    <row r="2395" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2395" s="2"/>
+      <c r="C2395" s="2"/>
+      <c r="D2395" s="2"/>
+      <c r="E2395" s="2"/>
+      <c r="F2395" s="2"/>
+      <c r="G2395" s="2"/>
+      <c r="H2395" s="2"/>
+      <c r="I2395" s="2"/>
+      <c r="J2395" s="2"/>
+      <c r="K2395" s="2"/>
+      <c r="L2395" s="2"/>
+      <c r="M2395" s="2"/>
+      <c r="N2395" s="2"/>
+      <c r="O2395" s="2"/>
+      <c r="P2395" s="2"/>
+      <c r="Q2395" s="2"/>
+      <c r="R2395" s="2"/>
+      <c r="S2395" s="2"/>
+      <c r="T2395" s="2"/>
+      <c r="U2395" s="2"/>
+      <c r="V2395" s="2"/>
+      <c r="W2395" s="2"/>
+      <c r="X2395" s="2"/>
+      <c r="Y2395" s="4"/>
+      <c r="Z2395" s="2"/>
+      <c r="AA2395" s="2"/>
+      <c r="AB2395" s="2"/>
+      <c r="AC2395" s="2"/>
+      <c r="AD2395" s="2"/>
+      <c r="AE2395" s="2"/>
+      <c r="AF2395" s="2"/>
+      <c r="AG2395" s="2"/>
+      <c r="AH2395" s="2"/>
+      <c r="AI2395" s="2"/>
+      <c r="AJ2395" s="2"/>
+      <c r="AK2395" s="2"/>
+      <c r="AL2395" s="2"/>
+      <c r="AM2395" s="2"/>
+      <c r="AN2395" s="2"/>
+      <c r="AO2395" s="2"/>
+      <c r="AP2395" s="2"/>
+      <c r="AQ2395" s="2"/>
+      <c r="AR2395" s="2"/>
+      <c r="AS2395" s="2"/>
+      <c r="AT2395" s="2"/>
+      <c r="AU2395" s="2"/>
+      <c r="AV2395" s="2"/>
+      <c r="AW2395" s="2"/>
+      <c r="AX2395" s="2"/>
+      <c r="AY2395" s="2"/>
+      <c r="AZ2395" s="2"/>
+      <c r="BA2395" s="2"/>
+      <c r="BB2395" s="2"/>
+      <c r="BC2395" s="2"/>
+      <c r="BD2395" s="2"/>
+      <c r="BE2395" s="2"/>
+      <c r="BF2395" s="2"/>
+      <c r="BG2395" s="2"/>
+      <c r="BH2395" s="2"/>
+      <c r="BI2395" s="2"/>
+      <c r="BJ2395" s="2"/>
+      <c r="BK2395" s="2"/>
+      <c r="BL2395" s="2"/>
+      <c r="BM2395" s="2"/>
+      <c r="BN2395" s="2"/>
+      <c r="BO2395" s="2"/>
+      <c r="BP2395" s="2"/>
+      <c r="BQ2395" s="2"/>
+      <c r="BR2395" s="2"/>
+      <c r="BS2395" s="2"/>
+      <c r="BT2395" s="2"/>
+      <c r="BU2395" s="2"/>
+      <c r="BV2395" s="2"/>
+      <c r="BW2395" s="2"/>
+      <c r="BX2395" s="2"/>
+      <c r="BY2395" s="2"/>
+      <c r="BZ2395" s="2"/>
+      <c r="CA2395" s="2"/>
+      <c r="CB2395" s="2"/>
+      <c r="CC2395" s="2"/>
+      <c r="CD2395" s="2"/>
+    </row>
+    <row r="2429" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2429" s="2"/>
+      <c r="C2429" s="2"/>
+      <c r="D2429" s="2"/>
+      <c r="E2429" s="2"/>
+      <c r="F2429" s="2"/>
+      <c r="G2429" s="2"/>
+      <c r="H2429" s="2"/>
+      <c r="I2429" s="2"/>
+      <c r="J2429" s="2"/>
+      <c r="K2429" s="2"/>
+      <c r="L2429" s="2"/>
+      <c r="M2429" s="2"/>
+      <c r="N2429" s="2"/>
+      <c r="O2429" s="2"/>
+      <c r="P2429" s="2"/>
+      <c r="Q2429" s="2"/>
+      <c r="R2429" s="2"/>
+      <c r="S2429" s="2"/>
+      <c r="T2429" s="2"/>
+      <c r="U2429" s="2"/>
+      <c r="V2429" s="2"/>
+      <c r="W2429" s="2"/>
+      <c r="X2429" s="2"/>
+      <c r="Y2429" s="4"/>
+      <c r="Z2429" s="2"/>
+      <c r="AA2429" s="2"/>
+      <c r="AB2429" s="2"/>
+      <c r="AC2429" s="2"/>
+      <c r="AD2429" s="2"/>
+      <c r="AE2429" s="2"/>
+      <c r="AF2429" s="2"/>
+      <c r="AG2429" s="2"/>
+      <c r="AH2429" s="2"/>
+      <c r="AI2429" s="2"/>
+      <c r="AJ2429" s="2"/>
+      <c r="AK2429" s="2"/>
+      <c r="AL2429" s="2"/>
+      <c r="AM2429" s="2"/>
+      <c r="AN2429" s="2"/>
+      <c r="AO2429" s="2"/>
+      <c r="AP2429" s="2"/>
+      <c r="AQ2429" s="2"/>
+      <c r="AR2429" s="2"/>
+      <c r="AS2429" s="2"/>
+      <c r="AT2429" s="2"/>
+      <c r="AU2429" s="2"/>
+      <c r="AV2429" s="2"/>
+      <c r="AW2429" s="2"/>
+      <c r="AX2429" s="2"/>
+      <c r="AY2429" s="2"/>
+      <c r="AZ2429" s="2"/>
+      <c r="BA2429" s="2"/>
+      <c r="BB2429" s="2"/>
+      <c r="BC2429" s="2"/>
+      <c r="BD2429" s="2"/>
+      <c r="BE2429" s="2"/>
+      <c r="BF2429" s="2"/>
+      <c r="BG2429" s="2"/>
+      <c r="BH2429" s="2"/>
+      <c r="BI2429" s="2"/>
+      <c r="BJ2429" s="2"/>
+      <c r="BK2429" s="2"/>
+      <c r="BL2429" s="2"/>
+      <c r="BM2429" s="2"/>
+      <c r="BN2429" s="2"/>
+      <c r="BO2429" s="2"/>
+      <c r="BP2429" s="2"/>
+      <c r="BQ2429" s="2"/>
+      <c r="BR2429" s="2"/>
+      <c r="BS2429" s="2"/>
+      <c r="BT2429" s="2"/>
+      <c r="BU2429" s="2"/>
+      <c r="BV2429" s="2"/>
+      <c r="BW2429" s="2"/>
+      <c r="BX2429" s="2"/>
+      <c r="BY2429" s="2"/>
+      <c r="BZ2429" s="2"/>
+      <c r="CA2429" s="2"/>
+      <c r="CB2429" s="2"/>
+      <c r="CC2429" s="2"/>
+      <c r="CD2429" s="2"/>
+    </row>
+    <row r="2463" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2463" s="2"/>
+      <c r="C2463" s="2"/>
+      <c r="D2463" s="2"/>
+      <c r="E2463" s="2"/>
+      <c r="F2463" s="2"/>
+      <c r="G2463" s="2"/>
+      <c r="H2463" s="2"/>
+      <c r="I2463" s="2"/>
+      <c r="J2463" s="2"/>
+      <c r="K2463" s="2"/>
+      <c r="L2463" s="2"/>
+      <c r="M2463" s="2"/>
+      <c r="N2463" s="2"/>
+      <c r="O2463" s="2"/>
+      <c r="P2463" s="2"/>
+      <c r="Q2463" s="2"/>
+      <c r="R2463" s="2"/>
+      <c r="S2463" s="2"/>
+      <c r="T2463" s="2"/>
+      <c r="U2463" s="2"/>
+      <c r="V2463" s="2"/>
+      <c r="W2463" s="2"/>
+      <c r="X2463" s="2"/>
+      <c r="Y2463" s="4"/>
+      <c r="Z2463" s="2"/>
+      <c r="AA2463" s="2"/>
+      <c r="AB2463" s="2"/>
+      <c r="AC2463" s="2"/>
+      <c r="AD2463" s="2"/>
+      <c r="AE2463" s="2"/>
+      <c r="AF2463" s="2"/>
+      <c r="AG2463" s="2"/>
+      <c r="AH2463" s="2"/>
+      <c r="AI2463" s="2"/>
+      <c r="AJ2463" s="2"/>
+      <c r="AK2463" s="2"/>
+      <c r="AL2463" s="2"/>
+      <c r="AM2463" s="2"/>
+      <c r="AN2463" s="2"/>
+      <c r="AO2463" s="2"/>
+      <c r="AP2463" s="2"/>
+      <c r="AQ2463" s="2"/>
+      <c r="AR2463" s="2"/>
+      <c r="AS2463" s="2"/>
+      <c r="AT2463" s="2"/>
+      <c r="AU2463" s="2"/>
+      <c r="AV2463" s="2"/>
+      <c r="AW2463" s="2"/>
+      <c r="AX2463" s="2"/>
+      <c r="AY2463" s="2"/>
+      <c r="AZ2463" s="2"/>
+      <c r="BA2463" s="2"/>
+      <c r="BB2463" s="2"/>
+      <c r="BC2463" s="2"/>
+      <c r="BD2463" s="2"/>
+      <c r="BE2463" s="2"/>
+      <c r="BF2463" s="2"/>
+      <c r="BG2463" s="2"/>
+      <c r="BH2463" s="2"/>
+      <c r="BI2463" s="2"/>
+      <c r="BJ2463" s="2"/>
+      <c r="BK2463" s="2"/>
+      <c r="BL2463" s="2"/>
+      <c r="BM2463" s="2"/>
+      <c r="BN2463" s="2"/>
+      <c r="BO2463" s="2"/>
+      <c r="BP2463" s="2"/>
+      <c r="BQ2463" s="2"/>
+      <c r="BR2463" s="2"/>
+      <c r="BS2463" s="2"/>
+      <c r="BT2463" s="2"/>
+      <c r="BU2463" s="2"/>
+      <c r="BV2463" s="2"/>
+      <c r="BW2463" s="2"/>
+      <c r="BX2463" s="2"/>
+      <c r="BY2463" s="2"/>
+      <c r="BZ2463" s="2"/>
+      <c r="CA2463" s="2"/>
+      <c r="CB2463" s="2"/>
+      <c r="CC2463" s="2"/>
+      <c r="CD2463" s="2"/>
+    </row>
+    <row r="2497" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2497" s="2"/>
+      <c r="C2497" s="2"/>
+      <c r="D2497" s="2"/>
+      <c r="E2497" s="2"/>
+      <c r="F2497" s="2"/>
+      <c r="G2497" s="2"/>
+      <c r="H2497" s="2"/>
+      <c r="I2497" s="2"/>
+      <c r="J2497" s="2"/>
+      <c r="K2497" s="2"/>
+      <c r="L2497" s="2"/>
+      <c r="M2497" s="2"/>
+      <c r="N2497" s="2"/>
+      <c r="O2497" s="2"/>
+      <c r="P2497" s="2"/>
+      <c r="Q2497" s="2"/>
+      <c r="R2497" s="2"/>
+      <c r="S2497" s="2"/>
+      <c r="T2497" s="2"/>
+      <c r="U2497" s="2"/>
+      <c r="V2497" s="2"/>
+      <c r="W2497" s="2"/>
+      <c r="X2497" s="2"/>
+      <c r="Y2497" s="4"/>
+      <c r="Z2497" s="2"/>
+      <c r="AA2497" s="2"/>
+      <c r="AB2497" s="2"/>
+      <c r="AC2497" s="2"/>
+      <c r="AD2497" s="2"/>
+      <c r="AE2497" s="2"/>
+      <c r="AF2497" s="2"/>
+      <c r="AG2497" s="2"/>
+      <c r="AH2497" s="2"/>
+      <c r="AI2497" s="2"/>
+      <c r="AJ2497" s="2"/>
+      <c r="AK2497" s="2"/>
+      <c r="AL2497" s="2"/>
+      <c r="AM2497" s="2"/>
+      <c r="AN2497" s="2"/>
+      <c r="AO2497" s="2"/>
+      <c r="AP2497" s="2"/>
+      <c r="AQ2497" s="2"/>
+      <c r="AR2497" s="2"/>
+      <c r="AS2497" s="2"/>
+      <c r="AT2497" s="2"/>
+      <c r="AU2497" s="2"/>
+      <c r="AV2497" s="2"/>
+      <c r="AW2497" s="2"/>
+      <c r="AX2497" s="2"/>
+      <c r="AY2497" s="2"/>
+      <c r="AZ2497" s="2"/>
+      <c r="BA2497" s="2"/>
+      <c r="BB2497" s="2"/>
+      <c r="BC2497" s="2"/>
+      <c r="BD2497" s="2"/>
+      <c r="BE2497" s="2"/>
+      <c r="BF2497" s="2"/>
+      <c r="BG2497" s="2"/>
+      <c r="BH2497" s="2"/>
+      <c r="BI2497" s="2"/>
+      <c r="BJ2497" s="2"/>
+      <c r="BK2497" s="2"/>
+      <c r="BL2497" s="2"/>
+      <c r="BM2497" s="2"/>
+      <c r="BN2497" s="2"/>
+      <c r="BO2497" s="2"/>
+      <c r="BP2497" s="2"/>
+      <c r="BQ2497" s="2"/>
+      <c r="BR2497" s="2"/>
+      <c r="BS2497" s="2"/>
+      <c r="BT2497" s="2"/>
+      <c r="BU2497" s="2"/>
+      <c r="BV2497" s="2"/>
+      <c r="BW2497" s="2"/>
+      <c r="BX2497" s="2"/>
+      <c r="BY2497" s="2"/>
+      <c r="BZ2497" s="2"/>
+      <c r="CA2497" s="2"/>
+      <c r="CB2497" s="2"/>
+      <c r="CC2497" s="2"/>
+      <c r="CD2497" s="2"/>
+    </row>
+    <row r="2531" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2531" s="2"/>
+      <c r="C2531" s="2"/>
+      <c r="D2531" s="2"/>
+      <c r="E2531" s="2"/>
+      <c r="F2531" s="2"/>
+      <c r="G2531" s="2"/>
+      <c r="H2531" s="2"/>
+      <c r="I2531" s="2"/>
+      <c r="J2531" s="2"/>
+      <c r="K2531" s="2"/>
+      <c r="L2531" s="2"/>
+      <c r="M2531" s="2"/>
+      <c r="N2531" s="2"/>
+      <c r="O2531" s="2"/>
+      <c r="P2531" s="2"/>
+      <c r="Q2531" s="2"/>
+      <c r="R2531" s="2"/>
+      <c r="S2531" s="2"/>
+      <c r="T2531" s="2"/>
+      <c r="U2531" s="2"/>
+      <c r="V2531" s="2"/>
+      <c r="W2531" s="2"/>
+      <c r="X2531" s="2"/>
+      <c r="Y2531" s="4"/>
+      <c r="Z2531" s="2"/>
+      <c r="AA2531" s="2"/>
+      <c r="AB2531" s="2"/>
+      <c r="AC2531" s="2"/>
+      <c r="AD2531" s="2"/>
+      <c r="AE2531" s="2"/>
+      <c r="AF2531" s="2"/>
+      <c r="AG2531" s="2"/>
+      <c r="AH2531" s="2"/>
+      <c r="AI2531" s="2"/>
+      <c r="AJ2531" s="2"/>
+      <c r="AK2531" s="2"/>
+      <c r="AL2531" s="2"/>
+      <c r="AM2531" s="2"/>
+      <c r="AN2531" s="2"/>
+      <c r="AO2531" s="2"/>
+      <c r="AP2531" s="2"/>
+      <c r="AQ2531" s="2"/>
+      <c r="AR2531" s="2"/>
+      <c r="AS2531" s="2"/>
+      <c r="AT2531" s="2"/>
+      <c r="AU2531" s="2"/>
+      <c r="AV2531" s="2"/>
+      <c r="AW2531" s="2"/>
+      <c r="AX2531" s="2"/>
+      <c r="AY2531" s="2"/>
+      <c r="AZ2531" s="2"/>
+      <c r="BA2531" s="2"/>
+      <c r="BB2531" s="2"/>
+      <c r="BC2531" s="2"/>
+      <c r="BD2531" s="2"/>
+      <c r="BE2531" s="2"/>
+      <c r="BF2531" s="2"/>
+      <c r="BG2531" s="2"/>
+      <c r="BH2531" s="2"/>
+      <c r="BI2531" s="2"/>
+      <c r="BJ2531" s="2"/>
+      <c r="BK2531" s="2"/>
+      <c r="BL2531" s="2"/>
+      <c r="BM2531" s="2"/>
+      <c r="BN2531" s="2"/>
+      <c r="BO2531" s="2"/>
+      <c r="BP2531" s="2"/>
+      <c r="BQ2531" s="2"/>
+      <c r="BR2531" s="2"/>
+      <c r="BS2531" s="2"/>
+      <c r="BT2531" s="2"/>
+      <c r="BU2531" s="2"/>
+      <c r="BV2531" s="2"/>
+      <c r="BW2531" s="2"/>
+      <c r="BX2531" s="2"/>
+      <c r="BY2531" s="2"/>
+      <c r="BZ2531" s="2"/>
+      <c r="CA2531" s="2"/>
+      <c r="CB2531" s="2"/>
+      <c r="CC2531" s="2"/>
+      <c r="CD2531" s="2"/>
+    </row>
+    <row r="2565" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2565" s="2"/>
+      <c r="C2565" s="2"/>
+      <c r="D2565" s="2"/>
+      <c r="E2565" s="2"/>
+      <c r="F2565" s="2"/>
+      <c r="G2565" s="2"/>
+      <c r="H2565" s="2"/>
+      <c r="I2565" s="2"/>
+      <c r="J2565" s="2"/>
+      <c r="K2565" s="2"/>
+      <c r="L2565" s="2"/>
+      <c r="M2565" s="2"/>
+      <c r="N2565" s="2"/>
+      <c r="O2565" s="2"/>
+      <c r="P2565" s="2"/>
+      <c r="Q2565" s="2"/>
+      <c r="R2565" s="2"/>
+      <c r="S2565" s="2"/>
+      <c r="T2565" s="2"/>
+      <c r="U2565" s="2"/>
+      <c r="V2565" s="2"/>
+      <c r="W2565" s="2"/>
+      <c r="X2565" s="2"/>
+      <c r="Y2565" s="4"/>
+      <c r="Z2565" s="2"/>
+      <c r="AA2565" s="2"/>
+      <c r="AB2565" s="2"/>
+      <c r="AC2565" s="2"/>
+      <c r="AD2565" s="2"/>
+      <c r="AE2565" s="2"/>
+      <c r="AF2565" s="2"/>
+      <c r="AG2565" s="2"/>
+      <c r="AH2565" s="2"/>
+      <c r="AI2565" s="2"/>
+      <c r="AJ2565" s="2"/>
+      <c r="AK2565" s="2"/>
+      <c r="AL2565" s="2"/>
+      <c r="AM2565" s="2"/>
+      <c r="AN2565" s="2"/>
+      <c r="AO2565" s="2"/>
+      <c r="AP2565" s="2"/>
+      <c r="AQ2565" s="2"/>
+      <c r="AR2565" s="2"/>
+      <c r="AS2565" s="2"/>
+      <c r="AT2565" s="2"/>
+      <c r="AU2565" s="2"/>
+      <c r="AV2565" s="2"/>
+      <c r="AW2565" s="2"/>
+      <c r="AX2565" s="2"/>
+      <c r="AY2565" s="2"/>
+      <c r="AZ2565" s="2"/>
+      <c r="BA2565" s="2"/>
+      <c r="BB2565" s="2"/>
+      <c r="BC2565" s="2"/>
+      <c r="BD2565" s="2"/>
+      <c r="BE2565" s="2"/>
+      <c r="BF2565" s="2"/>
+      <c r="BG2565" s="2"/>
+      <c r="BH2565" s="2"/>
+      <c r="BI2565" s="2"/>
+      <c r="BJ2565" s="2"/>
+      <c r="BK2565" s="2"/>
+      <c r="BL2565" s="2"/>
+      <c r="BM2565" s="2"/>
+      <c r="BN2565" s="2"/>
+      <c r="BO2565" s="2"/>
+      <c r="BP2565" s="2"/>
+      <c r="BQ2565" s="2"/>
+      <c r="BR2565" s="2"/>
+      <c r="BS2565" s="2"/>
+      <c r="BT2565" s="2"/>
+      <c r="BU2565" s="2"/>
+      <c r="BV2565" s="2"/>
+      <c r="BW2565" s="2"/>
+      <c r="BX2565" s="2"/>
+      <c r="BY2565" s="2"/>
+      <c r="BZ2565" s="2"/>
+      <c r="CA2565" s="2"/>
+      <c r="CB2565" s="2"/>
+      <c r="CC2565" s="2"/>
+      <c r="CD2565" s="2"/>
+    </row>
+    <row r="2599" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2599" s="2"/>
+      <c r="C2599" s="2"/>
+      <c r="D2599" s="2"/>
+      <c r="E2599" s="2"/>
+      <c r="F2599" s="2"/>
+      <c r="G2599" s="2"/>
+      <c r="H2599" s="2"/>
+      <c r="I2599" s="2"/>
+      <c r="J2599" s="2"/>
+      <c r="K2599" s="2"/>
+      <c r="L2599" s="2"/>
+      <c r="M2599" s="2"/>
+      <c r="N2599" s="2"/>
+      <c r="O2599" s="2"/>
+      <c r="P2599" s="2"/>
+      <c r="Q2599" s="2"/>
+      <c r="R2599" s="2"/>
+      <c r="S2599" s="2"/>
+      <c r="T2599" s="2"/>
+      <c r="U2599" s="2"/>
+      <c r="V2599" s="2"/>
+      <c r="W2599" s="2"/>
+      <c r="X2599" s="2"/>
+      <c r="Y2599" s="4"/>
+      <c r="Z2599" s="2"/>
+      <c r="AA2599" s="2"/>
+      <c r="AB2599" s="2"/>
+      <c r="AC2599" s="2"/>
+      <c r="AD2599" s="2"/>
+      <c r="AE2599" s="2"/>
+      <c r="AF2599" s="2"/>
+      <c r="AG2599" s="2"/>
+      <c r="AH2599" s="2"/>
+      <c r="AI2599" s="2"/>
+      <c r="AJ2599" s="2"/>
+      <c r="AK2599" s="2"/>
+      <c r="AL2599" s="2"/>
+      <c r="AM2599" s="2"/>
+      <c r="AN2599" s="2"/>
+      <c r="AO2599" s="2"/>
+      <c r="AP2599" s="2"/>
+      <c r="AQ2599" s="2"/>
+      <c r="AR2599" s="2"/>
+      <c r="AS2599" s="2"/>
+      <c r="AT2599" s="2"/>
+      <c r="AU2599" s="2"/>
+      <c r="AV2599" s="2"/>
+      <c r="AW2599" s="2"/>
+      <c r="AX2599" s="2"/>
+      <c r="AY2599" s="2"/>
+      <c r="AZ2599" s="2"/>
+      <c r="BA2599" s="2"/>
+      <c r="BB2599" s="2"/>
+      <c r="BC2599" s="2"/>
+      <c r="BD2599" s="2"/>
+      <c r="BE2599" s="2"/>
+      <c r="BF2599" s="2"/>
+      <c r="BG2599" s="2"/>
+      <c r="BH2599" s="2"/>
+      <c r="BI2599" s="2"/>
+      <c r="BJ2599" s="2"/>
+      <c r="BK2599" s="2"/>
+      <c r="BL2599" s="2"/>
+      <c r="BM2599" s="2"/>
+      <c r="BN2599" s="2"/>
+      <c r="BO2599" s="2"/>
+      <c r="BP2599" s="2"/>
+      <c r="BQ2599" s="2"/>
+      <c r="BR2599" s="2"/>
+      <c r="BS2599" s="2"/>
+      <c r="BT2599" s="2"/>
+      <c r="BU2599" s="2"/>
+      <c r="BV2599" s="2"/>
+      <c r="BW2599" s="2"/>
+      <c r="BX2599" s="2"/>
+      <c r="BY2599" s="2"/>
+      <c r="BZ2599" s="2"/>
+      <c r="CA2599" s="2"/>
+      <c r="CB2599" s="2"/>
+      <c r="CC2599" s="2"/>
+      <c r="CD2599" s="2"/>
+    </row>
+    <row r="2633" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2633" s="2"/>
+      <c r="C2633" s="2"/>
+      <c r="D2633" s="2"/>
+      <c r="E2633" s="2"/>
+      <c r="F2633" s="2"/>
+      <c r="G2633" s="2"/>
+      <c r="H2633" s="2"/>
+      <c r="I2633" s="2"/>
+      <c r="J2633" s="2"/>
+      <c r="K2633" s="2"/>
+      <c r="L2633" s="2"/>
+      <c r="M2633" s="2"/>
+      <c r="N2633" s="2"/>
+      <c r="O2633" s="2"/>
+      <c r="P2633" s="2"/>
+      <c r="Q2633" s="2"/>
+      <c r="R2633" s="2"/>
+      <c r="S2633" s="2"/>
+      <c r="T2633" s="2"/>
+      <c r="U2633" s="2"/>
+      <c r="V2633" s="2"/>
+      <c r="W2633" s="2"/>
+      <c r="X2633" s="2"/>
+      <c r="Y2633" s="4"/>
+      <c r="Z2633" s="2"/>
+      <c r="AA2633" s="2"/>
+      <c r="AB2633" s="2"/>
+      <c r="AC2633" s="2"/>
+      <c r="AD2633" s="2"/>
+      <c r="AE2633" s="2"/>
+      <c r="AF2633" s="2"/>
+      <c r="AG2633" s="2"/>
+      <c r="AH2633" s="2"/>
+      <c r="AI2633" s="2"/>
+      <c r="AJ2633" s="2"/>
+      <c r="AK2633" s="2"/>
+      <c r="AL2633" s="2"/>
+      <c r="AM2633" s="2"/>
+      <c r="AN2633" s="2"/>
+      <c r="AO2633" s="2"/>
+      <c r="AP2633" s="2"/>
+      <c r="AQ2633" s="2"/>
+      <c r="AR2633" s="2"/>
+      <c r="AS2633" s="2"/>
+      <c r="AT2633" s="2"/>
+      <c r="AU2633" s="2"/>
+      <c r="AV2633" s="2"/>
+      <c r="AW2633" s="2"/>
+      <c r="AX2633" s="2"/>
+      <c r="AY2633" s="2"/>
+      <c r="AZ2633" s="2"/>
+      <c r="BA2633" s="2"/>
+      <c r="BB2633" s="2"/>
+      <c r="BC2633" s="2"/>
+      <c r="BD2633" s="2"/>
+      <c r="BE2633" s="2"/>
+      <c r="BF2633" s="2"/>
+      <c r="BG2633" s="2"/>
+      <c r="BH2633" s="2"/>
+      <c r="BI2633" s="2"/>
+      <c r="BJ2633" s="2"/>
+      <c r="BK2633" s="2"/>
+      <c r="BL2633" s="2"/>
+      <c r="BM2633" s="2"/>
+      <c r="BN2633" s="2"/>
+      <c r="BO2633" s="2"/>
+      <c r="BP2633" s="2"/>
+      <c r="BQ2633" s="2"/>
+      <c r="BR2633" s="2"/>
+      <c r="BS2633" s="2"/>
+      <c r="BT2633" s="2"/>
+      <c r="BU2633" s="2"/>
+      <c r="BV2633" s="2"/>
+      <c r="BW2633" s="2"/>
+      <c r="BX2633" s="2"/>
+      <c r="BY2633" s="2"/>
+      <c r="BZ2633" s="2"/>
+      <c r="CA2633" s="2"/>
+      <c r="CB2633" s="2"/>
+      <c r="CC2633" s="2"/>
+      <c r="CD2633" s="2"/>
+    </row>
+    <row r="2667" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2667" s="2"/>
+      <c r="C2667" s="2"/>
+      <c r="D2667" s="2"/>
+      <c r="E2667" s="2"/>
+      <c r="F2667" s="2"/>
+      <c r="G2667" s="2"/>
+      <c r="H2667" s="2"/>
+      <c r="I2667" s="2"/>
+      <c r="J2667" s="2"/>
+      <c r="K2667" s="2"/>
+      <c r="L2667" s="2"/>
+      <c r="M2667" s="2"/>
+      <c r="N2667" s="2"/>
+      <c r="O2667" s="2"/>
+      <c r="P2667" s="2"/>
+      <c r="Q2667" s="2"/>
+      <c r="R2667" s="2"/>
+      <c r="S2667" s="2"/>
+      <c r="T2667" s="2"/>
+      <c r="U2667" s="2"/>
+      <c r="V2667" s="2"/>
+      <c r="W2667" s="2"/>
+      <c r="X2667" s="2"/>
+      <c r="Y2667" s="4"/>
+      <c r="Z2667" s="2"/>
+      <c r="AA2667" s="2"/>
+      <c r="AB2667" s="2"/>
+      <c r="AC2667" s="2"/>
+      <c r="AD2667" s="2"/>
+      <c r="AE2667" s="2"/>
+      <c r="AF2667" s="2"/>
+      <c r="AG2667" s="2"/>
+      <c r="AH2667" s="2"/>
+      <c r="AI2667" s="2"/>
+      <c r="AJ2667" s="2"/>
+      <c r="AK2667" s="2"/>
+      <c r="AL2667" s="2"/>
+      <c r="AM2667" s="2"/>
+      <c r="AN2667" s="2"/>
+      <c r="AO2667" s="2"/>
+      <c r="AP2667" s="2"/>
+      <c r="AQ2667" s="2"/>
+      <c r="AR2667" s="2"/>
+      <c r="AS2667" s="2"/>
+      <c r="AT2667" s="2"/>
+      <c r="AU2667" s="2"/>
+      <c r="AV2667" s="2"/>
+      <c r="AW2667" s="2"/>
+      <c r="AX2667" s="2"/>
+      <c r="AY2667" s="2"/>
+      <c r="AZ2667" s="2"/>
+      <c r="BA2667" s="2"/>
+      <c r="BB2667" s="2"/>
+      <c r="BC2667" s="2"/>
+      <c r="BD2667" s="2"/>
+      <c r="BE2667" s="2"/>
+      <c r="BF2667" s="2"/>
+      <c r="BG2667" s="2"/>
+      <c r="BH2667" s="2"/>
+      <c r="BI2667" s="2"/>
+      <c r="BJ2667" s="2"/>
+      <c r="BK2667" s="2"/>
+      <c r="BL2667" s="2"/>
+      <c r="BM2667" s="2"/>
+      <c r="BN2667" s="2"/>
+      <c r="BO2667" s="2"/>
+      <c r="BP2667" s="2"/>
+      <c r="BQ2667" s="2"/>
+      <c r="BR2667" s="2"/>
+      <c r="BS2667" s="2"/>
+      <c r="BT2667" s="2"/>
+      <c r="BU2667" s="2"/>
+      <c r="BV2667" s="2"/>
+      <c r="BW2667" s="2"/>
+      <c r="BX2667" s="2"/>
+      <c r="BY2667" s="2"/>
+      <c r="BZ2667" s="2"/>
+      <c r="CA2667" s="2"/>
+      <c r="CB2667" s="2"/>
+      <c r="CC2667" s="2"/>
+      <c r="CD2667" s="2"/>
+    </row>
+    <row r="2701" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2701" s="2"/>
+      <c r="C2701" s="2"/>
+      <c r="D2701" s="2"/>
+      <c r="E2701" s="2"/>
+      <c r="F2701" s="2"/>
+      <c r="G2701" s="2"/>
+      <c r="H2701" s="2"/>
+      <c r="I2701" s="2"/>
+      <c r="J2701" s="2"/>
+      <c r="K2701" s="2"/>
+      <c r="L2701" s="2"/>
+      <c r="M2701" s="2"/>
+      <c r="N2701" s="2"/>
+      <c r="O2701" s="2"/>
+      <c r="P2701" s="2"/>
+      <c r="Q2701" s="2"/>
+      <c r="R2701" s="2"/>
+      <c r="S2701" s="2"/>
+      <c r="T2701" s="2"/>
+      <c r="U2701" s="2"/>
+      <c r="V2701" s="2"/>
+      <c r="W2701" s="2"/>
+      <c r="X2701" s="2"/>
+      <c r="Y2701" s="4"/>
+      <c r="Z2701" s="2"/>
+      <c r="AA2701" s="2"/>
+      <c r="AB2701" s="2"/>
+      <c r="AC2701" s="2"/>
+      <c r="AD2701" s="2"/>
+      <c r="AE2701" s="2"/>
+      <c r="AF2701" s="2"/>
+      <c r="AG2701" s="2"/>
+      <c r="AH2701" s="2"/>
+      <c r="AI2701" s="2"/>
+      <c r="AJ2701" s="2"/>
+      <c r="AK2701" s="2"/>
+      <c r="AL2701" s="2"/>
+      <c r="AM2701" s="2"/>
+      <c r="AN2701" s="2"/>
+      <c r="AO2701" s="2"/>
+      <c r="AP2701" s="2"/>
+      <c r="AQ2701" s="2"/>
+      <c r="AR2701" s="2"/>
+      <c r="AS2701" s="2"/>
+      <c r="AT2701" s="2"/>
+      <c r="AU2701" s="2"/>
+      <c r="AV2701" s="2"/>
+      <c r="AW2701" s="2"/>
+      <c r="AX2701" s="2"/>
+      <c r="AY2701" s="2"/>
+      <c r="AZ2701" s="2"/>
+      <c r="BA2701" s="2"/>
+      <c r="BB2701" s="2"/>
+      <c r="BC2701" s="2"/>
+      <c r="BD2701" s="2"/>
+      <c r="BE2701" s="2"/>
+      <c r="BF2701" s="2"/>
+      <c r="BG2701" s="2"/>
+      <c r="BH2701" s="2"/>
+      <c r="BI2701" s="2"/>
+      <c r="BJ2701" s="2"/>
+      <c r="BK2701" s="2"/>
+      <c r="BL2701" s="2"/>
+      <c r="BM2701" s="2"/>
+      <c r="BN2701" s="2"/>
+      <c r="BO2701" s="2"/>
+      <c r="BP2701" s="2"/>
+      <c r="BQ2701" s="2"/>
+      <c r="BR2701" s="2"/>
+      <c r="BS2701" s="2"/>
+      <c r="BT2701" s="2"/>
+      <c r="BU2701" s="2"/>
+      <c r="BV2701" s="2"/>
+      <c r="BW2701" s="2"/>
+      <c r="BX2701" s="2"/>
+      <c r="BY2701" s="2"/>
+      <c r="BZ2701" s="2"/>
+      <c r="CA2701" s="2"/>
+      <c r="CB2701" s="2"/>
+      <c r="CC2701" s="2"/>
+      <c r="CD2701" s="2"/>
+    </row>
+    <row r="2735" spans="2:82" x14ac:dyDescent="0.3">
+      <c r="B2735" s="2"/>
+      <c r="C2735" s="2"/>
+      <c r="D2735" s="2"/>
+      <c r="E2735" s="2"/>
+      <c r="F2735" s="2"/>
+      <c r="G2735" s="2"/>
+      <c r="H2735" s="2"/>
+      <c r="I2735" s="2"/>
+      <c r="J2735" s="2"/>
+      <c r="K2735" s="2"/>
+      <c r="L2735" s="2"/>
+      <c r="M2735" s="2"/>
+      <c r="N2735" s="2"/>
+      <c r="O2735" s="2"/>
+      <c r="P2735" s="2"/>
+      <c r="Q2735" s="2"/>
+      <c r="R2735" s="2"/>
+      <c r="S2735" s="2"/>
+      <c r="T2735" s="2"/>
+      <c r="U2735" s="2"/>
+      <c r="V2735" s="2"/>
+      <c r="W2735" s="2"/>
+      <c r="X2735" s="2"/>
+      <c r="Y2735" s="4"/>
+      <c r="Z2735" s="2"/>
+      <c r="AA2735" s="2"/>
+      <c r="AB2735" s="2"/>
+      <c r="AC2735" s="2"/>
+      <c r="AD2735" s="2"/>
+      <c r="AE2735" s="2"/>
+      <c r="AF2735" s="2"/>
+      <c r="AG2735" s="2"/>
+      <c r="AH2735" s="2"/>
+      <c r="AI2735" s="2"/>
+      <c r="AJ2735" s="2"/>
+      <c r="AK2735" s="2"/>
+      <c r="AL2735" s="2"/>
+      <c r="AM2735" s="2"/>
+      <c r="AN2735" s="2"/>
+      <c r="AO2735" s="2"/>
+      <c r="AP2735" s="2"/>
+      <c r="AQ2735" s="2"/>
+      <c r="AR2735" s="2"/>
+      <c r="AS2735" s="2"/>
+      <c r="AT2735" s="2"/>
+      <c r="AU2735" s="2"/>
+      <c r="AV2735" s="2"/>
+      <c r="AW2735" s="2"/>
+      <c r="AX2735" s="2"/>
+      <c r="AY2735" s="2"/>
+      <c r="AZ2735" s="2"/>
+      <c r="BA2735" s="2"/>
+      <c r="BB2735" s="2"/>
+      <c r="BC2735" s="2"/>
+      <c r="BD2735" s="2"/>
+      <c r="BE2735" s="2"/>
+      <c r="BF2735" s="2"/>
+      <c r="BG2735" s="2"/>
+      <c r="BH2735" s="2"/>
+      <c r="BI2735" s="2"/>
+      <c r="BJ2735" s="2"/>
+      <c r="BK2735" s="2"/>
+      <c r="BL2735" s="2"/>
+      <c r="BM2735" s="2"/>
+      <c r="BN2735" s="2"/>
+      <c r="BO2735" s="2"/>
+      <c r="BP2735" s="2"/>
+      <c r="BQ2735" s="2"/>
+      <c r="BR2735" s="2"/>
+      <c r="BS2735" s="2"/>
+      <c r="BT2735" s="2"/>
+      <c r="BU2735" s="2"/>
+      <c r="BV2735" s="2"/>
+      <c r="BW2735" s="2"/>
+      <c r="BX2735" s="2"/>
+      <c r="BY2735" s="2"/>
+      <c r="BZ2735" s="2"/>
+      <c r="CA2735" s="2"/>
+      <c r="CB2735" s="2"/>
+      <c r="CC2735" s="2"/>
+      <c r="CD2735" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD2">
@@ -3369,6 +9947,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:XFD12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:XFD13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3380,20 +9970,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:XFD13">
+  <conditionalFormatting sqref="A14:XFD14">
     <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:XFD14">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3404,15 +9982,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33:XFD33">
+  <conditionalFormatting sqref="A15:XFD15">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -3428,19 +10006,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:XFD35">
+  <conditionalFormatting sqref="A33:XFD33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:XFD15">
+  <conditionalFormatting sqref="A35:XFD35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3453,5 +10031,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>